--- a/interface.xlsx
+++ b/interface.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Library/CloudStorage/GoogleDrive-caiodinizbretas2001@gmail.com/Meu Drive/Coding/Projetos/Lumx/Financeiro/finance_database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E911F7-560C-4344-A2C1-63410FAF027B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C784C-3FC3-9049-8B04-B309A95A8C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="19880" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="1" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
-    <sheet name="projects" sheetId="3" r:id="rId2"/>
+    <sheet name="book" sheetId="5" r:id="rId2"/>
+    <sheet name="projects" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$G$179</definedName>
   </definedNames>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="371">
   <si>
     <t>Software - 650 Industries (Expo)</t>
   </si>
@@ -850,13 +854,316 @@
   </si>
   <si>
     <t>Software - Maze</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>is_lumx</t>
+  </si>
+  <si>
+    <t>is_safe</t>
+  </si>
+  <si>
+    <t>safe_blockchain</t>
+  </si>
+  <si>
+    <t>is_conversion</t>
+  </si>
+  <si>
+    <t>is_primarysale</t>
+  </si>
+  <si>
+    <t>is_secondarysale</t>
+  </si>
+  <si>
+    <t>0x29D212888BB715322a6f7c80A78Cb75E31B2d9Aa</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0xF9a69E54dBEe886fF3e40e61D1b219aa9B0c962B</t>
+  </si>
+  <si>
+    <t>Caio Barbosa</t>
+  </si>
+  <si>
+    <t>0xe32bb205766a79add2f92153e36613ef62f656ae</t>
+  </si>
+  <si>
+    <t>0x1111111254fb6c44bac0bed2854e76f90643097d</t>
+  </si>
+  <si>
+    <t>Conversão Gnosis</t>
+  </si>
+  <si>
+    <t>0xe2c911f96739f6911719e34bf27987238bf56d13</t>
+  </si>
+  <si>
+    <t>Gabriel Polverelli Nogueira</t>
+  </si>
+  <si>
+    <t>0x4E03498E4B14c4f5235018E8286e08864b00ACf2</t>
+  </si>
+  <si>
+    <t>Giancarlo Maricato Di Bella</t>
+  </si>
+  <si>
+    <t>0x4e3c4cb1c2ecc0005c5980a5c09ac5146529ccb2</t>
+  </si>
+  <si>
+    <t>Gnosis</t>
+  </si>
+  <si>
+    <t>Ethereum</t>
+  </si>
+  <si>
+    <t>0xd9Db270c1B5E3Bd161E8c8503c55cEABeE709552</t>
+  </si>
+  <si>
+    <t>Gnosis Safe: Singleton 1.3.0</t>
+  </si>
+  <si>
+    <t>0x1b98b4f35D5D026d8a0890b3a0138889CEE4b75a</t>
+  </si>
+  <si>
+    <t>Lucas Bier de Freitas</t>
+  </si>
+  <si>
+    <t>0xec66cf3F8b4E82e852A7629115d1c7724E1875a0</t>
+  </si>
+  <si>
+    <t>Michel Goldberg - Pessoal</t>
+  </si>
+  <si>
+    <t>0x531686eD12bA65f94BcaF4ed1A2478Ffac1A78E7</t>
+  </si>
+  <si>
+    <t>Michel Goldberg</t>
+  </si>
+  <si>
+    <t>0x7e4825127A94368d9aF8FC585957c544947fe6ed</t>
+  </si>
+  <si>
+    <t>Max Keiser</t>
+  </si>
+  <si>
+    <t>0x128dbbc9a8e0f1c9c5b28faca391891fcdc707f7</t>
+  </si>
+  <si>
+    <t>Mercado Bitcoin</t>
+  </si>
+  <si>
+    <t>0x611a0cd3ee785e6aecf280ee0688a8d3dc4c84a5</t>
+  </si>
+  <si>
+    <t>Marcos Antonio da Silva Lima Filho</t>
+  </si>
+  <si>
+    <t>0x1fc7b18b6a252f61284b7927ca781c79675cba6f</t>
+  </si>
+  <si>
+    <t>Luiz Henrique Gomes</t>
+  </si>
+  <si>
+    <t>0x2e9847B74Fe3446a6313384725081f7eF2E6987D</t>
+  </si>
+  <si>
+    <t>Nelson 55Unity</t>
+  </si>
+  <si>
+    <t>0x26ac68037c202b8ac2d1cfcc487651dad41b68e0</t>
+  </si>
+  <si>
+    <t>Ledger</t>
+  </si>
+  <si>
+    <t>0x0B7a434782792B539623Fd72a428838eA4173B22</t>
+  </si>
+  <si>
+    <t>OpenSea</t>
+  </si>
+  <si>
+    <t>0xa6B71E26C5e0845f74c812102Ca7114b6a896AB2</t>
+  </si>
+  <si>
+    <t>Gnosis Safe: ProxyFactory 1.3.0</t>
+  </si>
+  <si>
+    <t>0x00000000006c3852cbEf3e08E8dF289169EdE581</t>
+  </si>
+  <si>
+    <t>OpenSea Seaport</t>
+  </si>
+  <si>
+    <t>0xb893c920d3647fffbcd9b19590fcd149b3c9a094</t>
+  </si>
+  <si>
+    <t>Pedro Medeiros Delgado</t>
+  </si>
+  <si>
+    <t>0xf5fdCC827a902550C4C0Ff2Cb0c9BcEA0064226d</t>
+  </si>
+  <si>
+    <t>Gabriela Leão</t>
+  </si>
+  <si>
+    <t>0x15526AF86721E8265139e4F3D759c343aC1d53ce</t>
+  </si>
+  <si>
+    <t>AREZZO INDÚSTRIA E COMERCIO S.A</t>
+  </si>
+  <si>
+    <t>0x37b132992fa8f57ae49a7ed645eb4c0b0c877d3a</t>
+  </si>
+  <si>
+    <t>Gabriel Frota</t>
+  </si>
+  <si>
+    <t>0xd088cfc0b875273e5e876da841acbd6f36a89e85</t>
+  </si>
+  <si>
+    <t>Diego Borgo</t>
+  </si>
+  <si>
+    <t>0xb8ba36e591facee901ffd3d5d82df491551ad7ef</t>
+  </si>
+  <si>
+    <t>Conversão M.B.</t>
+  </si>
+  <si>
+    <t>0x3eD203773CdeC924d30924474D8E4925658f10c7</t>
+  </si>
+  <si>
+    <t>Rodrigo Wolff</t>
+  </si>
+  <si>
+    <t>0xC27C78b208f896C1f12035c3E9C1347428DE6568</t>
+  </si>
+  <si>
+    <t>Contrato Seamore</t>
+  </si>
+  <si>
+    <t>0xd8723058f2b456484e3cde4ccfaea903116fa9e4</t>
+  </si>
+  <si>
+    <t>Contrato 55Unity</t>
+  </si>
+  <si>
+    <t>0x83cc4e2c40164d6a56fe5ba7396706be523adef6</t>
+  </si>
+  <si>
+    <t>Caio Bretas</t>
+  </si>
+  <si>
+    <t>0x6063c75ed8aa66bea32c85bb2a3813cb7d5ab42c</t>
+  </si>
+  <si>
+    <t>Talia</t>
+  </si>
+  <si>
+    <t>0xa15e3d9b6b82c6fb0de0cf03231e4d22ba3ae663</t>
+  </si>
+  <si>
+    <t>Bruno Leão - Pessoal</t>
+  </si>
+  <si>
+    <t>0x6690caedc1e1ae3a189cab2a062ac3acea2334c2</t>
+  </si>
+  <si>
+    <t>Bruno Leão - Binance</t>
+  </si>
+  <si>
+    <t>0x274F2946D33a9Ae97bDE423f27C7915765EAE8f1</t>
+  </si>
+  <si>
+    <t>Amanda CM</t>
+  </si>
+  <si>
+    <t>0x9a34B8A2A7E434a6a806DD729c1153FC0EFbDe3f</t>
+  </si>
+  <si>
+    <t>Alan Lopes</t>
+  </si>
+  <si>
+    <t>0x317adbbd04303D59C1A0e5078a2AB62AD9C23291</t>
+  </si>
+  <si>
+    <t>Umbe</t>
+  </si>
+  <si>
+    <t>0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
+  </si>
+  <si>
+    <t>0xA65aae78EdEF916d4102BA7b5672068C0D35fbff</t>
+  </si>
+  <si>
+    <t>Helper</t>
+  </si>
+  <si>
+    <t>0x56eddb7aa87536c09ccc2793473599fd21a8b17f</t>
+  </si>
+  <si>
+    <t>Gabriel Polverelli - pessoal</t>
+  </si>
+  <si>
+    <t>0xa0c68c638235ee32657e8f720a23cec1bfc77c77</t>
+  </si>
+  <si>
+    <t>Matic Bridge</t>
+  </si>
+  <si>
+    <t>0x68b3465833fb72a70ecdf485e0e4c7bd8665fc45</t>
+  </si>
+  <si>
+    <t>UniSwap Router v3</t>
+  </si>
+  <si>
+    <t>0xd6b3db97dbd3fb95f96d5e7d596440276391a6a9</t>
+  </si>
+  <si>
+    <t>Luis Guilherme Tillier</t>
+  </si>
+  <si>
+    <t>0x1314F9E717B6985A84367931aeAD855035c7960b</t>
+  </si>
+  <si>
+    <t>Contrato Mynt</t>
+  </si>
+  <si>
+    <t>0xc11b4c75ff4a518a496c9d58d4bdd5116f8d4458</t>
+  </si>
+  <si>
+    <t>Zion Labs Pte. Ltd.</t>
+  </si>
+  <si>
+    <t>0x7334895F6356D572f401a172Df4F85084945C1Ca</t>
+  </si>
+  <si>
+    <t>Rafael Dante</t>
+  </si>
+  <si>
+    <t>0x90e1d8a208efb1ed255165e7d88ee06e9550db3a</t>
+  </si>
+  <si>
+    <t>0xABDce09D5989D7E2e9Fc53132718A7F5129f2625</t>
+  </si>
+  <si>
+    <t>Polygon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -870,6 +1177,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -879,7 +1194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -887,19 +1202,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -910,6 +1306,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="book"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B865CCCA-49A8-314B-A3E7-44D8FE8FE38B}" name="Tabela1" displayName="Tabela1" ref="A1:H48" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
+  <autoFilter ref="A1:H48" xr:uid="{B865CCCA-49A8-314B-A3E7-44D8FE8FE38B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
+    <sortCondition descending="1" ref="C1:C48"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7BFAB6A4-E2CA-6E44-AD1B-9404C30B39EC}" name="address"/>
+    <tableColumn id="2" xr3:uid="{9A4F2E1E-4752-B64D-BA98-9B95D4B39E3B}" name="name"/>
+    <tableColumn id="3" xr3:uid="{4D838E3C-CC28-A842-91BA-60F915E29836}" name="is_lumx" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{CD9A8D18-0447-674F-8757-B34B5865B9D1}" name="is_safe" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{DD697336-90F0-EF45-9FE2-716FD31847CF}" name="safe_blockchain" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0DDCC098-CDAC-6847-A694-9E24D3951BC1}" name="is_conversion" dataDxfId="2">
+      <calculatedColumnFormula>VLOOKUP(A2,[1]book!$I:$J,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{951D53B9-F90E-B542-83C0-C67A867CE148}" name="is_primarysale" dataDxfId="1">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela1[[#This Row],[address]],[1]book!$E:$F,2,FALSE),"False")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A54ED745-2290-D045-9558-391B47EA5380}" name="is_secondarysale" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(A2,[1]book!$G:$H,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1211,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
   <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5343,6 +5778,1192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B693B31-2F42-5F46-949F-2CB9B62F1C2F}">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>327</v>
+      </c>
+      <c r="B29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>345</v>
+      </c>
+      <c r="B37" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" t="s">
+        <v>330</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>354</v>
+      </c>
+      <c r="B41" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>356</v>
+      </c>
+      <c r="B42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>358</v>
+      </c>
+      <c r="B43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>362</v>
+      </c>
+      <c r="B45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>368</v>
+      </c>
+      <c r="B48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EEA9F9-529B-7D44-8737-B5AA98150084}">
   <dimension ref="A1:C39"/>
   <sheetViews>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C784C-3FC3-9049-8B04-B309A95A8C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11BBF8-530D-F14F-8568-5DAE8F579E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="1" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="2" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
-    <sheet name="book" sheetId="5" r:id="rId2"/>
-    <sheet name="projects" sheetId="3" r:id="rId3"/>
+    <sheet name="projects" sheetId="3" r:id="rId2"/>
+    <sheet name="book" sheetId="6" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">book!$A$1:$H$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$G$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -868,9 +866,6 @@
     <t>is_safe</t>
   </si>
   <si>
-    <t>safe_blockchain</t>
-  </si>
-  <si>
     <t>is_conversion</t>
   </si>
   <si>
@@ -1157,13 +1152,16 @@
   </si>
   <si>
     <t>Polygon</t>
+  </si>
+  <si>
+    <t>blockchain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1177,14 +1175,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1194,7 +1184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1202,100 +1192,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1306,45 +1215,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="book"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B865CCCA-49A8-314B-A3E7-44D8FE8FE38B}" name="Tabela1" displayName="Tabela1" ref="A1:H48" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
-  <autoFilter ref="A1:H48" xr:uid="{B865CCCA-49A8-314B-A3E7-44D8FE8FE38B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
-    <sortCondition descending="1" ref="C1:C48"/>
-  </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7BFAB6A4-E2CA-6E44-AD1B-9404C30B39EC}" name="address"/>
-    <tableColumn id="2" xr3:uid="{9A4F2E1E-4752-B64D-BA98-9B95D4B39E3B}" name="name"/>
-    <tableColumn id="3" xr3:uid="{4D838E3C-CC28-A842-91BA-60F915E29836}" name="is_lumx" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{CD9A8D18-0447-674F-8757-B34B5865B9D1}" name="is_safe" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{DD697336-90F0-EF45-9FE2-716FD31847CF}" name="safe_blockchain" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0DDCC098-CDAC-6847-A694-9E24D3951BC1}" name="is_conversion" dataDxfId="2">
-      <calculatedColumnFormula>VLOOKUP(A2,[1]book!$I:$J,2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{951D53B9-F90E-B542-83C0-C67A867CE148}" name="is_primarysale" dataDxfId="1">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela1[[#This Row],[address]],[1]book!$E:$F,2,FALSE),"False")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{A54ED745-2290-D045-9558-391B47EA5380}" name="is_secondarysale" dataDxfId="0">
-      <calculatedColumnFormula>VLOOKUP(A2,[1]book!$G:$H,2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5778,1192 +5648,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B693B31-2F42-5F46-949F-2CB9B62F1C2F}">
-  <dimension ref="A1:H48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" t="s">
-        <v>296</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>297</v>
-      </c>
-      <c r="B17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18" t="s">
-        <v>302</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>305</v>
-      </c>
-      <c r="B19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B20" t="s">
-        <v>308</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>309</v>
-      </c>
-      <c r="B21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" t="s">
-        <v>314</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>315</v>
-      </c>
-      <c r="B23" t="s">
-        <v>316</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" t="s">
-        <v>318</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>319</v>
-      </c>
-      <c r="B25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>321</v>
-      </c>
-      <c r="B26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>323</v>
-      </c>
-      <c r="B27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>325</v>
-      </c>
-      <c r="B28" t="s">
-        <v>326</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>327</v>
-      </c>
-      <c r="B29" t="s">
-        <v>328</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>329</v>
-      </c>
-      <c r="B30" t="s">
-        <v>330</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>331</v>
-      </c>
-      <c r="B31" t="s">
-        <v>332</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>333</v>
-      </c>
-      <c r="B32" t="s">
-        <v>334</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>335</v>
-      </c>
-      <c r="B33" t="s">
-        <v>336</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>339</v>
-      </c>
-      <c r="B34" t="s">
-        <v>340</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>341</v>
-      </c>
-      <c r="B35" t="s">
-        <v>342</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>343</v>
-      </c>
-      <c r="B36" t="s">
-        <v>344</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>345</v>
-      </c>
-      <c r="B37" t="s">
-        <v>346</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>347</v>
-      </c>
-      <c r="B38" t="s">
-        <v>348</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>349</v>
-      </c>
-      <c r="B39" t="s">
-        <v>350</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>351</v>
-      </c>
-      <c r="B40" t="s">
-        <v>330</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>354</v>
-      </c>
-      <c r="B41" t="s">
-        <v>355</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>356</v>
-      </c>
-      <c r="B42" t="s">
-        <v>357</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>358</v>
-      </c>
-      <c r="B43" t="s">
-        <v>359</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>360</v>
-      </c>
-      <c r="B44" t="s">
-        <v>361</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>362</v>
-      </c>
-      <c r="B45" t="s">
-        <v>363</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>364</v>
-      </c>
-      <c r="B46" t="s">
-        <v>365</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>366</v>
-      </c>
-      <c r="B47" t="s">
-        <v>367</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>368</v>
-      </c>
-      <c r="B48" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EEA9F9-529B-7D44-8737-B5AA98150084}">
   <dimension ref="A1:C39"/>
   <sheetViews>
@@ -7404,4 +6088,1143 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEA2B1-756F-1A45-B5B3-B7537A71E781}">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" t="s">
+        <v>279</v>
+      </c>
+      <c r="H17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G19" t="s">
+        <v>279</v>
+      </c>
+      <c r="H19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F21" t="s">
+        <v>279</v>
+      </c>
+      <c r="G21" t="s">
+        <v>279</v>
+      </c>
+      <c r="H21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" t="s">
+        <v>279</v>
+      </c>
+      <c r="H22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F24" t="s">
+        <v>279</v>
+      </c>
+      <c r="G24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D25" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" t="s">
+        <v>279</v>
+      </c>
+      <c r="G25" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" t="s">
+        <v>279</v>
+      </c>
+      <c r="G27" t="s">
+        <v>279</v>
+      </c>
+      <c r="H27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" t="s">
+        <v>279</v>
+      </c>
+      <c r="G28" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>279</v>
+      </c>
+      <c r="H30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D31" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>279</v>
+      </c>
+      <c r="H31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" t="s">
+        <v>278</v>
+      </c>
+      <c r="H32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>278</v>
+      </c>
+      <c r="H33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" t="s">
+        <v>279</v>
+      </c>
+      <c r="F34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>279</v>
+      </c>
+      <c r="H34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s">
+        <v>279</v>
+      </c>
+      <c r="H35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" t="s">
+        <v>279</v>
+      </c>
+      <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>279</v>
+      </c>
+      <c r="H36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" t="s">
+        <v>279</v>
+      </c>
+      <c r="F38" t="s">
+        <v>279</v>
+      </c>
+      <c r="G38" t="s">
+        <v>279</v>
+      </c>
+      <c r="H38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" t="s">
+        <v>279</v>
+      </c>
+      <c r="G39" t="s">
+        <v>279</v>
+      </c>
+      <c r="H39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40" t="s">
+        <v>329</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" t="s">
+        <v>279</v>
+      </c>
+      <c r="H40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>353</v>
+      </c>
+      <c r="B41" t="s">
+        <v>354</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>355</v>
+      </c>
+      <c r="B42" t="s">
+        <v>356</v>
+      </c>
+      <c r="C42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" t="s">
+        <v>279</v>
+      </c>
+      <c r="H42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C43" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" t="s">
+        <v>279</v>
+      </c>
+      <c r="F43" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" t="s">
+        <v>279</v>
+      </c>
+      <c r="H43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>359</v>
+      </c>
+      <c r="B44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44" t="s">
+        <v>279</v>
+      </c>
+      <c r="D44" t="s">
+        <v>279</v>
+      </c>
+      <c r="F44" t="s">
+        <v>279</v>
+      </c>
+      <c r="G44" t="s">
+        <v>279</v>
+      </c>
+      <c r="H44" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45" t="s">
+        <v>279</v>
+      </c>
+      <c r="G45" t="s">
+        <v>279</v>
+      </c>
+      <c r="H45" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>363</v>
+      </c>
+      <c r="B46" t="s">
+        <v>364</v>
+      </c>
+      <c r="C46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D46" t="s">
+        <v>279</v>
+      </c>
+      <c r="F46" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" t="s">
+        <v>279</v>
+      </c>
+      <c r="H46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>365</v>
+      </c>
+      <c r="B47" t="s">
+        <v>366</v>
+      </c>
+      <c r="C47" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" t="s">
+        <v>279</v>
+      </c>
+      <c r="H47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>367</v>
+      </c>
+      <c r="B48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" t="s">
+        <v>279</v>
+      </c>
+      <c r="F48" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" t="s">
+        <v>279</v>
+      </c>
+      <c r="H48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H48" xr:uid="{82BEA2B1-756F-1A45-B5B3-B7537A71E781}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/interface.xlsx
+++ b/interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29DDED6-71EF-7D40-BF8B-F162200DE4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695C4B02-7EF3-D94B-A733-1E1340B99B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="860" windowWidth="19560" windowHeight="19420" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="5740" yWindow="860" windowWidth="19560" windowHeight="19420" activeTab="3" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13683" uniqueCount="3601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13687" uniqueCount="3601">
   <si>
     <t>Software - 650 Industries (Expo)</t>
   </si>
@@ -11217,8 +11217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
   <dimension ref="A1:I242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C149" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16429,10 +16429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF71CD7-00AE-F745-B3B7-FD39D4527EBD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16461,6 +16461,20 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -58514,8 +58528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEA2B1-756F-1A45-B5B3-B7537A71E781}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/Lumx---Principal-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF598E1F-877B-E245-BFAF-26CE70B30D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF57D8-6DAB-5348-B7E5-4F0F5B1FD4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="-21100" windowWidth="19620" windowHeight="19000" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">book!$A$1:$H$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$H$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$H$242</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">conciliations!$A$1:$D$5187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha1!$A$1:$D$3002</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13690" uniqueCount="3609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13696" uniqueCount="3610">
   <si>
     <t>Software - 650 Industries (Expo)</t>
   </si>
@@ -10872,6 +10872,9 @@
   </si>
   <si>
     <t>Benefícios</t>
+  </si>
+  <si>
+    <t>Software - Midjourney</t>
   </si>
 </sst>
 </file>
@@ -11239,10 +11242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11644,7 +11647,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -11664,7 +11667,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -11684,7 +11687,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -11704,7 +11707,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -11724,7 +11727,7 @@
         <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -11744,7 +11747,7 @@
         <v>40</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -11764,7 +11767,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -11784,7 +11787,7 @@
         <v>40</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -11804,7 +11807,7 @@
         <v>40</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -11824,7 +11827,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -11844,7 +11847,7 @@
         <v>40</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -11864,7 +11867,7 @@
         <v>40</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -11884,7 +11887,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -11904,7 +11907,7 @@
         <v>40</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -11924,7 +11927,7 @@
         <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -11944,7 +11947,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -11964,7 +11967,7 @@
         <v>40</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -11984,7 +11987,7 @@
         <v>40</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -12004,7 +12007,7 @@
         <v>40</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -12024,7 +12027,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -12044,7 +12047,7 @@
         <v>40</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -12064,7 +12067,7 @@
         <v>40</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -12084,7 +12087,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -12104,7 +12107,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -12124,7 +12127,7 @@
         <v>40</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -12144,7 +12147,7 @@
         <v>40</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -12164,27 +12167,27 @@
         <v>40</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -12204,12 +12207,12 @@
         <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>55</v>
@@ -12224,12 +12227,12 @@
         <v>56</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>55</v>
@@ -12244,12 +12247,12 @@
         <v>56</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>55</v>
@@ -12264,12 +12267,12 @@
         <v>56</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>55</v>
@@ -12284,12 +12287,12 @@
         <v>56</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>55</v>
@@ -12304,12 +12307,12 @@
         <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>55</v>
@@ -12324,12 +12327,12 @@
         <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>3601</v>
+        <v>227</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>55</v>
@@ -12344,12 +12347,12 @@
         <v>56</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>227</v>
+        <v>3601</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
@@ -12364,7 +12367,7 @@
         <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -12384,7 +12387,7 @@
         <v>56</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -12401,10 +12404,10 @@
         <v>55</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -12424,7 +12427,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -12444,12 +12447,12 @@
         <v>57</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>55</v>
@@ -12461,10 +12464,10 @@
         <v>55</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -12484,7 +12487,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -12504,32 +12507,32 @@
         <v>56</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>219</v>
@@ -12538,18 +12541,18 @@
         <v>219</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>219</v>
@@ -12558,15 +12561,18 @@
         <v>219</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>219</v>
@@ -12575,33 +12581,30 @@
         <v>219</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -12621,7 +12624,7 @@
         <v>198</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -12638,18 +12641,15 @@
         <v>197</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>466</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>3608</v>
+        <v>228</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>197</v>
@@ -12664,12 +12664,15 @@
         <v>157</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>228</v>
+        <v>3608</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>197</v>
@@ -12681,10 +12684,10 @@
         <v>197</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -12704,7 +12707,7 @@
         <v>204</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
@@ -12721,10 +12724,10 @@
         <v>197</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
@@ -12741,15 +12744,15 @@
         <v>197</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>197</v>
@@ -12761,15 +12764,15 @@
         <v>197</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>197</v>
@@ -12781,13 +12784,10 @@
         <v>197</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>1885</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
@@ -12807,7 +12807,10 @@
         <v>198</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>1885</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
@@ -12824,10 +12827,10 @@
         <v>197</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
@@ -12844,10 +12847,10 @@
         <v>197</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
@@ -12864,33 +12867,30 @@
         <v>197</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>3602</v>
+        <v>228</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
@@ -12904,19 +12904,16 @@
         <v>179</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>384</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
@@ -12933,13 +12930,16 @@
         <v>180</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
@@ -12959,13 +12959,10 @@
         <v>194</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>3464</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
@@ -12985,13 +12982,13 @@
         <v>194</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3465</v>
+        <v>183</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
@@ -13011,10 +13008,13 @@
         <v>194</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>184</v>
+        <v>3465</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>3466</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
@@ -13034,13 +13034,10 @@
         <v>194</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>3467</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
@@ -13060,10 +13057,13 @@
         <v>194</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>3467</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
@@ -13083,7 +13083,7 @@
         <v>194</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>232</v>
@@ -13106,7 +13106,7 @@
         <v>194</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>232</v>
@@ -13129,10 +13129,10 @@
         <v>194</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
@@ -13152,10 +13152,10 @@
         <v>194</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>370</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
@@ -13175,7 +13175,7 @@
         <v>194</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>370</v>
@@ -13198,33 +13198,33 @@
         <v>194</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>232</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>259</v>
+        <v>3602</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>3606</v>
+        <v>192</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
@@ -13232,22 +13232,22 @@
         <v>259</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>234</v>
+        <v>165</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>3606</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
@@ -13261,16 +13261,16 @@
         <v>77</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
@@ -13290,10 +13290,10 @@
         <v>101</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
@@ -13313,10 +13313,10 @@
         <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
@@ -13330,16 +13330,16 @@
         <v>77</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
@@ -13359,7 +13359,7 @@
         <v>78</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>239</v>
@@ -13382,10 +13382,10 @@
         <v>78</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.15">
@@ -13405,10 +13405,10 @@
         <v>78</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
@@ -13428,10 +13428,10 @@
         <v>78</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
@@ -13451,10 +13451,10 @@
         <v>78</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
@@ -13474,10 +13474,10 @@
         <v>78</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
@@ -13497,10 +13497,10 @@
         <v>78</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
@@ -13520,10 +13520,10 @@
         <v>78</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
@@ -13543,10 +13543,10 @@
         <v>78</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
@@ -13566,10 +13566,10 @@
         <v>78</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
@@ -13583,19 +13583,16 @@
         <v>77</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>982</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
@@ -13609,16 +13606,19 @@
         <v>77</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>378</v>
+        <v>982</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
@@ -13638,10 +13638,10 @@
         <v>90</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>241</v>
+        <v>90</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.15">
@@ -13661,10 +13661,10 @@
         <v>90</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.15">
@@ -13684,10 +13684,10 @@
         <v>90</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.15">
@@ -13704,13 +13704,13 @@
         <v>147</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>379</v>
+        <v>93</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
@@ -13730,10 +13730,10 @@
         <v>97</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>241</v>
+        <v>97</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.15">
@@ -13753,10 +13753,10 @@
         <v>97</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
@@ -13776,30 +13776,33 @@
         <v>97</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>174</v>
+        <v>96</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.15">
@@ -13819,7 +13822,7 @@
         <v>136</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.15">
@@ -13839,12 +13842,12 @@
         <v>136</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>161</v>
@@ -13853,13 +13856,13 @@
         <v>161</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.15">
@@ -13879,7 +13882,7 @@
         <v>166</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.15">
@@ -13899,7 +13902,7 @@
         <v>166</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.15">
@@ -13919,7 +13922,7 @@
         <v>166</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.15">
@@ -13939,7 +13942,7 @@
         <v>166</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>3603</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.15">
@@ -13956,10 +13959,10 @@
         <v>114</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>123</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.15">
@@ -13976,10 +13979,10 @@
         <v>114</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.15">
@@ -13999,7 +14002,7 @@
         <v>166</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.15">
@@ -14016,10 +14019,10 @@
         <v>114</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.15">
@@ -14036,10 +14039,10 @@
         <v>114</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.15">
@@ -14059,15 +14062,12 @@
         <v>166</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>3457</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>161</v>
@@ -14076,13 +14076,16 @@
         <v>161</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>132</v>
+        <v>157</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>3457</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.15">
@@ -14102,7 +14105,7 @@
         <v>128</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.15">
@@ -14119,10 +14122,10 @@
         <v>146</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.15">
@@ -14139,10 +14142,10 @@
         <v>146</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.15">
@@ -14162,7 +14165,7 @@
         <v>128</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.15">
@@ -14179,10 +14182,10 @@
         <v>146</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.15">
@@ -14202,7 +14205,7 @@
         <v>137</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.15">
@@ -14219,10 +14222,10 @@
         <v>146</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.15">
@@ -14242,7 +14245,7 @@
         <v>133</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.15">
@@ -14259,10 +14262,10 @@
         <v>146</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.15">
@@ -14282,7 +14285,7 @@
         <v>126</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.15">
@@ -14302,12 +14305,12 @@
         <v>126</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>161</v>
@@ -14316,16 +14319,13 @@
         <v>161</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1318</v>
+        <v>126</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>1346</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.15">
@@ -14345,10 +14345,10 @@
         <v>1318</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.15">
@@ -14368,10 +14368,10 @@
         <v>1318</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>372</v>
+        <v>1344</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>1327</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.15">
@@ -14388,13 +14388,13 @@
         <v>39</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>371</v>
+        <v>1318</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>372</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>383</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.15">
@@ -14411,13 +14411,13 @@
         <v>39</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1326</v>
+        <v>372</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>1325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.15">
@@ -14434,13 +14434,13 @@
         <v>39</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1278</v>
+        <v>1326</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>1279</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.15">
@@ -14460,10 +14460,10 @@
         <v>369</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1378</v>
+        <v>1278</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>1377</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.15">
@@ -14486,7 +14486,7 @@
         <v>1378</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.15">
@@ -14503,13 +14503,13 @@
         <v>39</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1318</v>
+        <v>369</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>1352</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.15">
@@ -14529,10 +14529,10 @@
         <v>1318</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1355</v>
+        <v>1379</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.15">
@@ -14552,10 +14552,10 @@
         <v>1318</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.15">
@@ -14578,7 +14578,7 @@
         <v>1356</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>1366</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.15">
@@ -14598,10 +14598,10 @@
         <v>1318</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1372</v>
+        <v>1356</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.15">
@@ -14621,10 +14621,10 @@
         <v>1318</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1330</v>
+        <v>1372</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>1349</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.15">
@@ -14644,10 +14644,10 @@
         <v>1318</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1357</v>
+        <v>1330</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.15">
@@ -14667,10 +14667,10 @@
         <v>1318</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.15">
@@ -14690,10 +14690,10 @@
         <v>1318</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.15">
@@ -14713,10 +14713,10 @@
         <v>1318</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.15">
@@ -14736,10 +14736,10 @@
         <v>1318</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.15">
@@ -14762,7 +14762,7 @@
         <v>1368</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.15">
@@ -14785,7 +14785,7 @@
         <v>1368</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.15">
@@ -14805,10 +14805,10 @@
         <v>1318</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1335</v>
+        <v>1368</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>1382</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.15">
@@ -14828,10 +14828,10 @@
         <v>1318</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1358</v>
+        <v>1335</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>1354</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.15">
@@ -14848,13 +14848,13 @@
         <v>39</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>369</v>
+        <v>1318</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>364</v>
+        <v>1358</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>1374</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.15">
@@ -14877,7 +14877,7 @@
         <v>364</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>366</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.15">
@@ -14900,7 +14900,7 @@
         <v>364</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>1328</v>
+        <v>366</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.15">
@@ -14920,10 +14920,10 @@
         <v>369</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>3596</v>
+        <v>364</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>3595</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.15">
@@ -14946,7 +14946,7 @@
         <v>3596</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.15">
@@ -14966,10 +14966,10 @@
         <v>369</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>364</v>
+        <v>3596</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>365</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.15">
@@ -14989,10 +14989,10 @@
         <v>369</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1397</v>
+        <v>364</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>1387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.15">
@@ -15009,13 +15009,13 @@
         <v>39</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>125</v>
+        <v>369</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>156</v>
+        <v>1397</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>1886</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.15">
@@ -15032,13 +15032,13 @@
         <v>39</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>371</v>
+        <v>125</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1323</v>
+        <v>156</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>1324</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.15">
@@ -15055,13 +15055,13 @@
         <v>39</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1318</v>
+        <v>371</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1373</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.15">
@@ -15078,13 +15078,13 @@
         <v>39</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>369</v>
+        <v>1318</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>1388</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.15">
@@ -15107,7 +15107,7 @@
         <v>1337</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>3593</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.15">
@@ -15129,6 +15129,9 @@
       <c r="F181" s="1" t="s">
         <v>1337</v>
       </c>
+      <c r="H181" s="1" t="s">
+        <v>3593</v>
+      </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
@@ -15147,10 +15150,7 @@
         <v>369</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>1392</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.15">
@@ -15170,10 +15170,10 @@
         <v>369</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.15">
@@ -15193,10 +15193,10 @@
         <v>369</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.15">
@@ -15216,10 +15216,10 @@
         <v>369</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1340</v>
+        <v>1394</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.15">
@@ -15239,10 +15239,10 @@
         <v>369</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.15">
@@ -15262,10 +15262,10 @@
         <v>369</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.15">
@@ -15285,10 +15285,10 @@
         <v>369</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.15">
@@ -15308,10 +15308,10 @@
         <v>369</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1332</v>
+        <v>1339</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>1375</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.15">
@@ -15328,13 +15328,13 @@
         <v>39</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1318</v>
+        <v>369</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.15">
@@ -15354,10 +15354,10 @@
         <v>1318</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1319</v>
+        <v>1334</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>1320</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.15">
@@ -15380,7 +15380,7 @@
         <v>1319</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>1343</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.15">
@@ -15397,13 +15397,13 @@
         <v>39</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>367</v>
+        <v>1318</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>1376</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.15">
@@ -15426,7 +15426,7 @@
         <v>1333</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>1389</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.15">
@@ -15449,7 +15449,7 @@
         <v>1333</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.15">
@@ -15469,10 +15469,10 @@
         <v>367</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1367</v>
+        <v>1333</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>368</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.15">
@@ -15495,7 +15495,7 @@
         <v>1367</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>1348</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.15">
@@ -15518,7 +15518,7 @@
         <v>1367</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>510</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.15">
@@ -15538,13 +15538,10 @@
         <v>367</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>241</v>
+        <v>1367</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>3458</v>
+        <v>510</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.15">
@@ -15564,15 +15561,18 @@
         <v>367</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1367</v>
+        <v>1341</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>1321</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>161</v>
@@ -15581,13 +15581,16 @@
         <v>161</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>170</v>
+        <v>367</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>172</v>
+        <v>1367</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.15">
@@ -15607,12 +15610,12 @@
         <v>170</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>161</v>
@@ -15621,13 +15624,13 @@
         <v>161</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.15">
@@ -15647,7 +15650,7 @@
         <v>107</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.15">
@@ -15667,7 +15670,7 @@
         <v>107</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.15">
@@ -15687,7 +15690,7 @@
         <v>107</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.15">
@@ -15707,7 +15710,7 @@
         <v>107</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.15">
@@ -15727,7 +15730,7 @@
         <v>107</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.15">
@@ -15747,7 +15750,7 @@
         <v>107</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.15">
@@ -15767,7 +15770,7 @@
         <v>107</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.15">
@@ -15787,10 +15790,7 @@
         <v>107</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1883</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>1884</v>
+        <v>113</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.15">
@@ -15810,12 +15810,15 @@
         <v>107</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>246</v>
+        <v>1883</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>1884</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>161</v>
@@ -15824,16 +15827,13 @@
         <v>161</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1318</v>
+        <v>107</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1482</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>1483</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.15">
@@ -15850,33 +15850,36 @@
         <v>39</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>369</v>
+        <v>1318</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1337</v>
+        <v>1482</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>1329</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>71</v>
+        <v>1337</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.15">
@@ -15896,7 +15899,7 @@
         <v>70</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.15">
@@ -15916,30 +15919,30 @@
         <v>70</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>387</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>222</v>
+        <v>73</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.15">
@@ -15956,10 +15959,10 @@
         <v>221</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.15">
@@ -15976,33 +15979,30 @@
         <v>221</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>377</v>
+        <v>224</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.15">
@@ -16019,10 +16019,13 @@
         <v>74</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>163</v>
+        <v>75</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.15">
@@ -16039,33 +16042,30 @@
         <v>74</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>230</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.15">
@@ -16082,13 +16082,13 @@
         <v>63</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>67</v>
+        <v>362</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.15">
@@ -16105,36 +16105,39 @@
         <v>63</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>385</v>
+        <v>232</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.15">
@@ -16151,10 +16154,10 @@
         <v>125</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.15">
@@ -16174,10 +16177,7 @@
         <v>157</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>1268</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.15">
@@ -16194,10 +16194,13 @@
         <v>125</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.15">
@@ -16214,10 +16217,10 @@
         <v>125</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.15">
@@ -16234,18 +16237,15 @@
         <v>125</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>376</v>
+        <v>157</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>375</v>
+        <v>159</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>175</v>
@@ -16254,13 +16254,16 @@
         <v>175</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>140</v>
+        <v>376</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>141</v>
+        <v>376</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.15">
@@ -16280,7 +16283,7 @@
         <v>140</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.15">
@@ -16300,7 +16303,7 @@
         <v>140</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.15">
@@ -16320,7 +16323,7 @@
         <v>140</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.15">
@@ -16340,7 +16343,7 @@
         <v>140</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.15">
@@ -16357,15 +16360,15 @@
         <v>160</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>175</v>
@@ -16377,10 +16380,10 @@
         <v>160</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.15">
@@ -16400,7 +16403,7 @@
         <v>149</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
@@ -16420,18 +16423,38 @@
         <v>149</v>
       </c>
       <c r="F241" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A242" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F242" s="1" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H241" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H241">
-      <sortCondition descending="1" ref="B1:B241"/>
+  <autoFilter ref="A1:H242" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H242">
+      <sortCondition descending="1" ref="B1:B242"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F30" r:id="rId1" display="http://make.com/" xr:uid="{AD12963B-08CE-9247-9A90-9CA7C2CBF2B3}"/>
-    <hyperlink ref="F40" r:id="rId2" display="http://pitch.com/" xr:uid="{2D4A1D61-23FA-4B41-A6E5-044A888C2AD6}"/>
+    <hyperlink ref="F31" r:id="rId1" display="http://make.com/" xr:uid="{AD12963B-08CE-9247-9A90-9CA7C2CBF2B3}"/>
+    <hyperlink ref="F41" r:id="rId2" display="http://pitch.com/" xr:uid="{2D4A1D61-23FA-4B41-A6E5-044A888C2AD6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/Lumx---Principal-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF57D8-6DAB-5348-B7E5-4F0F5B1FD4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330B5DE2-9C9C-8744-9351-B446D48E0FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="3" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13696" uniqueCount="3610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13707" uniqueCount="3611">
   <si>
     <t>Software - 650 Industries (Expo)</t>
   </si>
@@ -10875,6 +10875,9 @@
   </si>
   <si>
     <t>Software - Midjourney</t>
+  </si>
+  <si>
+    <t>The Noise</t>
   </si>
 </sst>
 </file>
@@ -11244,7 +11247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
   <dimension ref="A1:I242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="B39" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -58585,10 +58588,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEA2B1-756F-1A45-B5B3-B7537A71E781}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58603,7 +58606,7 @@
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>262</v>
       </c>
@@ -58628,8 +58631,11 @@
       <c r="H1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>359</v>
       </c>
@@ -58646,7 +58652,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -58663,7 +58669,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>269</v>
       </c>
@@ -58673,8 +58679,11 @@
       <c r="C4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>273</v>
       </c>
@@ -58684,8 +58693,11 @@
       <c r="C5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>289</v>
       </c>
@@ -58696,7 +58708,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>293</v>
       </c>
@@ -58707,7 +58719,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>301</v>
       </c>
@@ -58718,7 +58730,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>327</v>
       </c>
@@ -58729,7 +58741,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>342</v>
       </c>
@@ -58740,7 +58752,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -58748,7 +58760,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>274</v>
       </c>
@@ -58759,7 +58771,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>276</v>
       </c>
@@ -58767,7 +58779,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>278</v>
       </c>
@@ -58775,7 +58787,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>283</v>
       </c>
@@ -58783,7 +58795,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>285</v>
       </c>
@@ -58791,7 +58803,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>287</v>
       </c>
@@ -58799,7 +58811,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>291</v>
       </c>
@@ -58807,7 +58819,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>295</v>
       </c>
@@ -58815,7 +58827,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>297</v>
       </c>
@@ -58823,15 +58835,18 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>299</v>
       </c>
       <c r="B21" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>303</v>
       </c>
@@ -58842,7 +58857,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>305</v>
       </c>
@@ -58850,7 +58865,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>307</v>
       </c>
@@ -58861,7 +58876,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>309</v>
       </c>
@@ -58869,7 +58884,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>311</v>
       </c>
@@ -58877,15 +58892,18 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>313</v>
       </c>
       <c r="B27" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -58893,7 +58911,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -58901,7 +58919,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>319</v>
       </c>
@@ -58912,7 +58930,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>321</v>
       </c>
@@ -58920,7 +58938,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>323</v>
       </c>
@@ -58930,8 +58948,11 @@
       <c r="G32" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>325</v>
       </c>
@@ -58941,8 +58962,11 @@
       <c r="G33" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>329</v>
       </c>
@@ -58950,7 +58974,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -58958,7 +58982,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>333</v>
       </c>
@@ -58966,7 +58990,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>335</v>
       </c>
@@ -58974,7 +58998,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>337</v>
       </c>
@@ -58982,7 +59006,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -58990,7 +59014,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>341</v>
       </c>
@@ -58998,7 +59022,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>344</v>
       </c>
@@ -59006,7 +59030,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>346</v>
       </c>
@@ -59017,7 +59041,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>348</v>
       </c>
@@ -59028,7 +59052,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>350</v>
       </c>
@@ -59036,23 +59060,29 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>352</v>
       </c>
       <c r="B45" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>354</v>
       </c>
       <c r="B46" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>356</v>
       </c>
@@ -59060,20 +59090,26 @@
         <v>357</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>358</v>
       </c>
       <c r="B48" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>373</v>
       </c>
       <c r="B49" t="s">
         <v>374</v>
+      </c>
+      <c r="I49" t="s">
+        <v>3610</v>
       </c>
     </row>
   </sheetData>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C79F40-0295-B54C-ABB3-93E8ACC29130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E270ABE-C5F4-8147-B0C5-09FAD764FA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="860" windowWidth="18800" windowHeight="21380" activeTab="1" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="3540" yWindow="860" windowWidth="18800" windowHeight="21380" activeTab="3" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -16600,7 +16600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF71CD7-00AE-F745-B3B7-FD39D4527EBD}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -58811,8 +58811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEA2B1-756F-1A45-B5B3-B7537A71E781}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59331,7 +59331,7 @@
         <v>374</v>
       </c>
       <c r="I49" t="s">
-        <v>3610</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE0A703-AEB3-184C-A7AE-277E50FE230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B46691-D3EC-F447-B791-C0BD08AB1E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="860" windowWidth="30660" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="10" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="9" r:id="rId3"/>
-    <sheet name="conciliations" sheetId="7" r:id="rId4"/>
-    <sheet name="book" sheetId="6" r:id="rId5"/>
-    <sheet name="Planilha1" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="Planilha4" sheetId="11" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="9" r:id="rId4"/>
+    <sheet name="conciliations" sheetId="7" r:id="rId5"/>
+    <sheet name="book" sheetId="6" r:id="rId6"/>
+    <sheet name="Planilha1" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">book!$A$1:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">book!$A$1:$I$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$J$247</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">conciliations!$A$1:$D$5187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Planilha1!$A$1:$D$3002</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">conciliations!$A$1:$D$5187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Planilha1!$A$1:$D$3002</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13777" uniqueCount="3623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14118" uniqueCount="3665">
   <si>
     <t>Software - 650 Industries (Expo)</t>
   </si>
@@ -10916,13 +10917,139 @@
   </si>
   <si>
     <t>Round de Investimento</t>
+  </si>
+  <si>
+    <t>Contas</t>
+  </si>
+  <si>
+    <t>Caixa Local</t>
+  </si>
+  <si>
+    <t>Bancos e Contas de Investimentos</t>
+  </si>
+  <si>
+    <t>Banco Master</t>
+  </si>
+  <si>
+    <t>Btg - Conta Corrente</t>
+  </si>
+  <si>
+    <t>Btg - Wealth Management</t>
+  </si>
+  <si>
+    <t>Cartão de Crédito - Conta Simples</t>
+  </si>
+  <si>
+    <t>Conta Simples</t>
+  </si>
+  <si>
+    <t>Cora</t>
+  </si>
+  <si>
+    <t>Mercado Pago</t>
+  </si>
+  <si>
+    <t>Xp</t>
+  </si>
+  <si>
+    <t>Itaú</t>
+  </si>
+  <si>
+    <t>Itaú - Investimentos</t>
+  </si>
+  <si>
+    <t>Custody</t>
+  </si>
+  <si>
+    <t>Resources In Custody</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Investment Subscription</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Financial Revenue</t>
+  </si>
+  <si>
+    <t>Operating Revenue</t>
+  </si>
+  <si>
+    <t>Non Recurrent</t>
+  </si>
+  <si>
+    <t>Recurrent</t>
+  </si>
+  <si>
+    <t>Utilização Plataforma</t>
+  </si>
+  <si>
+    <t>Other Revenue</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Operating Costs</t>
+  </si>
+  <si>
+    <t>Marketing - Outros</t>
+  </si>
+  <si>
+    <t>Round de Captação</t>
+  </si>
+  <si>
+    <t>Administrative Costs</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Erros Operacionais</t>
+  </si>
+  <si>
+    <t>Transferências - Taxas</t>
+  </si>
+  <si>
+    <t>Partnerships &amp; Suppliers</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>Partners</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Tax And Fees</t>
+  </si>
+  <si>
+    <t>Technology &amp; Infrastructure</t>
+  </si>
+  <si>
+    <t>Provisioning</t>
+  </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t>Gestão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10942,6 +11069,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10960,17 +11102,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11286,8 +11433,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I248" sqref="I248:I260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11357,6 +11504,9 @@
       <c r="I2" s="1" t="s">
         <v>3581</v>
       </c>
+      <c r="J2" s="1">
+        <v>50301001</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -11380,6 +11530,9 @@
       <c r="I3" s="1" t="s">
         <v>1326</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>1326</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
@@ -11403,6 +11556,9 @@
       <c r="I4" s="1" t="s">
         <v>1337</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>1337</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -11426,6 +11582,9 @@
       <c r="I5" s="1" t="s">
         <v>1351</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>1339</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
@@ -11449,6 +11608,9 @@
       <c r="I6" s="1" t="s">
         <v>1339</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
@@ -11472,6 +11634,9 @@
       <c r="I7" s="1" t="s">
         <v>1321</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>1349</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -11495,6 +11660,9 @@
       <c r="I8" s="1" t="s">
         <v>1349</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>1363</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
@@ -11518,6 +11686,9 @@
       <c r="I9" s="1" t="s">
         <v>1364</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>1334</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
@@ -11541,6 +11712,9 @@
       <c r="I10" s="1" t="s">
         <v>1363</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>1352</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
@@ -11564,6 +11738,9 @@
       <c r="I11" s="1" t="s">
         <v>1334</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
@@ -11587,6 +11764,9 @@
       <c r="I12" s="1" t="s">
         <v>1352</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
@@ -11610,6 +11790,9 @@
       <c r="I13" s="1" t="s">
         <v>1458</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -11633,6 +11816,9 @@
       <c r="I14" s="1" t="s">
         <v>1302</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
@@ -11656,6 +11842,9 @@
       <c r="I15" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
@@ -11679,8 +11868,11 @@
       <c r="I16" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J16" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>202</v>
       </c>
@@ -11702,8 +11894,11 @@
       <c r="I17" s="1" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>202</v>
       </c>
@@ -11725,8 +11920,11 @@
       <c r="I18" s="1" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J18" s="1" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>202</v>
       </c>
@@ -11748,8 +11946,11 @@
       <c r="I19" s="1" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J19" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>202</v>
       </c>
@@ -11771,8 +11972,11 @@
       <c r="I20" s="1" t="s">
         <v>3568</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J20" s="1" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
@@ -11794,8 +11998,11 @@
       <c r="I21" s="1" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J21" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>202</v>
       </c>
@@ -11817,8 +12024,11 @@
       <c r="I22" s="1" t="s">
         <v>3570</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J22" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>202</v>
       </c>
@@ -11840,8 +12050,11 @@
       <c r="I23" s="1" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J23" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>202</v>
       </c>
@@ -11863,8 +12076,11 @@
       <c r="I24" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J24" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>202</v>
       </c>
@@ -11886,8 +12102,11 @@
       <c r="I25" s="1" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J25" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>233</v>
       </c>
@@ -11912,8 +12131,11 @@
       <c r="I26" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J26" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>202</v>
       </c>
@@ -11935,8 +12157,11 @@
       <c r="I27" s="1" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J27" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>202</v>
       </c>
@@ -11958,8 +12183,11 @@
       <c r="I28" s="1" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J28" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>202</v>
       </c>
@@ -11981,8 +12209,11 @@
       <c r="I29" s="1" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J29" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>202</v>
       </c>
@@ -12004,8 +12235,11 @@
       <c r="I30" s="1" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J30" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>235</v>
       </c>
@@ -12027,8 +12261,11 @@
       <c r="I31" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J31" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>202</v>
       </c>
@@ -12050,8 +12287,11 @@
       <c r="I32" s="1" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J32" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>202</v>
       </c>
@@ -12073,8 +12313,11 @@
       <c r="I33" s="1" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J33" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>202</v>
       </c>
@@ -12096,8 +12339,11 @@
       <c r="I34" s="1" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J34" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>202</v>
       </c>
@@ -12119,8 +12365,11 @@
       <c r="I35" s="1" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J35" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>235</v>
       </c>
@@ -12142,8 +12391,11 @@
       <c r="I36" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J36" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>202</v>
       </c>
@@ -12165,8 +12417,11 @@
       <c r="I37" s="1" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J37" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>202</v>
       </c>
@@ -12188,8 +12443,11 @@
       <c r="I38" s="1" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J38" s="1" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>202</v>
       </c>
@@ -12211,8 +12469,11 @@
       <c r="I39" s="1" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J39" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>202</v>
       </c>
@@ -12234,8 +12495,11 @@
       <c r="I40" s="1" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J40" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>202</v>
       </c>
@@ -12257,8 +12521,11 @@
       <c r="I41" s="1" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J41" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>202</v>
       </c>
@@ -12280,8 +12547,11 @@
       <c r="I42" s="1" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J42" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>202</v>
       </c>
@@ -12303,8 +12573,11 @@
       <c r="I43" s="1" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J43" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>202</v>
       </c>
@@ -12326,8 +12599,11 @@
       <c r="I44" s="1" t="s">
         <v>3569</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J44" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>202</v>
       </c>
@@ -12349,8 +12625,11 @@
       <c r="I45" s="1" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J45" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>202</v>
       </c>
@@ -12372,8 +12651,11 @@
       <c r="I46" s="1" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J46" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>202</v>
       </c>
@@ -12395,8 +12677,11 @@
       <c r="I47" s="1" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J47" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>202</v>
       </c>
@@ -12418,8 +12703,11 @@
       <c r="I48" s="1" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J48" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>202</v>
       </c>
@@ -12441,8 +12729,11 @@
       <c r="I49" s="1" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J49" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>202</v>
       </c>
@@ -12464,8 +12755,11 @@
       <c r="I50" s="1" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J50" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>202</v>
       </c>
@@ -12487,8 +12781,11 @@
       <c r="I51" s="1" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J51" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>202</v>
       </c>
@@ -12510,8 +12807,11 @@
       <c r="I52" s="1" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J52" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>234</v>
       </c>
@@ -12533,8 +12833,11 @@
       <c r="I53" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J53" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>202</v>
       </c>
@@ -12556,8 +12859,11 @@
       <c r="I54" s="1" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J54" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>204</v>
       </c>
@@ -12579,8 +12885,11 @@
       <c r="I55" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J55" s="1" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>232</v>
       </c>
@@ -12602,8 +12911,11 @@
       <c r="I56" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J56" s="1" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
@@ -12625,8 +12937,11 @@
       <c r="I57" s="1" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J57" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>202</v>
       </c>
@@ -12648,8 +12963,11 @@
       <c r="I58" s="1" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J58" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>204</v>
       </c>
@@ -12671,8 +12989,11 @@
       <c r="I59" s="1" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J59" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>3577</v>
       </c>
@@ -12697,8 +13018,11 @@
       <c r="I60" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J60" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>202</v>
       </c>
@@ -12720,8 +13044,11 @@
       <c r="I61" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J61" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>144</v>
       </c>
@@ -12743,8 +13070,11 @@
       <c r="I62" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J62" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>144</v>
       </c>
@@ -12766,8 +13096,11 @@
       <c r="I63" s="1" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J63" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>202</v>
       </c>
@@ -12789,8 +13122,11 @@
       <c r="I64" s="1" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J64" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>202</v>
       </c>
@@ -12812,8 +13148,11 @@
       <c r="I65" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J65" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>202</v>
       </c>
@@ -12835,8 +13174,11 @@
       <c r="I66" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J66" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>202</v>
       </c>
@@ -12858,8 +13200,11 @@
       <c r="I67" s="1" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J67" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>202</v>
       </c>
@@ -12881,8 +13226,11 @@
       <c r="I68" s="1" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J68" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>235</v>
       </c>
@@ -12907,8 +13255,11 @@
       <c r="I69" s="1" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J69" s="1">
+        <v>502020010001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>3577</v>
       </c>
@@ -12933,8 +13284,11 @@
       <c r="I70" s="1" t="s">
         <v>3442</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J70" s="1">
+        <v>705010020004</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>3577</v>
       </c>
@@ -12959,8 +13313,11 @@
       <c r="I71" s="1" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J71" s="1" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>3577</v>
       </c>
@@ -12985,8 +13342,11 @@
       <c r="I72" s="1" t="s">
         <v>3439</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J72" s="1">
+        <v>705010020002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>105</v>
       </c>
@@ -13008,8 +13368,11 @@
       <c r="I73" s="1" t="s">
         <v>3432</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J73" s="1">
+        <v>70403004</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>202</v>
       </c>
@@ -13034,8 +13397,11 @@
       <c r="I74" s="1" t="s">
         <v>3433</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J74" s="1" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>39</v>
       </c>
@@ -13054,8 +13420,11 @@
       <c r="G75" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J75" s="1">
+        <v>708010020001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>39</v>
       </c>
@@ -13074,8 +13443,11 @@
       <c r="G76" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J76" s="1">
+        <v>708010010001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>39</v>
       </c>
@@ -13094,8 +13466,11 @@
       <c r="G77" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J77" s="1">
+        <v>708010010002</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>39</v>
       </c>
@@ -13114,8 +13489,11 @@
       <c r="G78" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J78" s="1">
+        <v>708010010003</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>39</v>
       </c>
@@ -13134,8 +13512,11 @@
       <c r="G79" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J79" s="1">
+        <v>708010010004</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>39</v>
       </c>
@@ -13154,8 +13535,11 @@
       <c r="G80" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J80" s="1">
+        <v>708010010005</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>39</v>
       </c>
@@ -13174,8 +13558,11 @@
       <c r="G81" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J81" s="1">
+        <v>708010010006</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>39</v>
       </c>
@@ -13194,8 +13581,11 @@
       <c r="G82" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J82" s="1">
+        <v>708010010007</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>39</v>
       </c>
@@ -13214,8 +13604,11 @@
       <c r="G83" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J83" s="1">
+        <v>708010010008</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>39</v>
       </c>
@@ -13234,8 +13627,11 @@
       <c r="G84" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J84" s="1">
+        <v>708010010009</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>39</v>
       </c>
@@ -13254,8 +13650,11 @@
       <c r="G85" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J85" s="1">
+        <v>708010010010</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>39</v>
       </c>
@@ -13274,8 +13673,11 @@
       <c r="G86" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J86" s="1">
+        <v>708010010011</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B87" s="1" t="s">
         <v>39</v>
       </c>
@@ -13294,8 +13696,11 @@
       <c r="G87" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J87" s="1">
+        <v>708010010012</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B88" s="1" t="s">
         <v>39</v>
       </c>
@@ -13314,8 +13719,11 @@
       <c r="G88" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J88" s="1">
+        <v>708010010013</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B89" s="1" t="s">
         <v>39</v>
       </c>
@@ -13334,8 +13742,11 @@
       <c r="G89" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J89" s="1">
+        <v>708010010014</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B90" s="1" t="s">
         <v>39</v>
       </c>
@@ -13354,8 +13765,11 @@
       <c r="G90" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J90" s="1">
+        <v>708010010015</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>39</v>
       </c>
@@ -13374,8 +13788,11 @@
       <c r="G91" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J91" s="1">
+        <v>708010010016</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>39</v>
       </c>
@@ -13394,8 +13811,11 @@
       <c r="G92" s="1" t="s">
         <v>3583</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J92" s="1">
+        <v>708010010046</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>39</v>
       </c>
@@ -13414,8 +13834,11 @@
       <c r="G93" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J93" s="1">
+        <v>708010010017</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>39</v>
       </c>
@@ -13434,8 +13857,11 @@
       <c r="G94" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J94" s="1">
+        <v>708010010018</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>39</v>
       </c>
@@ -13454,8 +13880,11 @@
       <c r="G95" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J95" s="1">
+        <v>708010010019</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>39</v>
       </c>
@@ -13474,8 +13903,11 @@
       <c r="G96" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J96" s="1">
+        <v>708010010020</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>39</v>
       </c>
@@ -13494,8 +13926,11 @@
       <c r="G97" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J97" s="1">
+        <v>708010010021</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>39</v>
       </c>
@@ -13514,8 +13949,11 @@
       <c r="G98" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J98" s="1">
+        <v>708010010041</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
         <v>39</v>
       </c>
@@ -13534,8 +13972,11 @@
       <c r="G99" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J99" s="1">
+        <v>708010010043</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>39</v>
       </c>
@@ -13554,8 +13995,11 @@
       <c r="G100" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J100" s="1">
+        <v>708010010022</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>39</v>
       </c>
@@ -13574,8 +14018,11 @@
       <c r="G101" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J101" s="1">
+        <v>708010010031</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
         <v>39</v>
       </c>
@@ -13594,8 +14041,11 @@
       <c r="G102" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J102" s="1">
+        <v>708010010023</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>39</v>
       </c>
@@ -13614,8 +14064,11 @@
       <c r="G103" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J103" s="1">
+        <v>708010010024</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>39</v>
       </c>
@@ -13634,8 +14087,11 @@
       <c r="G104" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J104" s="1">
+        <v>708010010025</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B105" s="1" t="s">
         <v>39</v>
       </c>
@@ -13654,8 +14110,11 @@
       <c r="G105" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J105" s="1">
+        <v>708010010044</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>39</v>
       </c>
@@ -13674,8 +14133,11 @@
       <c r="G106" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J106" s="1">
+        <v>708010010026</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B107" s="1" t="s">
         <v>39</v>
       </c>
@@ -13694,8 +14156,11 @@
       <c r="G107" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J107" s="1">
+        <v>708010010027</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B108" s="1" t="s">
         <v>39</v>
       </c>
@@ -13714,8 +14179,11 @@
       <c r="G108" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J108" s="1">
+        <v>708010010028</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B109" s="1" t="s">
         <v>39</v>
       </c>
@@ -13734,8 +14202,11 @@
       <c r="G109" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J109" s="1">
+        <v>708010010029</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B110" s="1" t="s">
         <v>39</v>
       </c>
@@ -13754,8 +14225,11 @@
       <c r="G110" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J110" s="1">
+        <v>708010010030</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B111" s="1" t="s">
         <v>39</v>
       </c>
@@ -13774,8 +14248,11 @@
       <c r="G111" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J111" s="1">
+        <v>708010010032</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
         <v>39</v>
       </c>
@@ -13794,8 +14271,11 @@
       <c r="G112" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J112" s="1">
+        <v>708010010033</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B113" s="1" t="s">
         <v>39</v>
       </c>
@@ -13814,8 +14294,11 @@
       <c r="G113" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J113" s="1">
+        <v>708010010034</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B114" s="1" t="s">
         <v>39</v>
       </c>
@@ -13834,8 +14317,11 @@
       <c r="G114" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J114" s="1">
+        <v>708010010035</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B115" s="1" t="s">
         <v>39</v>
       </c>
@@ -13854,8 +14340,11 @@
       <c r="G115" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J115" s="1">
+        <v>708010010042</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
         <v>39</v>
       </c>
@@ -13874,8 +14363,11 @@
       <c r="G116" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J116" s="1">
+        <v>708010010036</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B117" s="1" t="s">
         <v>39</v>
       </c>
@@ -13894,8 +14386,11 @@
       <c r="G117" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J117" s="1">
+        <v>708010010038</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
         <v>39</v>
       </c>
@@ -13914,8 +14409,11 @@
       <c r="G118" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J118" s="1">
+        <v>708010010039</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B119" s="1" t="s">
         <v>39</v>
       </c>
@@ -13934,8 +14432,11 @@
       <c r="G119" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J119" s="1">
+        <v>708010010040</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B120" s="1" t="s">
         <v>39</v>
       </c>
@@ -13954,8 +14455,11 @@
       <c r="G120" s="1" t="s">
         <v>3589</v>
       </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J120" s="1">
+        <v>708010010048</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B121" s="1" t="s">
         <v>39</v>
       </c>
@@ -13974,8 +14478,11 @@
       <c r="G121" s="1" t="s">
         <v>3590</v>
       </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J121" s="1">
+        <v>708010010047</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
         <v>203</v>
       </c>
@@ -13994,8 +14501,11 @@
       <c r="G122" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J122" s="1">
+        <v>707010010008</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
         <v>203</v>
       </c>
@@ -14014,8 +14524,11 @@
       <c r="G123" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J123" s="1">
+        <v>707010010009</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
         <v>204</v>
       </c>
@@ -14034,8 +14547,11 @@
       <c r="G124" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J124" s="1">
+        <v>707010010006</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B125" s="1" t="s">
         <v>203</v>
       </c>
@@ -14054,8 +14570,11 @@
       <c r="G125" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J125" s="1">
+        <v>707010010007</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B126" s="1" t="s">
         <v>204</v>
       </c>
@@ -14074,8 +14593,11 @@
       <c r="G126" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J126" s="1">
+        <v>707010010014</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B127" s="1" t="s">
         <v>203</v>
       </c>
@@ -14094,8 +14616,11 @@
       <c r="G127" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J127" s="1">
+        <v>707010010010</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B128" s="1" t="s">
         <v>204</v>
       </c>
@@ -14114,8 +14639,11 @@
       <c r="G128" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J128" s="1">
+        <v>707010010016</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B129" s="1" t="s">
         <v>203</v>
       </c>
@@ -14134,8 +14662,11 @@
       <c r="G129" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J129" s="1">
+        <v>707010010011</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B130" s="1" t="s">
         <v>3576</v>
       </c>
@@ -14154,8 +14685,11 @@
       <c r="G130" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J130" s="1">
+        <v>707010010018</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B131" s="1" t="s">
         <v>203</v>
       </c>
@@ -14174,8 +14708,11 @@
       <c r="G131" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J131" s="1">
+        <v>707010010012</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B132" s="1" t="s">
         <v>203</v>
       </c>
@@ -14194,8 +14731,11 @@
       <c r="G132" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J132" s="1">
+        <v>707010010021</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B133" s="1" t="s">
         <v>203</v>
       </c>
@@ -14214,8 +14754,11 @@
       <c r="G133" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J133" s="1">
+        <v>707010020001</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B134" s="1" t="s">
         <v>203</v>
       </c>
@@ -14234,8 +14777,11 @@
       <c r="G134" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J134" s="1">
+        <v>707010020002</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B135" s="1" t="s">
         <v>203</v>
       </c>
@@ -14254,8 +14800,11 @@
       <c r="G135" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J135" s="1">
+        <v>707010020003</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B136" s="1" t="s">
         <v>204</v>
       </c>
@@ -14274,8 +14823,11 @@
       <c r="G136" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J136" s="1">
+        <v>707010010002</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B137" s="1" t="s">
         <v>204</v>
       </c>
@@ -14294,8 +14846,11 @@
       <c r="G137" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J137" s="1">
+        <v>707010010003</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B138" s="1" t="s">
         <v>204</v>
       </c>
@@ -14314,8 +14869,11 @@
       <c r="G138" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J138" s="1">
+        <v>707010010004</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B139" s="1" t="s">
         <v>144</v>
       </c>
@@ -14334,8 +14892,11 @@
       <c r="G139" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J139" s="1">
+        <v>70904</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B140" s="1" t="s">
         <v>105</v>
       </c>
@@ -14354,8 +14915,11 @@
       <c r="G140" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J140" s="1">
+        <v>70903</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B141" s="1" t="s">
         <v>202</v>
       </c>
@@ -14374,8 +14938,11 @@
       <c r="G141" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J141" s="1">
+        <v>70901</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B142" s="1" t="s">
         <v>118</v>
       </c>
@@ -14394,8 +14961,11 @@
       <c r="G142" s="1" t="s">
         <v>3587</v>
       </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J142" s="1">
+        <v>70905</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B143" s="1" t="s">
         <v>97</v>
       </c>
@@ -14414,8 +14984,11 @@
       <c r="G143" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J143" s="1">
+        <v>70902</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B144" s="1" t="s">
         <v>204</v>
       </c>
@@ -14434,8 +15007,11 @@
       <c r="G144" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J144" s="1">
+        <v>706010010001</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B145" s="1" t="s">
         <v>204</v>
       </c>
@@ -14454,8 +15030,11 @@
       <c r="G145" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J145" s="1">
+        <v>706010010002</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
         <v>204</v>
       </c>
@@ -14474,8 +15053,11 @@
       <c r="G146" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J146" s="1">
+        <v>706010030003</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B147" s="1" t="s">
         <v>204</v>
       </c>
@@ -14494,8 +15076,11 @@
       <c r="G147" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J147" s="1">
+        <v>706010020005</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B148" s="1" t="s">
         <v>204</v>
       </c>
@@ -14514,8 +15099,11 @@
       <c r="G148" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J148" s="1">
+        <v>706010020001</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
         <v>204</v>
       </c>
@@ -14534,8 +15122,11 @@
       <c r="G149" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J149" s="1">
+        <v>706010010004</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B150" s="1" t="s">
         <v>204</v>
       </c>
@@ -14554,8 +15145,11 @@
       <c r="G150" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J150" s="1">
+        <v>706010020002</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B151" s="1" t="s">
         <v>144</v>
       </c>
@@ -14574,8 +15168,11 @@
       <c r="G151" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J151" s="1">
+        <v>706010030004</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B152" s="1" t="s">
         <v>204</v>
       </c>
@@ -14594,8 +15191,11 @@
       <c r="G152" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J152" s="1">
+        <v>706010010007</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B153" s="1" t="s">
         <v>204</v>
       </c>
@@ -14614,8 +15214,11 @@
       <c r="G153" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J153" s="1">
+        <v>70601002</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B154" s="1" t="s">
         <v>204</v>
       </c>
@@ -14634,8 +15237,11 @@
       <c r="G154" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J154" s="1">
+        <v>706010030002</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B155" s="1" t="s">
         <v>204</v>
       </c>
@@ -14654,8 +15260,11 @@
       <c r="G155" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J155" s="1">
+        <v>706010020004</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B156" s="1" t="s">
         <v>3577</v>
       </c>
@@ -14677,8 +15286,11 @@
       <c r="H156" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J156" s="1">
+        <v>705020010001</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B157" s="1" t="s">
         <v>3577</v>
       </c>
@@ -14700,8 +15312,11 @@
       <c r="H157" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J157" s="1">
+        <v>705010020001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B158" s="1" t="s">
         <v>3577</v>
       </c>
@@ -14723,8 +15338,11 @@
       <c r="H158" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J158" s="1">
+        <v>705010020003</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B159" s="1" t="s">
         <v>3577</v>
       </c>
@@ -14746,8 +15364,11 @@
       <c r="H159" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J159" s="1">
+        <v>705010020005</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B160" s="1" t="s">
         <v>3577</v>
       </c>
@@ -14769,8 +15390,11 @@
       <c r="H160" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J160" s="1">
+        <v>705010020006</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B161" s="1" t="s">
         <v>3577</v>
       </c>
@@ -14792,8 +15416,11 @@
       <c r="H161" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J161" s="1">
+        <v>705010020007</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B162" s="1" t="s">
         <v>3577</v>
       </c>
@@ -14815,8 +15442,11 @@
       <c r="H162" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J162" s="1">
+        <v>705010020009</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B163" s="1" t="s">
         <v>3577</v>
       </c>
@@ -14838,8 +15468,11 @@
       <c r="H163" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J163" s="1">
+        <v>705010020010</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B164" s="1" t="s">
         <v>3577</v>
       </c>
@@ -14861,8 +15494,11 @@
       <c r="H164" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J164" s="1">
+        <v>705010020011</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B165" s="1" t="s">
         <v>3577</v>
       </c>
@@ -14884,8 +15520,11 @@
       <c r="H165" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J165" s="1">
+        <v>705010020012</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B166" s="1" t="s">
         <v>235</v>
       </c>
@@ -14907,8 +15546,11 @@
       <c r="H166" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J166" s="1">
+        <v>502010040001</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B167" s="1" t="s">
         <v>235</v>
       </c>
@@ -14930,8 +15572,11 @@
       <c r="H167" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J167" s="1">
+        <v>502020020003</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B168" s="1" t="s">
         <v>235</v>
       </c>
@@ -14953,8 +15598,11 @@
       <c r="H168" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J168" s="1">
+        <v>502020020002</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B169" s="1" t="s">
         <v>235</v>
       </c>
@@ -14976,8 +15624,11 @@
       <c r="H169" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J169" s="1">
+        <v>502020020001</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B170" s="1" t="s">
         <v>235</v>
       </c>
@@ -14999,8 +15650,11 @@
       <c r="H170" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J170" s="1">
+        <v>502010010001</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B171" s="1" t="s">
         <v>235</v>
       </c>
@@ -15022,8 +15676,11 @@
       <c r="H171" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J171" s="1">
+        <v>502010010012</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B172" s="1" t="s">
         <v>235</v>
       </c>
@@ -15045,8 +15702,11 @@
       <c r="H172" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J172" s="1">
+        <v>502010010003</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B173" s="1" t="s">
         <v>235</v>
       </c>
@@ -15068,8 +15728,11 @@
       <c r="H173" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J173" s="1">
+        <v>502010010005</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B174" s="1" t="s">
         <v>235</v>
       </c>
@@ -15091,8 +15754,11 @@
       <c r="H174" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J174" s="1">
+        <v>502010010006</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B175" s="1" t="s">
         <v>235</v>
       </c>
@@ -15114,8 +15780,11 @@
       <c r="H175" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J175" s="1">
+        <v>502010010011</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B176" s="1" t="s">
         <v>235</v>
       </c>
@@ -15137,8 +15806,11 @@
       <c r="H176" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J176" s="1">
+        <v>502010010007</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B177" s="1" t="s">
         <v>235</v>
       </c>
@@ -15160,8 +15832,11 @@
       <c r="H177" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J177" s="1">
+        <v>502010010013</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B178" s="1" t="s">
         <v>235</v>
       </c>
@@ -15183,8 +15858,11 @@
       <c r="H178" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J178" s="1">
+        <v>502010010008</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B179" s="1" t="s">
         <v>235</v>
       </c>
@@ -15206,8 +15884,11 @@
       <c r="H179" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J179" s="1">
+        <v>502010010009</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B180" s="1" t="s">
         <v>235</v>
       </c>
@@ -15229,8 +15910,11 @@
       <c r="H180" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J180" s="1">
+        <v>502010010010</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B181" s="1" t="s">
         <v>235</v>
       </c>
@@ -15252,8 +15936,11 @@
       <c r="H181" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J181" s="1">
+        <v>502010020003</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B182" s="1" t="s">
         <v>235</v>
       </c>
@@ -15275,8 +15962,11 @@
       <c r="H182" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J182" s="1">
+        <v>502010020004</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B183" s="1" t="s">
         <v>235</v>
       </c>
@@ -15298,8 +15988,11 @@
       <c r="H183" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J183" s="1">
+        <v>502010020005</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B184" s="1" t="s">
         <v>235</v>
       </c>
@@ -15321,8 +16014,11 @@
       <c r="H184" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J184" s="1">
+        <v>502010030002</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B185" s="1" t="s">
         <v>235</v>
       </c>
@@ -15344,8 +16040,11 @@
       <c r="H185" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J185" s="1">
+        <v>502010030003</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B186" s="1" t="s">
         <v>235</v>
       </c>
@@ -15367,8 +16066,11 @@
       <c r="H186" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J186" s="1">
+        <v>502010030004</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B187" s="1" t="s">
         <v>118</v>
       </c>
@@ -15387,8 +16089,11 @@
       <c r="G187" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J187" s="1">
+        <v>703040020002</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B188" s="1" t="s">
         <v>118</v>
       </c>
@@ -15407,8 +16112,11 @@
       <c r="G188" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J188" s="1">
+        <v>703040020001</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B189" s="1" t="s">
         <v>118</v>
       </c>
@@ -15427,8 +16135,11 @@
       <c r="G189" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J189" s="1">
+        <v>703040020003</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B190" s="1" t="s">
         <v>105</v>
       </c>
@@ -15447,8 +16158,11 @@
       <c r="G190" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J190" s="1">
+        <v>703020010001</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B191" s="1" t="s">
         <v>105</v>
       </c>
@@ -15467,8 +16181,11 @@
       <c r="G191" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J191" s="1">
+        <v>703020010004</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B192" s="1" t="s">
         <v>105</v>
       </c>
@@ -15487,8 +16204,11 @@
       <c r="G192" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J192" s="1">
+        <v>703020010005</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B193" s="1" t="s">
         <v>105</v>
       </c>
@@ -15507,8 +16227,11 @@
       <c r="G193" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J193" s="1">
+        <v>703020010007</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B194" s="1" t="s">
         <v>105</v>
       </c>
@@ -15527,8 +16250,11 @@
       <c r="G194" s="1" t="s">
         <v>3578</v>
       </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J194" s="1">
+        <v>703020010015</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B195" s="1" t="s">
         <v>105</v>
       </c>
@@ -15547,8 +16273,11 @@
       <c r="G195" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J195" s="1">
+        <v>703020020001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B196" s="1" t="s">
         <v>105</v>
       </c>
@@ -15567,8 +16296,11 @@
       <c r="G196" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J196" s="1">
+        <v>703020010009</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B197" s="1" t="s">
         <v>105</v>
       </c>
@@ -15587,8 +16319,11 @@
       <c r="G197" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J197" s="1">
+        <v>703020010011</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B198" s="1" t="s">
         <v>105</v>
       </c>
@@ -15607,8 +16342,11 @@
       <c r="G198" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J198" s="1">
+        <v>703020020002</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B199" s="1" t="s">
         <v>105</v>
       </c>
@@ -15627,8 +16365,11 @@
       <c r="G199" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J199" s="1">
+        <v>703020010014</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B200" s="1" t="s">
         <v>118</v>
       </c>
@@ -15647,8 +16388,11 @@
       <c r="G200" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J200" s="1">
+        <v>703030020001</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B201" s="1" t="s">
         <v>118</v>
       </c>
@@ -15667,8 +16411,11 @@
       <c r="G201" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J201" s="1">
+        <v>703030020002</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B202" s="1" t="s">
         <v>118</v>
       </c>
@@ -15687,8 +16434,11 @@
       <c r="G202" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J202" s="1">
+        <v>703030010001</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B203" s="1" t="s">
         <v>118</v>
       </c>
@@ -15707,8 +16457,11 @@
       <c r="G203" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J203" s="1">
+        <v>703030020003</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B204" s="1" t="s">
         <v>118</v>
       </c>
@@ -15727,8 +16480,11 @@
       <c r="G204" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J204" s="1">
+        <v>703030020004</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B205" s="1" t="s">
         <v>118</v>
       </c>
@@ -15747,8 +16503,11 @@
       <c r="G205" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J205" s="1">
+        <v>703030030001</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B206" s="1" t="s">
         <v>118</v>
       </c>
@@ -15767,8 +16526,11 @@
       <c r="G206" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J206" s="1">
+        <v>703030030002</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B207" s="1" t="s">
         <v>118</v>
       </c>
@@ -15787,8 +16549,11 @@
       <c r="G207" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J207" s="1">
+        <v>703030040001</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B208" s="1" t="s">
         <v>118</v>
       </c>
@@ -15807,8 +16572,11 @@
       <c r="G208" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J208" s="1">
+        <v>703030040002</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B209" s="1" t="s">
         <v>118</v>
       </c>
@@ -15827,8 +16595,11 @@
       <c r="G209" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J209" s="1">
+        <v>703030010002</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B210" s="1" t="s">
         <v>118</v>
       </c>
@@ -15847,8 +16618,11 @@
       <c r="G210" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J210" s="1">
+        <v>703030010003</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B211" s="1" t="s">
         <v>118</v>
       </c>
@@ -15867,8 +16641,11 @@
       <c r="G211" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J211" s="1">
+        <v>703030010004</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B212" s="1" t="s">
         <v>202</v>
       </c>
@@ -15888,7 +16665,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B213" s="1" t="s">
         <v>154</v>
       </c>
@@ -15907,8 +16684,11 @@
       <c r="G213" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J213" s="1">
+        <v>703040010002</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B214" s="1" t="s">
         <v>154</v>
       </c>
@@ -15927,8 +16707,11 @@
       <c r="G214" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J214" s="1">
+        <v>703040010001</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B215" s="1" t="s">
         <v>97</v>
       </c>
@@ -15947,8 +16730,11 @@
       <c r="G215" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J215" s="1">
+        <v>703010010002</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B216" s="1" t="s">
         <v>97</v>
       </c>
@@ -15967,8 +16753,11 @@
       <c r="G216" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J216" s="1">
+        <v>703010010003</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B217" s="1" t="s">
         <v>97</v>
       </c>
@@ -15987,8 +16776,11 @@
       <c r="G217" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J217" s="1">
+        <v>70301</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B218" s="1" t="s">
         <v>97</v>
       </c>
@@ -16007,8 +16799,11 @@
       <c r="G218" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J218" s="1">
+        <v>703010010005</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B219" s="1" t="s">
         <v>97</v>
       </c>
@@ -16027,8 +16822,11 @@
       <c r="G219" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J219" s="1">
+        <v>703010010006</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B220" s="1" t="s">
         <v>97</v>
       </c>
@@ -16047,8 +16845,11 @@
       <c r="G220" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J220" s="1">
+        <v>703010010007</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B221" s="1" t="s">
         <v>97</v>
       </c>
@@ -16067,8 +16868,11 @@
       <c r="G221" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J221" s="1">
+        <v>703010010014</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B222" s="1" t="s">
         <v>97</v>
       </c>
@@ -16087,8 +16891,11 @@
       <c r="G222" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J222" s="1">
+        <v>703010010010</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B223" s="1" t="s">
         <v>97</v>
       </c>
@@ -16107,8 +16914,11 @@
       <c r="G223" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J223" s="1">
+        <v>703010010013</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B224" s="1" t="s">
         <v>232</v>
       </c>
@@ -16127,8 +16937,11 @@
       <c r="G224" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J224" s="1">
+        <v>401010010002</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B225" s="1" t="s">
         <v>232</v>
       </c>
@@ -16147,8 +16960,11 @@
       <c r="G225" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J225" s="1">
+        <v>401010010003</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B226" s="1" t="s">
         <v>97</v>
       </c>
@@ -16167,8 +16983,11 @@
       <c r="G226" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J226" s="1">
+        <v>71004001</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B227" s="1" t="s">
         <v>97</v>
       </c>
@@ -16187,8 +17006,11 @@
       <c r="G227" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J227" s="1">
+        <v>71004002</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B228" s="1" t="s">
         <v>97</v>
       </c>
@@ -16207,8 +17029,11 @@
       <c r="G228" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J228" s="1">
+        <v>71004003</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B229" s="1" t="s">
         <v>234</v>
       </c>
@@ -16227,8 +17052,11 @@
       <c r="G229" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J229" s="1">
+        <v>50101005</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B230" s="1" t="s">
         <v>234</v>
       </c>
@@ -16247,8 +17075,11 @@
       <c r="G230" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J230" s="1">
+        <v>50101004</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B231" s="1" t="s">
         <v>233</v>
       </c>
@@ -16270,8 +17101,11 @@
       <c r="H231" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J231" s="1">
+        <v>201010010001</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B232" s="1" t="s">
         <v>233</v>
       </c>
@@ -16293,8 +17127,11 @@
       <c r="H232" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J232" s="1">
+        <v>201010020001</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B233" s="1" t="s">
         <v>144</v>
       </c>
@@ -16313,8 +17150,11 @@
       <c r="G233" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J233" s="1">
+        <v>704030010001</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B234" s="1" t="s">
         <v>144</v>
       </c>
@@ -16333,8 +17173,11 @@
       <c r="G234" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J234" s="1">
+        <v>704030040004</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B235" s="1" t="s">
         <v>144</v>
       </c>
@@ -16353,8 +17196,11 @@
       <c r="G235" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J235" s="1">
+        <v>704030070001</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B236" s="1" t="s">
         <v>144</v>
       </c>
@@ -16373,8 +17219,11 @@
       <c r="G236" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J236" s="1">
+        <v>704030040006</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B237" s="1" t="s">
         <v>236</v>
       </c>
@@ -16393,8 +17242,11 @@
       <c r="G237" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J237" s="1">
+        <v>704020010001</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B238" s="1" t="s">
         <v>236</v>
       </c>
@@ -16413,8 +17265,11 @@
       <c r="G238" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J238" s="1">
+        <v>704020010002</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B239" s="1" t="s">
         <v>236</v>
       </c>
@@ -16433,8 +17288,11 @@
       <c r="G239" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J239" s="1">
+        <v>704020010003</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B240" s="1" t="s">
         <v>236</v>
       </c>
@@ -16453,8 +17311,11 @@
       <c r="G240" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J240" s="1">
+        <v>704020010005</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B241" s="1" t="s">
         <v>236</v>
       </c>
@@ -16473,8 +17334,11 @@
       <c r="G241" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J241" s="1">
+        <v>704020010006</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B242" s="1" t="s">
         <v>236</v>
       </c>
@@ -16493,8 +17357,11 @@
       <c r="G242" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J242" s="1">
+        <v>704020030001</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B243" s="1" t="s">
         <v>144</v>
       </c>
@@ -16513,8 +17380,11 @@
       <c r="G243" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J243" s="1">
+        <v>704020020003</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B244" s="1" t="s">
         <v>144</v>
       </c>
@@ -16533,8 +17403,11 @@
       <c r="G244" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J244" s="1">
+        <v>70402002</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B245" s="1" t="s">
         <v>144</v>
       </c>
@@ -16553,8 +17426,11 @@
       <c r="G245" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J245" s="1">
+        <v>704020020005</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B246" s="1" t="s">
         <v>39</v>
       </c>
@@ -16573,8 +17449,11 @@
       <c r="G246" s="1" t="s">
         <v>3591</v>
       </c>
-    </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J246" s="1">
+        <v>708010010045</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B247" s="1" t="s">
         <v>39</v>
       </c>
@@ -16592,6 +17471,9 @@
       </c>
       <c r="G247" s="1" t="s">
         <v>3619</v>
+      </c>
+      <c r="J247" s="1">
+        <v>708010010049</v>
       </c>
     </row>
   </sheetData>
@@ -16655,6 +17537,3028 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1875E25-5480-8B45-9FAA-BEB5ACDFD7DD}">
+  <dimension ref="A1:C273"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C273"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C2" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C3" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>10201</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>10202</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>10203</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3628</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>10204</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3629</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>10205</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3630</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>10206</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3631</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>10207</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10208</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3632</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10209</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10210</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3634</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>10211</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>201</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C16" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>20101</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3637</v>
+      </c>
+      <c r="C17" s="3">
+        <v>20101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>20101001</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3">
+        <v>20101001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>201010010001</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="3">
+        <v>201010010001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>201010010003</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3">
+        <v>201010010003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20101002</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20101002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>201010020001</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3">
+        <v>201010020001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>401</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3639</v>
+      </c>
+      <c r="C24" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>40101</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C25" s="3">
+        <v>40101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>40101001</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3">
+        <v>40101001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>401010010002</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3">
+        <v>401010010002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>401010010003</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3">
+        <v>401010010003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>401010010004</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3">
+        <v>401010010004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>3640</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>501</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C31" s="3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>50101</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C32" s="3">
+        <v>50101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>50101003</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3">
+        <v>50101003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>50101004</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="3">
+        <v>50101004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>50101005</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="3">
+        <v>50101005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>502</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C36" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>50201</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C37" s="3">
+        <v>50201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>50201001</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="3">
+        <v>50201001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>502010010001</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3">
+        <v>502010010001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>502010010003</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="3">
+        <v>502010010003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>502010010005</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="3">
+        <v>502010010005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>502010010006</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="3">
+        <v>502010010006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>502010010007</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="3">
+        <v>502010010007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>502010010008</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="3">
+        <v>502010010008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>502010010009</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="3">
+        <v>502010010009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>502010010010</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3">
+        <v>502010010010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>502010010011</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="3">
+        <v>502010010011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>502010010012</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="3">
+        <v>502010010012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>502010010013</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="3">
+        <v>502010010013</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>50201002</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="3">
+        <v>50201002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>502010020003</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="3">
+        <v>502010020003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>502010020004</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="3">
+        <v>502010020004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>502010020005</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="3">
+        <v>502010020005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>50201003</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="3">
+        <v>50201003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>502010030002</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="3">
+        <v>502010030002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>502010030003</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="3">
+        <v>502010030003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>502010030004</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="3">
+        <v>502010030004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>50201004</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="3">
+        <v>50201004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>502010040001</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="3">
+        <v>502010040001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>50202</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>3644</v>
+      </c>
+      <c r="C60" s="3">
+        <v>50202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>50202001</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C61" s="3">
+        <v>50202001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>502020010001</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="3">
+        <v>502020010001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>50202002</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="3">
+        <v>50202002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>502020020001</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="3">
+        <v>502020020001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>502020020002</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="3">
+        <v>502020020002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>502020020003</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="3">
+        <v>502020020003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>503</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C67" s="3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>50301</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>3647</v>
+      </c>
+      <c r="C68" s="3">
+        <v>50301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>50301001</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="3">
+        <v>50301001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>503010010001</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="3">
+        <v>503010010001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>7</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C71" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>703</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>3649</v>
+      </c>
+      <c r="C72" s="3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>70301</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="3">
+        <v>70301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>70301001</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="3">
+        <v>70301001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>703010010002</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="3">
+        <v>703010010002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>703010010003</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="3">
+        <v>703010010003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>703010010004</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="3">
+        <v>703010010004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>703010010005</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="3">
+        <v>703010010005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>703010010006</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="3">
+        <v>703010010006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>703010010007</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="3">
+        <v>703010010007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>703010010010</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="3">
+        <v>703010010010</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>703010010013</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="3">
+        <v>703010010013</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>703010010014</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="3">
+        <v>703010010014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>70302</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="3">
+        <v>70302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>70302001</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="3">
+        <v>70302001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>703020010001</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="3">
+        <v>703020010001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>703020010004</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="3">
+        <v>703020010004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>703020010005</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="3">
+        <v>703020010005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>703020010007</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="3">
+        <v>703020010007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>703020010009</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="3">
+        <v>703020010009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>703020010011</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="3">
+        <v>703020010011</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>703020010014</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="3">
+        <v>703020010014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>703020010015</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C93" s="3">
+        <v>703020010015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>703020010016</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>3650</v>
+      </c>
+      <c r="C94" s="3">
+        <v>703020010016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>70302002</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="3">
+        <v>70302002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>703020020001</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="3">
+        <v>703020020001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>703020020002</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="3">
+        <v>703020020002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>70303</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="3">
+        <v>70303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>70303001</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="3">
+        <v>70303001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>703030010001</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="3">
+        <v>703030010001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>703030010002</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="3">
+        <v>703030010002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>703030010003</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="3">
+        <v>703030010003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>703030010004</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="3">
+        <v>703030010004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>70303002</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="3">
+        <v>70303002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>703030020001</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="3">
+        <v>703030020001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>703030020002</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="3">
+        <v>703030020002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>703030020003</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="3">
+        <v>703030020003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>703030020004</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="3">
+        <v>703030020004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>70303003</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="3">
+        <v>70303003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>703030030001</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="3">
+        <v>703030030001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>703030030002</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="3">
+        <v>703030030002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>70303004</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="3">
+        <v>70303004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>703030040001</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="3">
+        <v>703030040001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>703030040002</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" s="3">
+        <v>703030040002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>70304</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>3647</v>
+      </c>
+      <c r="C115" s="3">
+        <v>70304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>70304001</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="3">
+        <v>70304001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>703040010001</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="3">
+        <v>703040010001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>703040010002</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="3">
+        <v>703040010002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>70304002</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C119" s="3">
+        <v>70304002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>703040020001</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="3">
+        <v>703040020001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>703040020002</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="3">
+        <v>703040020002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>703040020003</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C122" s="3">
+        <v>703040020003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>704</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C123" s="3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>70402</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C124" s="3">
+        <v>70402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>70402001</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" s="3">
+        <v>70402001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>704020010001</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="3">
+        <v>704020010001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>704020010002</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" s="3">
+        <v>704020010002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>704020010003</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" s="3">
+        <v>704020010003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>704020010005</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" s="3">
+        <v>704020010005</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>704020010006</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130" s="3">
+        <v>704020010006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>70402002</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" s="3">
+        <v>70402002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>704020020003</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C132" s="3">
+        <v>704020020003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>704020020004</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" s="3">
+        <v>704020020004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>704020020005</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" s="3">
+        <v>704020020005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>70402003</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="3">
+        <v>70402003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>704020030001</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="3">
+        <v>704020030001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>70403</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>3647</v>
+      </c>
+      <c r="C137" s="3">
+        <v>70403</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>70403001</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" s="3">
+        <v>70403001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>704030010001</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" s="3">
+        <v>704030010001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>70403003</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C140" s="3">
+        <v>70403003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>704030030001</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="3">
+        <v>704030030001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>70403004</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="3">
+        <v>70403004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>704030040004</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" s="3">
+        <v>704030040004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>704030040006</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" s="3">
+        <v>704030040006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>704030040007</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" s="3">
+        <v>704030040007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>70403007</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C146" s="3">
+        <v>70403007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>704030070001</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C147" s="3">
+        <v>704030070001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>70403008</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C148" s="3">
+        <v>70403008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>704030080001</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C149" s="3">
+        <v>704030080001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>704030080002</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>3655</v>
+      </c>
+      <c r="C150" s="3">
+        <v>704030080002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>705</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C151" s="3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>70501</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C152" s="3">
+        <v>70501</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>70501001</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C153" s="3">
+        <v>70501001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>705010010001</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C154" s="3">
+        <v>705010010001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>70501002</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C155" s="3">
+        <v>70501002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>705010020001</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" s="3">
+        <v>705010020001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>705010020002</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157" s="3">
+        <v>705010020002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>705010020003</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" s="3">
+        <v>705010020003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>705010020004</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C159" s="3">
+        <v>705010020004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>705010020005</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" s="3">
+        <v>705010020005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>705010020006</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" s="3">
+        <v>705010020006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>705010020007</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" s="3">
+        <v>705010020007</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>705010020009</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" s="3">
+        <v>705010020009</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>705010020010</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C164" s="3">
+        <v>705010020010</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>705010020011</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165" s="3">
+        <v>705010020011</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>705010020012</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166" s="3">
+        <v>705010020012</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>70502</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C167" s="3">
+        <v>70502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>70502001</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C168" s="3">
+        <v>70502001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>705020010001</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="3">
+        <v>705020010001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>706</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C170" s="3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>70601</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C171" s="3">
+        <v>70601</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>70601001</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172" s="3">
+        <v>70601001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>706010010001</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173" s="3">
+        <v>706010010001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>706010010002</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174" s="3">
+        <v>706010010002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>706010010004</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" s="3">
+        <v>706010010004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>706010010005</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176" s="3">
+        <v>706010010005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>706010010007</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177" s="3">
+        <v>706010010007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>70601002</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178" s="3">
+        <v>70601002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>706010020001</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" s="3">
+        <v>706010020001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>706010020002</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" s="3">
+        <v>706010020002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>706010020003</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" s="3">
+        <v>706010020003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>706010020004</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182" s="3">
+        <v>706010020004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>706010020005</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183" s="3">
+        <v>706010020005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>70601003</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C184" s="3">
+        <v>70601003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>706010030001</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185" s="3">
+        <v>706010030001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>706010030002</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186" s="3">
+        <v>706010030002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>706010030003</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187" s="3">
+        <v>706010030003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>706010030004</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C188" s="3">
+        <v>706010030004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>707</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C189" s="3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>70701</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C190" s="3">
+        <v>70701</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>70701001</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C191" s="3">
+        <v>70701001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>707010010002</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C192" s="3">
+        <v>707010010002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>707010010003</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C193" s="3">
+        <v>707010010003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>707010010004</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C194" s="3">
+        <v>707010010004</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>707010010006</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C195" s="3">
+        <v>707010010006</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>707010010007</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C196" s="3">
+        <v>707010010007</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>707010010008</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C197" s="3">
+        <v>707010010008</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>707010010009</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C198" s="3">
+        <v>707010010009</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>707010010010</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" s="3">
+        <v>707010010010</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>707010010011</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="3">
+        <v>707010010011</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>707010010012</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="3">
+        <v>707010010012</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>707010010014</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C202" s="3">
+        <v>707010010014</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>707010010016</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C203" s="3">
+        <v>707010010016</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>707010010018</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C204" s="3">
+        <v>707010010018</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>707010010021</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" s="3">
+        <v>707010010021</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>70701002</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C206" s="3">
+        <v>70701002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>707010020001</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207" s="3">
+        <v>707010020001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>707010020002</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C208" s="3">
+        <v>707010020002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>707010020003</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C209" s="3">
+        <v>707010020003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>708</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C210" s="3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>70801</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C211" s="3">
+        <v>70801</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>70801001</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C212" s="3">
+        <v>70801001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>708010010001</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" s="3">
+        <v>708010010001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>708010010002</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="3">
+        <v>708010010002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>708010010003</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="3">
+        <v>708010010003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>708010010004</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="3">
+        <v>708010010004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>708010010005</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="3">
+        <v>708010010005</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>708010010006</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" s="3">
+        <v>708010010006</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>708010010007</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="3">
+        <v>708010010007</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>708010010008</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="3">
+        <v>708010010008</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>708010010009</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="3">
+        <v>708010010009</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>708010010010</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="3">
+        <v>708010010010</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>708010010011</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" s="3">
+        <v>708010010011</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>708010010012</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" s="3">
+        <v>708010010012</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>708010010013</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="3">
+        <v>708010010013</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>708010010014</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" s="3">
+        <v>708010010014</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>708010010015</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="3">
+        <v>708010010015</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>708010010016</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" s="3">
+        <v>708010010016</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>708010010017</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C229" s="3">
+        <v>708010010017</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>708010010018</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C230" s="3">
+        <v>708010010018</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
+        <v>708010010019</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" s="3">
+        <v>708010010019</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <v>708010010020</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" s="3">
+        <v>708010010020</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>708010010021</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" s="3">
+        <v>708010010021</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>708010010022</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C234" s="3">
+        <v>708010010022</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>708010010023</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="3">
+        <v>708010010023</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>708010010024</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C236" s="3">
+        <v>708010010024</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>708010010025</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C237" s="3">
+        <v>708010010025</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>708010010026</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238" s="3">
+        <v>708010010026</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>708010010027</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C239" s="3">
+        <v>708010010027</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>708010010028</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240" s="3">
+        <v>708010010028</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>708010010029</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C241" s="3">
+        <v>708010010029</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>708010010030</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C242" s="3">
+        <v>708010010030</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>708010010031</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C243" s="3">
+        <v>708010010031</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>708010010032</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C244" s="3">
+        <v>708010010032</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>708010010033</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245" s="3">
+        <v>708010010033</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>708010010034</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C246" s="3">
+        <v>708010010034</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>708010010035</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C247" s="3">
+        <v>708010010035</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>708010010036</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C248" s="3">
+        <v>708010010036</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>708010010038</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C249" s="3">
+        <v>708010010038</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>708010010039</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C250" s="3">
+        <v>708010010039</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <v>708010010040</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" s="3">
+        <v>708010010040</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>708010010041</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C252" s="3">
+        <v>708010010041</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>708010010042</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C253" s="3">
+        <v>708010010042</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>708010010043</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C254" s="3">
+        <v>708010010043</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>708010010044</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C255" s="3">
+        <v>708010010044</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>708010010045</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C256" s="3">
+        <v>708010010045</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <v>708010010046</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C257" s="3">
+        <v>708010010046</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>708010010047</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C258" s="3">
+        <v>708010010047</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>708010010048</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C259" s="3">
+        <v>708010010048</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>708010010049</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C260" s="3">
+        <v>708010010049</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>70801002</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C261" s="3">
+        <v>70801002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>708010020001</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C262" s="3">
+        <v>708010020001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>709</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C263" s="3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>70901</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C264" s="3">
+        <v>70901</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>70902</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C265" s="3">
+        <v>70902</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>70903</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C266" s="3">
+        <v>70903</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>70904</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C267" s="3">
+        <v>70904</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>70905</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C268" s="3">
+        <v>70905</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>710</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C269" s="3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>71004</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C270" s="3">
+        <v>71004</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>71004001</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C271" s="3">
+        <v>71004001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>71004002</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C272" s="3">
+        <v>71004002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>71004003</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C273" s="3">
+        <v>71004003</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B237" r:id="rId1" display="http://make.com/" xr:uid="{74EDE897-4145-2642-8AB6-56FBEA13F0A9}"/>
+    <hyperlink ref="B247" r:id="rId2" display="http://pitch.com/" xr:uid="{73299066-A8CC-2F4A-9F54-7CF79F500FB7}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71126191-1889-3E4A-9EEA-0CDE4EC75987}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16674,7 +20578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF71CD7-00AE-F745-B3B7-FD39D4527EBD}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:D1"/>
@@ -16718,7 +20622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEA2B1-756F-1A45-B5B3-B7537A71E781}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:I49"/>
@@ -17252,7 +21156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1F97CA-5E51-B84B-BA27-DC36D746EAE7}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:D3011"/>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36d52013077c0d4/Área de Trabalho/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{997A3B65-4A65-8744-88F6-119A0CEFA14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52770DFA-4A96-47B6-84E7-A4C309A1DB6B}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{997A3B65-4A65-8744-88F6-119A0CEFA14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C88B97F-9422-4BE0-8C17-141C7B97CF5C}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4785" windowWidth="29040" windowHeight="15720" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">book!$A$1:$I$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$K$242</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">conciliations!$A$1:$D$5187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha1!$A$1:$D$3002</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12177" uniqueCount="3280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14215" uniqueCount="3798">
   <si>
     <t>projeto</t>
   </si>
@@ -9885,13 +9885,1567 @@
   </si>
   <si>
     <t>categoriacustoreceita</t>
+  </si>
+  <si>
+    <t>produto</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Custos Operacionais</t>
+  </si>
+  <si>
+    <t>Api</t>
+  </si>
+  <si>
+    <t>Api - Twitter</t>
+  </si>
+  <si>
+    <t>708010020001</t>
+  </si>
+  <si>
+    <t>Software - Pinata</t>
+  </si>
+  <si>
+    <t>708010010033</t>
+  </si>
+  <si>
+    <t>Software - Pipedrive</t>
+  </si>
+  <si>
+    <t>708010010034</t>
+  </si>
+  <si>
+    <t>Software - Pitch.Com</t>
+  </si>
+  <si>
+    <t>708010010035</t>
+  </si>
+  <si>
+    <t>Software - Postman</t>
+  </si>
+  <si>
+    <t>708010010042</t>
+  </si>
+  <si>
+    <t>Software - Slack</t>
+  </si>
+  <si>
+    <t>708010010036</t>
+  </si>
+  <si>
+    <t>Software - Tweetshift</t>
+  </si>
+  <si>
+    <t>708010010038</t>
+  </si>
+  <si>
+    <t>Software - Webflow</t>
+  </si>
+  <si>
+    <t>708010010039</t>
+  </si>
+  <si>
+    <t>Software - Zeplin</t>
+  </si>
+  <si>
+    <t>708010010040</t>
+  </si>
+  <si>
+    <t>Software - Docusign</t>
+  </si>
+  <si>
+    <t>708010010048</t>
+  </si>
+  <si>
+    <t>Software - 1password</t>
+  </si>
+  <si>
+    <t>708010010047</t>
+  </si>
+  <si>
+    <t>Software - Clickup</t>
+  </si>
+  <si>
+    <t>708010010009</t>
+  </si>
+  <si>
+    <t>Software - Moralis</t>
+  </si>
+  <si>
+    <t>708010010045</t>
+  </si>
+  <si>
+    <t>Software - Retool</t>
+  </si>
+  <si>
+    <t>708010010049</t>
+  </si>
+  <si>
+    <t>Receita Operacional</t>
+  </si>
+  <si>
+    <t>Receita</t>
+  </si>
+  <si>
+    <t>Venda Secundária</t>
+  </si>
+  <si>
+    <t>0x44188803</t>
+  </si>
+  <si>
+    <t>Venda Primária</t>
+  </si>
+  <si>
+    <t>0x3e18e33f</t>
+  </si>
+  <si>
+    <t>Licenciação Plataforma</t>
+  </si>
+  <si>
+    <t>Utilização Plataforma - Whale Together</t>
+  </si>
+  <si>
+    <t>502020010001</t>
+  </si>
+  <si>
+    <t>Consultoria</t>
+  </si>
+  <si>
+    <t>Consultoria - Guaraná Antartica</t>
+  </si>
+  <si>
+    <t>Guaraná Antartica</t>
+  </si>
+  <si>
+    <t>502010040001</t>
+  </si>
+  <si>
+    <t>Manutenção</t>
+  </si>
+  <si>
+    <t>Manutenção - Dux</t>
+  </si>
+  <si>
+    <t>Dux</t>
+  </si>
+  <si>
+    <t>502020020003</t>
+  </si>
+  <si>
+    <t>Manutenção - Fitdance</t>
+  </si>
+  <si>
+    <t>Fitdance</t>
+  </si>
+  <si>
+    <t>502020020002</t>
+  </si>
+  <si>
+    <t>Manutenção - Vex</t>
+  </si>
+  <si>
+    <t>Vex</t>
+  </si>
+  <si>
+    <t>502020020001</t>
+  </si>
+  <si>
+    <t>Receita Setup Fee</t>
+  </si>
+  <si>
+    <t>Setupfee - Ambev</t>
+  </si>
+  <si>
+    <t>Beats</t>
+  </si>
+  <si>
+    <t>502010010001</t>
+  </si>
+  <si>
+    <t>Setupfee - Beats</t>
+  </si>
+  <si>
+    <t>502010010012</t>
+  </si>
+  <si>
+    <t>Setupfee - Coca Cola</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>502010010003</t>
+  </si>
+  <si>
+    <t>Setupfee - Fitdance</t>
+  </si>
+  <si>
+    <t>502010010005</t>
+  </si>
+  <si>
+    <t>Setupfee - Guaraná Antartica</t>
+  </si>
+  <si>
+    <t>502010010006</t>
+  </si>
+  <si>
+    <t>Setupfee - Los Grandes</t>
+  </si>
+  <si>
+    <t>Los Grandes</t>
+  </si>
+  <si>
+    <t>502010010011</t>
+  </si>
+  <si>
+    <t>Setupfee - Mynt</t>
+  </si>
+  <si>
+    <t>502010010007</t>
+  </si>
+  <si>
+    <t>Setupfee - Nestle</t>
+  </si>
+  <si>
+    <t>Nestle</t>
+  </si>
+  <si>
+    <t>502010010013</t>
+  </si>
+  <si>
+    <t>Setupfee - Penta Hotels</t>
+  </si>
+  <si>
+    <t>502010010008</t>
+  </si>
+  <si>
+    <t>Setupfee - Reserva X</t>
+  </si>
+  <si>
+    <t>Reserva X</t>
+  </si>
+  <si>
+    <t>502010010009</t>
+  </si>
+  <si>
+    <t>Setupfee - Sato</t>
+  </si>
+  <si>
+    <t>Sato</t>
+  </si>
+  <si>
+    <t>502010010010</t>
+  </si>
+  <si>
+    <t>Venda Primária - 55unity</t>
+  </si>
+  <si>
+    <t>502010020003</t>
+  </si>
+  <si>
+    <t>Venda Primária - Reservax</t>
+  </si>
+  <si>
+    <t>502010020004</t>
+  </si>
+  <si>
+    <t>Venda Primária - Seamore</t>
+  </si>
+  <si>
+    <t>502010020005</t>
+  </si>
+  <si>
+    <t>Venda Secundária - 55unity</t>
+  </si>
+  <si>
+    <t>502010030002</t>
+  </si>
+  <si>
+    <t>Venda Secundária - Reservax</t>
+  </si>
+  <si>
+    <t>502010030003</t>
+  </si>
+  <si>
+    <t>Venda Secundária - Seamore</t>
+  </si>
+  <si>
+    <t>502010030004</t>
+  </si>
+  <si>
+    <t>Receita Financeira</t>
+  </si>
+  <si>
+    <t>Variação Monetária</t>
+  </si>
+  <si>
+    <t>Rentabilidade Conta Corrente</t>
+  </si>
+  <si>
+    <t>Investimentos</t>
+  </si>
+  <si>
+    <t>50101005</t>
+  </si>
+  <si>
+    <t>50101004</t>
+  </si>
+  <si>
+    <t>Pessoal</t>
+  </si>
+  <si>
+    <t>Despesas com Pessoal</t>
+  </si>
+  <si>
+    <t>Bônus</t>
+  </si>
+  <si>
+    <t>50101003</t>
+  </si>
+  <si>
+    <t>Prestação de Serviços</t>
+  </si>
+  <si>
+    <t>706010010005</t>
+  </si>
+  <si>
+    <t>Impostos</t>
+  </si>
+  <si>
+    <t>Imposto Pessoal</t>
+  </si>
+  <si>
+    <t>Imposto - Inss</t>
+  </si>
+  <si>
+    <t>707010010014</t>
+  </si>
+  <si>
+    <t>Imposto - Irrf</t>
+  </si>
+  <si>
+    <t>707010010016</t>
+  </si>
+  <si>
+    <t>Imposto - Contribuição</t>
+  </si>
+  <si>
+    <t>707010010002</t>
+  </si>
+  <si>
+    <t>Imposto - Contribuição Patronal</t>
+  </si>
+  <si>
+    <t>707010010003</t>
+  </si>
+  <si>
+    <t>Imposto - Contribuição Social</t>
+  </si>
+  <si>
+    <t>707010010004</t>
+  </si>
+  <si>
+    <t>Antecipação de Dividendo</t>
+  </si>
+  <si>
+    <t>706010010001</t>
+  </si>
+  <si>
+    <t>Bolsa Auxílio Estágio</t>
+  </si>
+  <si>
+    <t>706010010002</t>
+  </si>
+  <si>
+    <t>Serviços Pontuais</t>
+  </si>
+  <si>
+    <t>Convênio Estágio</t>
+  </si>
+  <si>
+    <t>706010020005</t>
+  </si>
+  <si>
+    <t>Fiverr</t>
+  </si>
+  <si>
+    <t>706010020001</t>
+  </si>
+  <si>
+    <t>Free-Lancer</t>
+  </si>
+  <si>
+    <t>706010010004</t>
+  </si>
+  <si>
+    <t>Ilustração</t>
+  </si>
+  <si>
+    <t>706010020002</t>
+  </si>
+  <si>
+    <t>Pró-Labore</t>
+  </si>
+  <si>
+    <t>706010010007</t>
+  </si>
+  <si>
+    <t>70601002</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Vale Alimentação</t>
+  </si>
+  <si>
+    <t>706010030002</t>
+  </si>
+  <si>
+    <t>Web Design</t>
+  </si>
+  <si>
+    <t>706010020004</t>
+  </si>
+  <si>
+    <t>Comemorações</t>
+  </si>
+  <si>
+    <t>706010030003</t>
+  </si>
+  <si>
+    <t>Parcelamento tributário</t>
+  </si>
+  <si>
+    <t>Outros impostos</t>
+  </si>
+  <si>
+    <t>Imposto - Parcelamento Tributário</t>
+  </si>
+  <si>
+    <t>707010010018</t>
+  </si>
+  <si>
+    <t>Parceiros/Fornecedores</t>
+  </si>
+  <si>
+    <t>Finder Fee</t>
+  </si>
+  <si>
+    <t>Finder Fee - Penta Hotels</t>
+  </si>
+  <si>
+    <t>705010010001</t>
+  </si>
+  <si>
+    <t>Fornecedores</t>
+  </si>
+  <si>
+    <t>Fornecedor - Artista Mynt</t>
+  </si>
+  <si>
+    <t>705010020004</t>
+  </si>
+  <si>
+    <t>Fornecedor - Artista Seamore</t>
+  </si>
+  <si>
+    <t>Fornecedor - Artista 55unity</t>
+  </si>
+  <si>
+    <t>705010020002</t>
+  </si>
+  <si>
+    <t>Parceiros</t>
+  </si>
+  <si>
+    <t>Parceiro - Little Devil</t>
+  </si>
+  <si>
+    <t>705020010001</t>
+  </si>
+  <si>
+    <t>Fornecedor - Alex Ramos</t>
+  </si>
+  <si>
+    <t>705010020001</t>
+  </si>
+  <si>
+    <t>Fornecedor - Artista Beats</t>
+  </si>
+  <si>
+    <t>705010020003</t>
+  </si>
+  <si>
+    <t>Fornecedor - Definitive</t>
+  </si>
+  <si>
+    <t>705010020005</t>
+  </si>
+  <si>
+    <t>Fornecedor - Denis Paganini</t>
+  </si>
+  <si>
+    <t>705010020006</t>
+  </si>
+  <si>
+    <t>Fornecedor - Jéssica Monteiro</t>
+  </si>
+  <si>
+    <t>705010020007</t>
+  </si>
+  <si>
+    <t>Fornecedor - Olga Bon</t>
+  </si>
+  <si>
+    <t>705010020009</t>
+  </si>
+  <si>
+    <t>Fornecedor - Venly</t>
+  </si>
+  <si>
+    <t>Lumx Protocol</t>
+  </si>
+  <si>
+    <t>705010020010</t>
+  </si>
+  <si>
+    <t>Fornecedor - Vtex</t>
+  </si>
+  <si>
+    <t>705010020011</t>
+  </si>
+  <si>
+    <t>Fornecedor - Werley Maer</t>
+  </si>
+  <si>
+    <t>705010020012</t>
+  </si>
+  <si>
+    <t>Custos Administrativos</t>
+  </si>
+  <si>
+    <t>Reembolso</t>
+  </si>
+  <si>
+    <t>704030040007</t>
+  </si>
+  <si>
+    <t>Provisionamento - Custos Extras</t>
+  </si>
+  <si>
+    <t>70904</t>
+  </si>
+  <si>
+    <t>Melhor Envio</t>
+  </si>
+  <si>
+    <t>706010030004</t>
+  </si>
+  <si>
+    <t>Compensação Carbono</t>
+  </si>
+  <si>
+    <t>Compensação por Emissão de Carbono</t>
+  </si>
+  <si>
+    <t>704030010001</t>
+  </si>
+  <si>
+    <t>Corrigir</t>
+  </si>
+  <si>
+    <t>704030040004</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Seguros - Societário</t>
+  </si>
+  <si>
+    <t>704030070001</t>
+  </si>
+  <si>
+    <t>Serasa</t>
+  </si>
+  <si>
+    <t>704030040006</t>
+  </si>
+  <si>
+    <t>Material de Uso e Consumo</t>
+  </si>
+  <si>
+    <t>Máquinas e Equipamentos</t>
+  </si>
+  <si>
+    <t>704020020003</t>
+  </si>
+  <si>
+    <t>704020020004</t>
+  </si>
+  <si>
+    <t>Mobília</t>
+  </si>
+  <si>
+    <t>704020020005</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Despesa de Marketing</t>
+  </si>
+  <si>
+    <t>70403004</t>
+  </si>
+  <si>
+    <t>Provisionamento - Marketing</t>
+  </si>
+  <si>
+    <t>70903</t>
+  </si>
+  <si>
+    <t>Assessoria de Imprensa</t>
+  </si>
+  <si>
+    <t>703020010001</t>
+  </si>
+  <si>
+    <t>Fontes</t>
+  </si>
+  <si>
+    <t>703020010004</t>
+  </si>
+  <si>
+    <t>Gleam Io</t>
+  </si>
+  <si>
+    <t>703020010005</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>703020010007</t>
+  </si>
+  <si>
+    <t>Tráfego Pago</t>
+  </si>
+  <si>
+    <t>Mail Marketing</t>
+  </si>
+  <si>
+    <t>703020010015</t>
+  </si>
+  <si>
+    <t>Meta Ads</t>
+  </si>
+  <si>
+    <t>703020020001</t>
+  </si>
+  <si>
+    <t>Mlabs</t>
+  </si>
+  <si>
+    <t>703020010009</t>
+  </si>
+  <si>
+    <t>Roupas</t>
+  </si>
+  <si>
+    <t>703020010011</t>
+  </si>
+  <si>
+    <t>Twitter Ads</t>
+  </si>
+  <si>
+    <t>703020020002</t>
+  </si>
+  <si>
+    <t>Web Summit</t>
+  </si>
+  <si>
+    <t>703020010014</t>
+  </si>
+  <si>
+    <t>Jurídico</t>
+  </si>
+  <si>
+    <t>Provisionamento - Juridico</t>
+  </si>
+  <si>
+    <t>Provisionamento - Jurídico</t>
+  </si>
+  <si>
+    <t>70905</t>
+  </si>
+  <si>
+    <t>Seed - Brz</t>
+  </si>
+  <si>
+    <t>703040020002</t>
+  </si>
+  <si>
+    <t>Seed - Despachante</t>
+  </si>
+  <si>
+    <t>703040020001</t>
+  </si>
+  <si>
+    <t>Seed - Lima &amp; Feigelson</t>
+  </si>
+  <si>
+    <t>703040020003</t>
+  </si>
+  <si>
+    <t>Assessoria Jurídica</t>
+  </si>
+  <si>
+    <t>703030020001</t>
+  </si>
+  <si>
+    <t>Cartório</t>
+  </si>
+  <si>
+    <t>703030020002</t>
+  </si>
+  <si>
+    <t>Corporate/Societário</t>
+  </si>
+  <si>
+    <t>Corporate - Lima &amp; Feigelson</t>
+  </si>
+  <si>
+    <t>703030010001</t>
+  </si>
+  <si>
+    <t>Despesas Contratuais</t>
+  </si>
+  <si>
+    <t>703030020003</t>
+  </si>
+  <si>
+    <t>Faria Cendão e Maia</t>
+  </si>
+  <si>
+    <t>703030020004</t>
+  </si>
+  <si>
+    <t>Lgpd</t>
+  </si>
+  <si>
+    <t>Lgpd - Serviço</t>
+  </si>
+  <si>
+    <t>703030030001</t>
+  </si>
+  <si>
+    <t>Lgpd - Taxas</t>
+  </si>
+  <si>
+    <t>703030030002</t>
+  </si>
+  <si>
+    <t>Propriedade Intelectual</t>
+  </si>
+  <si>
+    <t>Propriedade Intelectual - Serviços</t>
+  </si>
+  <si>
+    <t>703030040001</t>
+  </si>
+  <si>
+    <t>Propriedade Intelectual - Taxas</t>
+  </si>
+  <si>
+    <t>703030040002</t>
+  </si>
+  <si>
+    <t>Societário - Alteração Contrato Social</t>
+  </si>
+  <si>
+    <t>703030010002</t>
+  </si>
+  <si>
+    <t>Societário - Outros</t>
+  </si>
+  <si>
+    <t>703030010003</t>
+  </si>
+  <si>
+    <t>Investimento</t>
+  </si>
+  <si>
+    <t>Subscrição de Investimento</t>
+  </si>
+  <si>
+    <t>Aporte</t>
+  </si>
+  <si>
+    <t>Mútuo Conversível</t>
+  </si>
+  <si>
+    <t>401010010004</t>
+  </si>
+  <si>
+    <t>Aporte Pre-Seed</t>
+  </si>
+  <si>
+    <t>401010010002</t>
+  </si>
+  <si>
+    <t>Integralização de Capital</t>
+  </si>
+  <si>
+    <t>401010010003</t>
+  </si>
+  <si>
+    <t>Impostos e Taxas</t>
+  </si>
+  <si>
+    <t>Imposto Receita</t>
+  </si>
+  <si>
+    <t>Imposto - Cofins</t>
+  </si>
+  <si>
+    <t>707010010008</t>
+  </si>
+  <si>
+    <t>Imposto - Csll</t>
+  </si>
+  <si>
+    <t>707010010009</t>
+  </si>
+  <si>
+    <t>Imposto - Darf</t>
+  </si>
+  <si>
+    <t>707010010007</t>
+  </si>
+  <si>
+    <t>Imposto Faturamento</t>
+  </si>
+  <si>
+    <t>Imposto - Irpj</t>
+  </si>
+  <si>
+    <t>707010010010</t>
+  </si>
+  <si>
+    <t>Imposto - Iss</t>
+  </si>
+  <si>
+    <t>707010010011</t>
+  </si>
+  <si>
+    <t>Imposto - Pis</t>
+  </si>
+  <si>
+    <t>707010010012</t>
+  </si>
+  <si>
+    <t>Imposto - Retenções</t>
+  </si>
+  <si>
+    <t>707010010021</t>
+  </si>
+  <si>
+    <t>Taxas Bancárias</t>
+  </si>
+  <si>
+    <t>Taxa - Bancária</t>
+  </si>
+  <si>
+    <t>707010020001</t>
+  </si>
+  <si>
+    <t>Taxas Compras</t>
+  </si>
+  <si>
+    <t>Taxa - Iof</t>
+  </si>
+  <si>
+    <t>707010020002</t>
+  </si>
+  <si>
+    <t>Taxas Diversas</t>
+  </si>
+  <si>
+    <t>Taxa - Outros</t>
+  </si>
+  <si>
+    <t>707010020003</t>
+  </si>
+  <si>
+    <t>Escritório</t>
+  </si>
+  <si>
+    <t>Despesas de Escritório</t>
+  </si>
+  <si>
+    <t>Aluguel</t>
+  </si>
+  <si>
+    <t>704020010001</t>
+  </si>
+  <si>
+    <t>Condomínio</t>
+  </si>
+  <si>
+    <t>704020010002</t>
+  </si>
+  <si>
+    <t>Energia Elétrica</t>
+  </si>
+  <si>
+    <t>704020010003</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>704020010005</t>
+  </si>
+  <si>
+    <t>Limpeza e Manutenção</t>
+  </si>
+  <si>
+    <t>704020010006</t>
+  </si>
+  <si>
+    <t>Obras</t>
+  </si>
+  <si>
+    <t>Reforma</t>
+  </si>
+  <si>
+    <t>704020030001</t>
+  </si>
+  <si>
+    <t>Custos na Blockchain</t>
+  </si>
+  <si>
+    <t>Contratos</t>
+  </si>
+  <si>
+    <t>Config. endereço IPFS NFTs pre reveal</t>
+  </si>
+  <si>
+    <t>0xfe2c7fee</t>
+  </si>
+  <si>
+    <t>Config. máximo de compras na public sale</t>
+  </si>
+  <si>
+    <t>0xfbdb8494</t>
+  </si>
+  <si>
+    <t>Blockchain</t>
+  </si>
+  <si>
+    <t>Serviços pontuais</t>
+  </si>
+  <si>
+    <t>0xf7a16963</t>
+  </si>
+  <si>
+    <t>0xf6de979d</t>
+  </si>
+  <si>
+    <t>Config. máximo de endereços</t>
+  </si>
+  <si>
+    <t>Alterar dono do contrato</t>
+  </si>
+  <si>
+    <t>NFTs</t>
+  </si>
+  <si>
+    <t>Envio de NFTs</t>
+  </si>
+  <si>
+    <t>0xe23d2ffa</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Config. máximo de NTFs no contrato</t>
+  </si>
+  <si>
+    <t>Compra de NFTs em lote</t>
+  </si>
+  <si>
+    <t>0xb88d4fde</t>
+  </si>
+  <si>
+    <t>Alterar nome do contrato</t>
+  </si>
+  <si>
+    <t>Aprovar transação</t>
+  </si>
+  <si>
+    <t>0xa9059cbb</t>
+  </si>
+  <si>
+    <t>Saque</t>
+  </si>
+  <si>
+    <t>0xa22cb465</t>
+  </si>
+  <si>
+    <t>Transação crypto</t>
+  </si>
+  <si>
+    <t>0x9b642de1</t>
+  </si>
+  <si>
+    <t>Liberar endereço para TR de NFT</t>
+  </si>
+  <si>
+    <t>0x96d66de0</t>
+  </si>
+  <si>
+    <t>Config. endereço IPFS NFTs after reveal</t>
+  </si>
+  <si>
+    <t>0x94bf804d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mint de NFT </t>
+  </si>
+  <si>
+    <t>0x9229cd50</t>
+  </si>
+  <si>
+    <t>0x914e126a</t>
+  </si>
+  <si>
+    <t>Mint claim 2</t>
+  </si>
+  <si>
+    <t>0x8b9e4f93</t>
+  </si>
+  <si>
+    <t>Resgate de NFTs</t>
+  </si>
+  <si>
+    <t>0x803f01ca</t>
+  </si>
+  <si>
+    <t>Bridge ERC-20</t>
+  </si>
+  <si>
+    <t>0x79fc46c0</t>
+  </si>
+  <si>
+    <t>0x6f8b44b0</t>
+  </si>
+  <si>
+    <t>Config. endereço contrato</t>
+  </si>
+  <si>
+    <t>0x6b6af26d</t>
+  </si>
+  <si>
+    <t>0x5a5e5d58</t>
+  </si>
+  <si>
+    <t>Mint claim 3</t>
+  </si>
+  <si>
+    <t>Safe</t>
+  </si>
+  <si>
+    <t>Executar transação</t>
+  </si>
+  <si>
+    <t>0x4f1e9d3c</t>
+  </si>
+  <si>
+    <t>0x2d6dc943</t>
+  </si>
+  <si>
+    <t>Software - Loom</t>
+  </si>
+  <si>
+    <t>708010010023</t>
+  </si>
+  <si>
+    <t>Software - Magic Labs</t>
+  </si>
+  <si>
+    <t>708010010024</t>
+  </si>
+  <si>
+    <t>Software - Make.Com</t>
+  </si>
+  <si>
+    <t>708010010025</t>
+  </si>
+  <si>
+    <t>Software - Maze</t>
+  </si>
+  <si>
+    <t>708010010044</t>
+  </si>
+  <si>
+    <t>Software - Metabase</t>
+  </si>
+  <si>
+    <t>708010010026</t>
+  </si>
+  <si>
+    <t>Software - Mongo Db</t>
+  </si>
+  <si>
+    <t>708010010027</t>
+  </si>
+  <si>
+    <t>Software - Notion</t>
+  </si>
+  <si>
+    <t>708010010028</t>
+  </si>
+  <si>
+    <t>Software - Npm Inc</t>
+  </si>
+  <si>
+    <t>708010010029</t>
+  </si>
+  <si>
+    <t>Software - Office</t>
+  </si>
+  <si>
+    <t>708010010030</t>
+  </si>
+  <si>
+    <t>Software - Pacote Office</t>
+  </si>
+  <si>
+    <t>708010010032</t>
+  </si>
+  <si>
+    <t>Config. janela de compra Owner Originais</t>
+  </si>
+  <si>
+    <t>0x291168ab</t>
+  </si>
+  <si>
+    <t>0x38524a10</t>
+  </si>
+  <si>
+    <t>0x27d523ef</t>
+  </si>
+  <si>
+    <t>0x37da577c</t>
+  </si>
+  <si>
+    <t>0x27a81180</t>
+  </si>
+  <si>
+    <t>Alterar royalties secundários</t>
+  </si>
+  <si>
+    <t>0x3755fa80</t>
+  </si>
+  <si>
+    <t>0x23b872dd</t>
+  </si>
+  <si>
+    <t>0x142</t>
+  </si>
+  <si>
+    <t>Compra de NFTs</t>
+  </si>
+  <si>
+    <t>0x095ea7b39</t>
+  </si>
+  <si>
+    <t>0x095ea7b3</t>
+  </si>
+  <si>
+    <t>0x050225ea</t>
+  </si>
+  <si>
+    <t>Pausa no contrato</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>Loja 55Unity</t>
+  </si>
+  <si>
+    <t>Provisionamento - Blockchain</t>
+  </si>
+  <si>
+    <t>70901</t>
+  </si>
+  <si>
+    <t>Custódia</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Custódia - Conexões Games</t>
+  </si>
+  <si>
+    <t>201010010001</t>
+  </si>
+  <si>
+    <t>Custódia - Little Devil</t>
+  </si>
+  <si>
+    <t>201010020001</t>
+  </si>
+  <si>
+    <t>Contabilidade</t>
+  </si>
+  <si>
+    <t>Contabilidade - Extras</t>
+  </si>
+  <si>
+    <t>703040010002</t>
+  </si>
+  <si>
+    <t>Contabilidade - Serviço</t>
+  </si>
+  <si>
+    <t>703040010001</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Despesa Comercial</t>
+  </si>
+  <si>
+    <t>Outras</t>
+  </si>
+  <si>
+    <t>Provisionamento - Comercial</t>
+  </si>
+  <si>
+    <t>70902</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>703010010002</t>
+  </si>
+  <si>
+    <t>Avião</t>
+  </si>
+  <si>
+    <t>703010010003</t>
+  </si>
+  <si>
+    <t>70301</t>
+  </si>
+  <si>
+    <t>Estacionamento</t>
+  </si>
+  <si>
+    <t>703010010005</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>703010010006</t>
+  </si>
+  <si>
+    <t>Hospedagem</t>
+  </si>
+  <si>
+    <t>703010010007</t>
+  </si>
+  <si>
+    <t>Ônibus</t>
+  </si>
+  <si>
+    <t>703010010014</t>
+  </si>
+  <si>
+    <t>Pedágio</t>
+  </si>
+  <si>
+    <t>703010010010</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>703010010013</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>71004002</t>
+  </si>
+  <si>
+    <t>71004003</t>
+  </si>
+  <si>
+    <t>703020010016</t>
+  </si>
+  <si>
+    <t>Receita Desconhecida</t>
+  </si>
+  <si>
+    <t>503010010001</t>
+  </si>
+  <si>
+    <t>Software - 650 Industries (Expo)</t>
+  </si>
+  <si>
+    <t>708010010001</t>
+  </si>
+  <si>
+    <t>Software - Adobe</t>
+  </si>
+  <si>
+    <t>708010010002</t>
+  </si>
+  <si>
+    <t>Software - Alchemy</t>
+  </si>
+  <si>
+    <t>708010010003</t>
+  </si>
+  <si>
+    <t>Software - Amazon Web Service</t>
+  </si>
+  <si>
+    <t>708010010004</t>
+  </si>
+  <si>
+    <t>Software - Apple Store</t>
+  </si>
+  <si>
+    <t>708010010005</t>
+  </si>
+  <si>
+    <t>Software - Bot Discord</t>
+  </si>
+  <si>
+    <t>708010010006</t>
+  </si>
+  <si>
+    <t>Software - Calendly</t>
+  </si>
+  <si>
+    <t>708010010007</t>
+  </si>
+  <si>
+    <t>Software - Clicksign</t>
+  </si>
+  <si>
+    <t>708010010008</t>
+  </si>
+  <si>
+    <t>Software - Docsend</t>
+  </si>
+  <si>
+    <t>708010010010</t>
+  </si>
+  <si>
+    <t>Software - Envato</t>
+  </si>
+  <si>
+    <t>708010010011</t>
+  </si>
+  <si>
+    <t>Software - Erp</t>
+  </si>
+  <si>
+    <t>708010010012</t>
+  </si>
+  <si>
+    <t>Software - Figma</t>
+  </si>
+  <si>
+    <t>708010010013</t>
+  </si>
+  <si>
+    <t>Software - Font Awesome Pro</t>
+  </si>
+  <si>
+    <t>708010010014</t>
+  </si>
+  <si>
+    <t>Software - Freepik</t>
+  </si>
+  <si>
+    <t>708010010015</t>
+  </si>
+  <si>
+    <t>Software - Gitbook</t>
+  </si>
+  <si>
+    <t>708010010016</t>
+  </si>
+  <si>
+    <t>Software - Midjourney</t>
+  </si>
+  <si>
+    <t>708010010046</t>
+  </si>
+  <si>
+    <t>Software - Go Daddy</t>
+  </si>
+  <si>
+    <t>708010010017</t>
+  </si>
+  <si>
+    <t>Software - Google Gsuite</t>
+  </si>
+  <si>
+    <t>708010010018</t>
+  </si>
+  <si>
+    <t>Software - Google Pay</t>
+  </si>
+  <si>
+    <t>708010010019</t>
+  </si>
+  <si>
+    <t>Software - Icy Tools</t>
+  </si>
+  <si>
+    <t>708010010020</t>
+  </si>
+  <si>
+    <t>Software - Intercom</t>
+  </si>
+  <si>
+    <t>708010010021</t>
+  </si>
+  <si>
+    <t>Software - Jira</t>
+  </si>
+  <si>
+    <t>708010010041</t>
+  </si>
+  <si>
+    <t>71004001</t>
+  </si>
+  <si>
+    <t>Software - Kamino</t>
+  </si>
+  <si>
+    <t>708010010043</t>
+  </si>
+  <si>
+    <t>Software - Kinvo</t>
+  </si>
+  <si>
+    <t>708010010022</t>
+  </si>
+  <si>
+    <t>Software - Koinly</t>
+  </si>
+  <si>
+    <t>708010010031</t>
+  </si>
+  <si>
+    <t>Imposto - Csrf</t>
+  </si>
+  <si>
+    <t>707010010006</t>
+  </si>
+  <si>
+    <t>Transferências</t>
+  </si>
+  <si>
+    <t>704030080001</t>
+  </si>
+  <si>
+    <t>Societário - Taxas</t>
+  </si>
+  <si>
+    <t>703030010004</t>
+  </si>
+  <si>
+    <t>0x4c261247</t>
+  </si>
+  <si>
+    <t>Mint NFT public sale</t>
+  </si>
+  <si>
+    <t>0x42842e0e</t>
+  </si>
+  <si>
+    <t>0x405ebd4d</t>
+  </si>
+  <si>
+    <t>Mint claim 1</t>
+  </si>
+  <si>
+    <t>0x400839ad</t>
+  </si>
+  <si>
+    <t>Mudar link NFTs</t>
+  </si>
+  <si>
+    <t>Mint Pré Lançamento</t>
+  </si>
+  <si>
+    <t>0x3ccfd60b</t>
+  </si>
+  <si>
+    <t>Config. gerais</t>
+  </si>
+  <si>
+    <t>Config. Novo preço mint</t>
+  </si>
+  <si>
+    <t>Mint de NFT pre sale whitelist</t>
+  </si>
+  <si>
+    <t>0x1c43fede</t>
+  </si>
+  <si>
+    <t>0x1823</t>
+  </si>
+  <si>
+    <t>Erros</t>
+  </si>
+  <si>
+    <t>704030030001</t>
+  </si>
+  <si>
+    <t>Erro Mint Scam Reserva X</t>
+  </si>
+  <si>
+    <t>0x17231</t>
+  </si>
+  <si>
+    <t>Custódia - Mynt</t>
+  </si>
+  <si>
+    <t>201010010003</t>
+  </si>
+  <si>
+    <t>Despesa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9910,6 +11464,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9932,13 +11492,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9954,6 +11517,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10254,60 +11821,6655 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="132" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="16.375" style="1"/>
+    <col min="1" max="1" width="16.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="16.375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="12.75">
+      <c r="A1" s="6" t="s">
         <v>3279</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
+        <v>3280</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3289</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>3293</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>3295</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>3297</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>3299</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3301</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3303</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3307</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>3309</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>3311</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3319</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3320</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>3323</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>3324</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>3326</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>3327</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>3328</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>3326</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>3326</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>3333</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>3340</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>3342</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>3324</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>3350</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>3352</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>3354</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>3355</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>3357</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>3359</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>3360</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>3362</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>3363</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>3365</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>3367</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>3360</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>3369</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>3371</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>3373</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>3360</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>3375</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>3378</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>3380</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>3378</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>3378</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>3385</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>3387</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>3391</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>3393</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>3397</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>3399</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>3401</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>3403</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>3406</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>3408</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>3410</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>3412</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>3414</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>3405</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>3418</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>3420</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>3425</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>3426</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>3429</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>3430</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>3433</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>3136</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>3435</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>3135</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>3436</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>3134</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>3438</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>3439</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>3441</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>3443</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>3445</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>3447</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>3449</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>3451</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>3324</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>3453</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>3454</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>3456</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>3454</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>3458</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>3461</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>3463</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>3463</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>3465</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>3468</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>3470</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>3472</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>3473</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>3475</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>3477</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>3478</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>3477</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>3477</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>3477</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>3481</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>3127</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>3486</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>3486</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>3488</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>3490</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>3492</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>3494</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>3496</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>3497</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>3496</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>3499</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>3501</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>3503</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>3496</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>3505</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>3507</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>3510</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>3511</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>3513</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>3515</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>3517</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>3519</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>3521</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>3524</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>3526</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>3528</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>3531</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>3533</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>3535</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>3536</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>3535</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>3538</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>3542</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="4" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>3546</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>3547</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="4" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>3546</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="4" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>3546</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>3551</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>3554</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>3555</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>3554</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>3557</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>3425</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>3559</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>3561</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>3562</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>3554</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>3564</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>3554</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>3566</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>3425</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>3568</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>3570</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>3571</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>3573</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>3574</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>3576</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>3577</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>3581</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>3583</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>3585</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>3587</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>3589</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>3591</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>3592</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>3596</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>3597</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>3598</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>3599</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>3601</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>3604</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>3603</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>3605</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>3607</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>3601</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>3609</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>3610</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>3608</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>3611</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>3613</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>3614</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>3612</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>3616</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>3618</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>3615</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>3620</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>3617</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>3622</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>3619</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>3624</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>3621</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>3609</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>3623</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>3627</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>3625</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>3629</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>3626</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>3631</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>3628</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>3607</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>3630</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>3634</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>3632</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>3610</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>3633</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>3637</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>3635</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>3638</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>3639</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>3611</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>3642</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>3644</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>3646</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>3648</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>3650</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>3652</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>3654</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>3656</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>3658</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>3660</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>3662</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>3318</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>3629</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>3664</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>3610</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>3666</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>3668</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>3669</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>3618</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>3671</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>3672</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>3673</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>3638</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>3614</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>3674</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>3607</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>3675</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>3676</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>3618</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>3128</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>3679</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>3679</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>3682</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>3683</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>3438</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>3685</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>3687</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>3688</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>3687</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>3690</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>3694</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>3695</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>3695</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>3697</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>3699</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>3702</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>3704</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>3706</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>3708</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>3710</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>3712</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>3706</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>3714</v>
+      </c>
+      <c r="K196" s="4" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>3712</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>3712</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="K198" s="4" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>3268</v>
+      </c>
+      <c r="K199" s="4" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>3720</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>3724</v>
+      </c>
+      <c r="K202" s="4" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="K203" s="4" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="K204" s="4" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K205" s="4" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>3732</v>
+      </c>
+      <c r="K206" s="4" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>3734</v>
+      </c>
+      <c r="K207" s="4" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>3736</v>
+      </c>
+      <c r="K208" s="4" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>3738</v>
+      </c>
+      <c r="K209" s="4" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K210" s="4" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>3742</v>
+      </c>
+      <c r="K211" s="4" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>3744</v>
+      </c>
+      <c r="K212" s="4" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>3746</v>
+      </c>
+      <c r="K213" s="4" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>3748</v>
+      </c>
+      <c r="K214" s="4" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>3750</v>
+      </c>
+      <c r="K215" s="4" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>3752</v>
+      </c>
+      <c r="K216" s="4" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>3754</v>
+      </c>
+      <c r="K217" s="4" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>3756</v>
+      </c>
+      <c r="K218" s="4" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>3758</v>
+      </c>
+      <c r="K219" s="4" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>3760</v>
+      </c>
+      <c r="K220" s="4" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>3762</v>
+      </c>
+      <c r="K221" s="4" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>3712</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>3699</v>
+      </c>
+      <c r="K222" s="4" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K223" s="4" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>3767</v>
+      </c>
+      <c r="K224" s="4" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>3769</v>
+      </c>
+      <c r="K225" s="4" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>3771</v>
+      </c>
+      <c r="K226" s="4" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>3773</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>3773</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K227" s="4" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>3775</v>
+      </c>
+      <c r="K228" s="4" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>3601</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K229" s="4" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>3778</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>3636</v>
+      </c>
+      <c r="K230" s="4" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>3596</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K231" s="4" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>3781</v>
+      </c>
+      <c r="J232" s="4" t="s">
+        <v>3640</v>
+      </c>
+      <c r="K232" s="4" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>3783</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>3777</v>
+      </c>
+      <c r="K233" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>3784</v>
+      </c>
+      <c r="J234" s="4" t="s">
+        <v>3316</v>
+      </c>
+      <c r="K234" s="4" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>3607</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>3779</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>3786</v>
+      </c>
+      <c r="J236" s="4" t="s">
+        <v>3780</v>
+      </c>
+      <c r="K236" s="4" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>3787</v>
+      </c>
+      <c r="J237" s="4" t="s">
+        <v>3782</v>
+      </c>
+      <c r="K237" s="4" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>3788</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>3641</v>
+      </c>
+      <c r="K238" s="4" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>3609</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>3790</v>
+      </c>
+      <c r="K239" s="4" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>3791</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K240" s="4" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>3793</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>3794</v>
+      </c>
+      <c r="K241" s="4" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>3682</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>3795</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K242" s="4" t="s">
+        <v>3796</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}"/>
+  <autoFilter ref="A1:K242" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -5,24 +5,25 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B966D65E-2405-7748-8B98-E6F96FB05556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A995A60B-58CB-4B40-A389-D4B1C1E4AFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="4640" yWindow="500" windowWidth="34200" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
     <sheet name="conciliations" sheetId="7" r:id="rId2"/>
     <sheet name="book" sheetId="6" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="Planilha2" sheetId="9" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">book!$A$1:$I$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$K$242</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">conciliations!$A$1:$D$5187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha1!$A$1:$D$3002</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha1!$A$1:$D$3002</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14256" uniqueCount="3799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14256" uniqueCount="3800">
   <si>
     <t>projeto</t>
   </si>
@@ -11442,6 +11443,9 @@
   </si>
   <si>
     <t>Protocol</t>
+  </si>
+  <si>
+    <t>Aplicativo de transporte</t>
   </si>
 </sst>
 </file>
@@ -11831,8 +11835,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C205" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I242" sqref="I242"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11890,7 +11894,7 @@
         <v>3282</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3281</v>
+        <v>3483</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3797</v>
@@ -11902,13 +11906,13 @@
         <v>3283</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>3284</v>
+        <v>3484</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3285</v>
+        <v>3507</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>3286</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -11916,7 +11920,7 @@
         <v>3282</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3281</v>
+        <v>3383</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3797</v>
@@ -11928,247 +11932,289 @@
         <v>3283</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3281</v>
+        <v>3405</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3287</v>
+        <v>3420</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>3288</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3281</v>
+        <v>3313</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>3281</v>
+        <v>3315</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>3289</v>
+        <v>3375</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>3290</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3281</v>
+        <v>3313</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>3281</v>
+        <v>3315</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>3291</v>
+        <v>3373</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3360</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>3292</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3281</v>
+        <v>3313</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>3281</v>
+        <v>3315</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>3293</v>
+        <v>3371</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>3294</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3281</v>
+        <v>3313</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>3281</v>
+        <v>3315</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>3295</v>
+        <v>3315</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>3296</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3281</v>
+        <v>3313</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>3281</v>
+        <v>3317</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>3297</v>
+        <v>3369</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>3298</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3281</v>
+        <v>3313</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>3281</v>
+        <v>3317</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>3299</v>
+        <v>3367</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>3360</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>3300</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3281</v>
+        <v>3313</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>3281</v>
+        <v>3317</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>3301</v>
+        <v>3365</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>3302</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3281</v>
+        <v>3313</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>3281</v>
+        <v>3317</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>3303</v>
+        <v>3317</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>3304</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>3281</v>
+        <v>3377</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>3797</v>
+        <v>3377</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>3283</v>
+        <v>3377</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>3283</v>
+        <v>3377</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>3281</v>
+        <v>3378</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>3305</v>
+        <v>3378</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>3306</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -12176,7 +12222,7 @@
         <v>3282</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3281</v>
+        <v>3383</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>3797</v>
@@ -12188,39 +12234,48 @@
         <v>3283</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>3281</v>
+        <v>3384</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>3307</v>
+        <v>3418</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>3308</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3281</v>
+        <v>3313</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>3281</v>
+        <v>3319</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>3309</v>
+        <v>3320</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>3310</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -12228,7 +12283,7 @@
         <v>3282</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3281</v>
+        <v>3483</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3797</v>
@@ -12240,859 +12295,727 @@
         <v>3283</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>3281</v>
+        <v>3496</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>3311</v>
+        <v>3505</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>3312</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>3313</v>
+        <v>3417</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>3313</v>
+        <v>3460</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>3313</v>
+        <v>3417</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>3315</v>
+        <v>3773</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>3315</v>
+        <v>3773</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>3316</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3313</v>
+        <v>3594</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>3317</v>
+        <v>3600</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>3317</v>
+        <v>3618</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>120</v>
+        <v>3615</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>3318</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3313</v>
+        <v>3594</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>3319</v>
+        <v>3600</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>3320</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>6</v>
+        <v>3618</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>722</v>
+        <v>3671</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>3321</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3313</v>
+        <v>3594</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>3322</v>
+        <v>3600</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>3323</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>3324</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>3798</v>
+        <v>3618</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>3677</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>3325</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3313</v>
+        <v>3553</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>3326</v>
+        <v>3576</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>3327</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>3798</v>
+        <v>3577</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>3329</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>3313</v>
+        <v>3553</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>3326</v>
+        <v>3573</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>3330</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>3331</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>3798</v>
+        <v>3574</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>3332</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3313</v>
+        <v>3553</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>3326</v>
+        <v>3570</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>3333</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>3798</v>
+        <v>3571</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>3335</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>3337</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>3338</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>3798</v>
+        <v>3301</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>3339</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>3340</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>3338</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>3798</v>
+        <v>3299</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>3341</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>3342</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>3798</v>
+        <v>3297</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>3344</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>3345</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>3331</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>3798</v>
+        <v>3295</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>3346</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>3347</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>3324</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>3798</v>
+        <v>3311</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>3348</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>3349</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>3350</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>3798</v>
+        <v>3293</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>3351</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>3352</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>3798</v>
+        <v>3291</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>3353</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>3354</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>3355</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>3798</v>
+        <v>3289</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>3356</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>3357</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>3798</v>
+        <v>3287</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>3358</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>3359</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>3360</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>3798</v>
+        <v>3660</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>3361</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>3336</v>
+        <v>3281</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>3362</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>3798</v>
+        <v>3658</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>3364</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>3317</v>
+        <v>3281</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>3365</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>5</v>
+        <v>3656</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>3366</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>3317</v>
+        <v>3281</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>3367</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>3360</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>3798</v>
+        <v>3654</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>3368</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>3317</v>
+        <v>3281</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>3369</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>6</v>
+        <v>3309</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>3370</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>3315</v>
+        <v>3281</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>3371</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>5</v>
+        <v>3652</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>3372</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>3315</v>
+        <v>3281</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>3373</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>3360</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>3798</v>
+        <v>3750</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>3374</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>3313</v>
+        <v>3281</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>3313</v>
+        <v>3797</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>3313</v>
+        <v>3283</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>3315</v>
+        <v>3281</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>3375</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>6</v>
+        <v>3650</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>3376</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>3377</v>
+        <v>3281</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>3377</v>
+        <v>3797</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>3377</v>
+        <v>3283</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>3377</v>
+        <v>3283</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>3378</v>
+        <v>3281</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>119</v>
+        <v>3648</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>119</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>3377</v>
+        <v>3281</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3377</v>
+        <v>3797</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>3377</v>
+        <v>3283</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>3377</v>
+        <v>3283</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>3379</v>
+        <v>3281</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>3380</v>
+        <v>3646</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>3381</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>3314</v>
+        <v>3282</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>3377</v>
+        <v>3281</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>3377</v>
+        <v>3797</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>3377</v>
+        <v>3283</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>3377</v>
+        <v>3283</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>3378</v>
+        <v>3281</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>3378</v>
+        <v>3644</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>3382</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -13100,7 +13023,7 @@
         <v>3282</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3797</v>
@@ -13112,16 +13035,13 @@
         <v>3283</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>3384</v>
+        <v>3281</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>3385</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>207</v>
+        <v>3642</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>3386</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -13129,7 +13049,7 @@
         <v>3282</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>3797</v>
@@ -13141,16 +13061,13 @@
         <v>3283</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>3384</v>
+        <v>3281</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>3387</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>1555</v>
+        <v>3769</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>3388</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -13158,25 +13075,25 @@
         <v>3282</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>3389</v>
+        <v>3283</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>3389</v>
+        <v>3283</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>3390</v>
+        <v>3281</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>3391</v>
+        <v>3767</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>3392</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -13184,25 +13101,25 @@
         <v>3282</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>3389</v>
+        <v>3283</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>3389</v>
+        <v>3283</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>3390</v>
+        <v>3281</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>3393</v>
+        <v>3765</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>3394</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -13210,7 +13127,7 @@
         <v>3282</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>3797</v>
@@ -13222,13 +13139,13 @@
         <v>3283</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>3390</v>
+        <v>3281</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>3395</v>
+        <v>3762</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>3396</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -13236,7 +13153,7 @@
         <v>3282</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>3797</v>
@@ -13248,13 +13165,13 @@
         <v>3283</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>3390</v>
+        <v>3281</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>3397</v>
+        <v>3760</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>3398</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -13262,7 +13179,7 @@
         <v>3282</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>3797</v>
@@ -13274,13 +13191,13 @@
         <v>3283</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>3390</v>
+        <v>3281</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>3399</v>
+        <v>3758</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>3400</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -13288,7 +13205,7 @@
         <v>3282</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>3797</v>
@@ -13300,13 +13217,13 @@
         <v>3283</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>3384</v>
+        <v>3281</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>3401</v>
+        <v>3756</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>3402</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -13314,7 +13231,7 @@
         <v>3282</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>3797</v>
@@ -13326,13 +13243,13 @@
         <v>3283</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>3384</v>
+        <v>3281</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>3403</v>
+        <v>3754</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>3404</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -13340,7 +13257,7 @@
         <v>3282</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>3797</v>
@@ -13352,13 +13269,13 @@
         <v>3283</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>3405</v>
+        <v>3281</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>3406</v>
+        <v>3752</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>3407</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -13366,7 +13283,7 @@
         <v>3282</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>3797</v>
@@ -13378,13 +13295,13 @@
         <v>3283</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>3405</v>
+        <v>3281</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>3408</v>
+        <v>3748</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>3409</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -13392,7 +13309,7 @@
         <v>3282</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>3797</v>
@@ -13404,13 +13321,13 @@
         <v>3283</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>3384</v>
+        <v>3281</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>3410</v>
+        <v>3746</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>3411</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -13418,7 +13335,7 @@
         <v>3282</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>3797</v>
@@ -13430,13 +13347,13 @@
         <v>3283</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>3405</v>
+        <v>3281</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>3412</v>
+        <v>3744</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>3413</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -13444,7 +13361,7 @@
         <v>3282</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>3797</v>
@@ -13456,13 +13373,13 @@
         <v>3283</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>3384</v>
+        <v>3281</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>3414</v>
+        <v>3742</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>3415</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -13470,7 +13387,7 @@
         <v>3282</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>3797</v>
@@ -13482,13 +13399,13 @@
         <v>3283</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>3405</v>
+        <v>3281</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>3405</v>
+        <v>3740</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>3416</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -13496,7 +13413,7 @@
         <v>3282</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3797</v>
@@ -13508,13 +13425,13 @@
         <v>3283</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>3417</v>
+        <v>3281</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>3418</v>
+        <v>3738</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>3419</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -13522,7 +13439,7 @@
         <v>3282</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>3797</v>
@@ -13534,13 +13451,13 @@
         <v>3283</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>3405</v>
+        <v>3281</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>3420</v>
+        <v>3303</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>3421</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -13548,7 +13465,7 @@
         <v>3282</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3383</v>
+        <v>3281</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>3797</v>
@@ -13560,13 +13477,13 @@
         <v>3283</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>3417</v>
+        <v>3281</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>3422</v>
+        <v>3736</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>3423</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -13574,7 +13491,7 @@
         <v>3282</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3424</v>
+        <v>3281</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>3797</v>
@@ -13586,13 +13503,13 @@
         <v>3283</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>3425</v>
+        <v>3281</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>3426</v>
+        <v>3307</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>3427</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -13600,10 +13517,10 @@
         <v>3282</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3428</v>
+        <v>3281</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>3283</v>
@@ -13612,22 +13529,13 @@
         <v>3283</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>3429</v>
+        <v>3281</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>3430</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>125</v>
+        <v>3734</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>3431</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -13635,10 +13543,10 @@
         <v>3282</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>3428</v>
+        <v>3281</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3283</v>
@@ -13647,22 +13555,13 @@
         <v>3283</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>3432</v>
+        <v>3281</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>3433</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>3136</v>
+        <v>3732</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>3434</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -13670,10 +13569,10 @@
         <v>3282</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>3428</v>
+        <v>3281</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>3283</v>
@@ -13682,22 +13581,13 @@
         <v>3283</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>3432</v>
+        <v>3281</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>3435</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>3135</v>
+        <v>3730</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>3135</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -13705,10 +13595,10 @@
         <v>3282</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>3428</v>
+        <v>3281</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>3283</v>
@@ -13717,22 +13607,13 @@
         <v>3283</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>3432</v>
+        <v>3281</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>3436</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>3134</v>
+        <v>3728</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>3437</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -13740,10 +13621,10 @@
         <v>3282</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>3428</v>
+        <v>3281</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>3283</v>
@@ -13752,19 +13633,13 @@
         <v>3283</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>3438</v>
+        <v>3281</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>3439</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>3798</v>
+        <v>3726</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>3440</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -13772,10 +13647,10 @@
         <v>3282</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>3428</v>
+        <v>3281</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>3283</v>
@@ -13784,19 +13659,13 @@
         <v>3283</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>3432</v>
+        <v>3281</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>3441</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>3798</v>
+        <v>3724</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>3442</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -13804,10 +13673,10 @@
         <v>3282</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>3428</v>
+        <v>3281</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>3283</v>
@@ -13816,19 +13685,13 @@
         <v>3283</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>3432</v>
+        <v>3281</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>3443</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>3338</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>3798</v>
+        <v>3722</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>3444</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -13836,10 +13699,10 @@
         <v>3282</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>3428</v>
+        <v>3281</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>3283</v>
@@ -13848,19 +13711,13 @@
         <v>3283</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>3432</v>
+        <v>3281</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>3445</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>3798</v>
+        <v>3720</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>3446</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -13868,10 +13725,10 @@
         <v>3282</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>3428</v>
+        <v>3281</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>3283</v>
@@ -13880,19 +13737,13 @@
         <v>3283</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>3432</v>
+        <v>3281</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>3447</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>3798</v>
+        <v>3305</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>3448</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -13900,10 +13751,10 @@
         <v>3282</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>3428</v>
+        <v>3509</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>3283</v>
@@ -13912,19 +13763,13 @@
         <v>3283</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>3432</v>
+        <v>3523</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>3449</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>3798</v>
+        <v>3775</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>3450</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -13932,10 +13777,10 @@
         <v>3282</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>3428</v>
+        <v>3509</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>3283</v>
@@ -13944,19 +13789,13 @@
         <v>3283</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>3432</v>
+        <v>3523</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>3451</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>3324</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>3798</v>
+        <v>3542</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>3452</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -13964,10 +13803,10 @@
         <v>3282</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>3428</v>
+        <v>3509</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>3283</v>
@@ -13976,320 +13815,365 @@
         <v>3283</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>3432</v>
+        <v>3523</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>3453</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>3454</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>3798</v>
+        <v>3540</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>3455</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>3428</v>
+        <v>3313</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>3282</v>
+        <v>3313</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>3432</v>
+        <v>3336</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3456</v>
+        <v>3362</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>3454</v>
-      </c>
-      <c r="I74" s="7" t="s">
+        <v>3363</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>3798</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>3457</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>3428</v>
+        <v>3313</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>3282</v>
+        <v>3313</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>3432</v>
+        <v>3336</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>3458</v>
+        <v>3359</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I75" s="7" t="s">
+        <v>3360</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>3798</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>3459</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>3417</v>
+        <v>3313</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>3417</v>
+        <v>3336</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3461</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>1008</v>
+        <v>3357</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>3462</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>3417</v>
+        <v>3313</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>3463</v>
+        <v>3336</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>3463</v>
+        <v>3354</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>3355</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>3464</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>3417</v>
+        <v>3313</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>3417</v>
+        <v>3336</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3465</v>
+        <v>3352</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>3466</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>3417</v>
+        <v>3313</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>3467</v>
+        <v>3336</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>3468</v>
+        <v>3349</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>3469</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>3417</v>
+        <v>3313</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>3417</v>
+        <v>3336</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>3470</v>
+        <v>3347</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>3324</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>3471</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>3417</v>
+        <v>3313</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>3472</v>
+        <v>3336</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>3473</v>
+        <v>3345</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>3474</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>3417</v>
+        <v>3313</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>3417</v>
+        <v>3336</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>3475</v>
+        <v>3342</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>3476</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>3417</v>
+        <v>3313</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>3477</v>
+        <v>3336</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3478</v>
+        <v>3340</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>3479</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>3417</v>
+        <v>3313</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>3460</v>
+        <v>3313</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>3477</v>
+        <v>3336</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>3477</v>
+        <v>3337</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>3480</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -14297,25 +14181,25 @@
         <v>3282</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>3417</v>
+        <v>3383</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>3477</v>
+        <v>3405</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>3481</v>
+        <v>3405</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>3482</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -14323,7 +14207,7 @@
         <v>3282</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>3483</v>
+        <v>3594</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>3797</v>
@@ -14335,16 +14219,16 @@
         <v>3283</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>3484</v>
+        <v>3600</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>3417</v>
+        <v>3601</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>3127</v>
+        <v>3602</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>3485</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -14352,7 +14236,7 @@
         <v>3282</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>3483</v>
+        <v>3594</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>3797</v>
@@ -14364,13 +14248,16 @@
         <v>3283</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>3486</v>
+        <v>3600</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3486</v>
+        <v>3601</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>1068</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>3487</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -14378,7 +14265,7 @@
         <v>3282</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>3483</v>
+        <v>3594</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>3797</v>
@@ -14390,13 +14277,16 @@
         <v>3283</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>3484</v>
+        <v>3600</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>3488</v>
+        <v>3601</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>1069</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>3489</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -14404,25 +14294,25 @@
         <v>3282</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>3483</v>
+        <v>3417</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>3484</v>
+        <v>3417</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>3490</v>
+        <v>3475</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>3491</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -14430,25 +14320,25 @@
         <v>3282</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>3483</v>
+        <v>3417</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>3484</v>
+        <v>3472</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>3492</v>
+        <v>3473</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>3493</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -14456,7 +14346,7 @@
         <v>3282</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>3483</v>
+        <v>3509</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>3797</v>
@@ -14468,13 +14358,13 @@
         <v>3283</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>3484</v>
+        <v>3509</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>3494</v>
+        <v>3517</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>3495</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -14482,7 +14372,7 @@
         <v>3282</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>3483</v>
+        <v>3509</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>3797</v>
@@ -14494,13 +14384,13 @@
         <v>3283</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>3496</v>
+        <v>3509</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>3497</v>
+        <v>3515</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>3498</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -14508,7 +14398,7 @@
         <v>3282</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>3483</v>
+        <v>3509</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>3797</v>
@@ -14520,13 +14410,13 @@
         <v>3283</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>3496</v>
+        <v>3509</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>3499</v>
+        <v>3513</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>3500</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -14534,7 +14424,7 @@
         <v>3282</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>3483</v>
+        <v>3594</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>3797</v>
@@ -14546,13 +14436,16 @@
         <v>3283</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>3484</v>
+        <v>3595</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>3501</v>
+        <v>3616</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>1056</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>3502</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -14586,7 +14479,7 @@
         <v>3282</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>3483</v>
+        <v>3594</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>3797</v>
@@ -14598,13 +14491,16 @@
         <v>3283</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>3496</v>
+        <v>3606</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>3505</v>
+        <v>3629</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>3626</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>3506</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -14612,7 +14508,7 @@
         <v>3282</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>3483</v>
+        <v>3594</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>3797</v>
@@ -14624,13 +14520,16 @@
         <v>3283</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>3484</v>
+        <v>3606</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>3507</v>
+        <v>3629</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>3664</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>3508</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -14638,25 +14537,25 @@
         <v>3282</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>3509</v>
+        <v>3579</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>3510</v>
+        <v>3591</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>3511</v>
+        <v>3592</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>3512</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -14664,51 +14563,57 @@
         <v>3282</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>3509</v>
+        <v>3417</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>3509</v>
+        <v>3417</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>3513</v>
+        <v>3461</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>1008</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>3514</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>3509</v>
+        <v>3313</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>3509</v>
+        <v>3718</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>3515</v>
+        <v>3718</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>3268</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>3516</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -14716,7 +14621,7 @@
         <v>3282</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>3509</v>
+        <v>3483</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>3797</v>
@@ -14728,13 +14633,13 @@
         <v>3283</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>3509</v>
+        <v>3486</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>3517</v>
+        <v>3486</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>3518</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -14754,13 +14659,13 @@
         <v>3283</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>3519</v>
+        <v>3511</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>3520</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -14768,7 +14673,7 @@
         <v>3282</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>3509</v>
+        <v>3417</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>3797</v>
@@ -14780,13 +14685,13 @@
         <v>3283</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>3509</v>
+        <v>3463</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>3521</v>
+        <v>3463</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>3522</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -14794,7 +14699,7 @@
         <v>3282</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>3509</v>
+        <v>3692</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>3797</v>
@@ -14806,13 +14711,13 @@
         <v>3283</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>3523</v>
+        <v>3695</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>3524</v>
+        <v>3695</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>3525</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -14820,7 +14725,7 @@
         <v>3282</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>3509</v>
+        <v>3594</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>3797</v>
@@ -14832,13 +14737,13 @@
         <v>3283</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>3509</v>
+        <v>3679</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>3526</v>
+        <v>3679</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>3527</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -14858,13 +14763,13 @@
         <v>3283</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>3509</v>
+        <v>3535</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>3528</v>
+        <v>3538</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>3529</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -14884,13 +14789,13 @@
         <v>3283</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>3530</v>
+        <v>3535</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>3531</v>
+        <v>3536</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>3532</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -14898,7 +14803,7 @@
         <v>3282</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>3509</v>
+        <v>3383</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>3797</v>
@@ -14910,13 +14815,13 @@
         <v>3283</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>3530</v>
+        <v>3384</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>3533</v>
+        <v>3414</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>3534</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -14924,7 +14829,7 @@
         <v>3282</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>3509</v>
+        <v>3383</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>3797</v>
@@ -14936,13 +14841,16 @@
         <v>3283</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>3535</v>
+        <v>3384</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>3536</v>
+        <v>3387</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>1555</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>3537</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -14950,7 +14858,7 @@
         <v>3282</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>3509</v>
+        <v>3692</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>3797</v>
@@ -14961,14 +14869,14 @@
       <c r="E110" s="4" t="s">
         <v>3283</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>3535</v>
+      <c r="F110" s="7" t="s">
+        <v>3712</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>3538</v>
+        <v>3710</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>3539</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -14976,7 +14884,7 @@
         <v>3282</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3509</v>
+        <v>3594</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>3797</v>
@@ -14988,13 +14896,16 @@
         <v>3283</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>3523</v>
+        <v>3595</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>3540</v>
+        <v>3676</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>1066</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>3541</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -15002,10 +14913,10 @@
         <v>3282</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>3509</v>
+        <v>3428</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>3283</v>
@@ -15014,94 +14925,103 @@
         <v>3283</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>3523</v>
+        <v>3438</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>3542</v>
+        <v>3439</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>3798</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>3543</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>3544</v>
+        <v>3282</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>3544</v>
+        <v>3483</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>3545</v>
+        <v>3797</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>3545</v>
+        <v>3283</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>3545</v>
+        <v>3283</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>3546</v>
+        <v>3484</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>3547</v>
+        <v>3417</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>128</v>
+        <v>3127</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>3548</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>3544</v>
+        <v>3282</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>3544</v>
+        <v>3483</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>3545</v>
+        <v>3797</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>3545</v>
+        <v>3283</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>3545</v>
+        <v>3283</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>3546</v>
+        <v>3417</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>3549</v>
+        <v>3417</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>3550</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>3544</v>
+        <v>3282</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>3544</v>
+        <v>3692</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>3545</v>
+        <v>3797</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>3545</v>
+        <v>3283</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>3545</v>
+        <v>3283</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>3546</v>
+        <v>3693</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3551</v>
+        <v>3694</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>1554</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>3552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -15109,51 +15029,54 @@
         <v>3282</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>3553</v>
+        <v>3692</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>3389</v>
+        <v>3283</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>3389</v>
+        <v>3283</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>3554</v>
+        <v>3712</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>3555</v>
+        <v>3708</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>3556</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>3282</v>
+        <v>3544</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>3553</v>
+        <v>3544</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>3797</v>
+        <v>3545</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>3389</v>
+        <v>3545</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>3389</v>
+        <v>3545</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>3554</v>
+        <v>3546</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3557</v>
+        <v>3547</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>3558</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -15161,25 +15084,28 @@
         <v>3282</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>3553</v>
+        <v>3594</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>3389</v>
+        <v>3283</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>3389</v>
+        <v>3283</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>3425</v>
+        <v>3606</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3559</v>
+        <v>3783</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>3777</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>3560</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -15187,25 +15113,25 @@
         <v>3282</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3553</v>
+        <v>3417</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>3389</v>
+        <v>3460</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>3389</v>
+        <v>3460</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>3561</v>
+        <v>3477</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>3562</v>
+        <v>3481</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>3563</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -15213,7 +15139,7 @@
         <v>3282</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>3553</v>
+        <v>3483</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>3797</v>
@@ -15225,13 +15151,13 @@
         <v>3283</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>3554</v>
+        <v>3484</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>3564</v>
+        <v>3501</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>3565</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -15239,7 +15165,7 @@
         <v>3282</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>3553</v>
+        <v>3594</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>3797</v>
@@ -15251,13 +15177,16 @@
         <v>3283</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>3554</v>
+        <v>3606</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>3566</v>
+        <v>3784</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>3316</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>3567</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -15265,7 +15194,7 @@
         <v>3282</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>3553</v>
+        <v>3594</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>3797</v>
@@ -15277,13 +15206,16 @@
         <v>3283</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>3425</v>
+        <v>3606</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>3568</v>
+        <v>3778</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>3636</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>3569</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -15291,7 +15223,7 @@
         <v>3282</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>3553</v>
+        <v>3594</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>3797</v>
@@ -15303,13 +15235,16 @@
         <v>3283</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>3570</v>
+        <v>3606</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>3571</v>
+        <v>3788</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>3641</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>3572</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -15317,7 +15252,7 @@
         <v>3282</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>3553</v>
+        <v>3594</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>3797</v>
@@ -15329,13 +15264,16 @@
         <v>3283</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>3573</v>
+        <v>3606</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>3574</v>
+        <v>3624</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>3621</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>3575</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -15343,7 +15281,7 @@
         <v>3282</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>3553</v>
+        <v>3594</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>3797</v>
@@ -15355,13 +15293,16 @@
         <v>3283</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>3576</v>
+        <v>3606</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>3577</v>
+        <v>3637</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>3635</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>3578</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -15369,25 +15310,28 @@
         <v>3282</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>3579</v>
+        <v>3594</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>3580</v>
+        <v>3606</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>3581</v>
+        <v>3627</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>3625</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>3582</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -15395,25 +15339,28 @@
         <v>3282</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>3579</v>
+        <v>3594</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>3580</v>
+        <v>3606</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>3583</v>
+        <v>3781</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>3640</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>3584</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -15421,25 +15368,28 @@
         <v>3282</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>3579</v>
+        <v>3594</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>3580</v>
+        <v>3606</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>3585</v>
+        <v>3609</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>1067</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>3586</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -15447,25 +15397,28 @@
         <v>3282</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>3579</v>
+        <v>3594</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>3580</v>
+        <v>3606</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>3587</v>
+        <v>3609</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>3623</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>3588</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -15473,25 +15426,28 @@
         <v>3282</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>3579</v>
+        <v>3594</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>3580</v>
+        <v>3606</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>3589</v>
+        <v>3609</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>3790</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>3590</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -15499,25 +15455,25 @@
         <v>3282</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>3579</v>
+        <v>3483</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>3591</v>
+        <v>3496</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>3592</v>
+        <v>3499</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>3593</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -15525,7 +15481,7 @@
         <v>3282</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>3594</v>
+        <v>3417</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>3797</v>
@@ -15537,16 +15493,13 @@
         <v>3283</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>3595</v>
+        <v>3417</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>3596</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>3597</v>
+        <v>3465</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>3597</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -15554,28 +15507,25 @@
         <v>3282</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>3594</v>
+        <v>3417</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>3595</v>
+        <v>3477</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>3598</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>3599</v>
+        <v>3477</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>3599</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -15583,115 +15533,121 @@
         <v>3282</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>3594</v>
+        <v>3417</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>3600</v>
+        <v>3477</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>3601</v>
-      </c>
-      <c r="J134" s="4" t="s">
-        <v>3602</v>
+        <v>3478</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>3603</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>3594</v>
+        <v>3313</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>3595</v>
+        <v>3326</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>3604</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>3603</v>
+        <v>3333</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>1061</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>3594</v>
+        <v>3313</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>3595</v>
+        <v>3326</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>3605</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>1061</v>
+        <v>3330</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>1063</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>3594</v>
+        <v>3313</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>3606</v>
+        <v>3326</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>3607</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>1063</v>
+        <v>3327</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>3328</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>1067</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -15699,7 +15655,7 @@
         <v>3282</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>3594</v>
+        <v>3483</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>3797</v>
@@ -15711,16 +15667,13 @@
         <v>3283</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>3600</v>
+        <v>3496</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>3601</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>1068</v>
+        <v>3497</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>3608</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -15731,7 +15684,7 @@
         <v>3594</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>3283</v>
@@ -15740,16 +15693,22 @@
         <v>3283</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>3606</v>
+        <v>3600</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>3609</v>
+        <v>3678</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>1067</v>
+        <v>3128</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>1064</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -15757,28 +15716,25 @@
         <v>3282</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>3594</v>
+        <v>3579</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>3595</v>
+        <v>3580</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>3610</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>3608</v>
+        <v>3589</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>1154</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -15798,16 +15754,16 @@
         <v>3283</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>3606</v>
+        <v>3595</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>3611</v>
+        <v>3620</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>1064</v>
+        <v>3617</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>3612</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -15815,7 +15771,7 @@
         <v>3282</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>3594</v>
+        <v>3509</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>3797</v>
@@ -15827,16 +15783,13 @@
         <v>3283</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>3595</v>
+        <v>3530</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>3613</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>1154</v>
+        <v>3533</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>1056</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -15844,7 +15797,7 @@
         <v>3282</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>3594</v>
+        <v>3509</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>3797</v>
@@ -15856,16 +15809,13 @@
         <v>3283</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>3595</v>
+        <v>3530</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>3614</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>3612</v>
+        <v>3531</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>3615</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -15873,7 +15823,7 @@
         <v>3282</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>3594</v>
+        <v>3483</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>3797</v>
@@ -15885,45 +15835,39 @@
         <v>3283</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>3595</v>
+        <v>3484</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>3616</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>1056</v>
+        <v>3494</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>3617</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>3594</v>
+        <v>3377</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>3797</v>
+        <v>3377</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>3283</v>
+        <v>3377</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>3283</v>
+        <v>3377</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>3600</v>
+        <v>3379</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>3618</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>3615</v>
+        <v>3380</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>3619</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -15931,57 +15875,51 @@
         <v>3282</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>3594</v>
+        <v>3579</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>3595</v>
+        <v>3580</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>3620</v>
-      </c>
-      <c r="J146" s="4" t="s">
-        <v>3617</v>
+        <v>3587</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>3621</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>3282</v>
+        <v>3544</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>3594</v>
+        <v>3544</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>3797</v>
+        <v>3545</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>3283</v>
+        <v>3545</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>3283</v>
+        <v>3545</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>3595</v>
+        <v>3546</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>3622</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>3619</v>
+        <v>3551</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>3623</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -15989,7 +15927,7 @@
         <v>3282</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>3594</v>
+        <v>3553</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>3797</v>
@@ -16001,16 +15939,13 @@
         <v>3283</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>3606</v>
+        <v>3425</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>3624</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>3621</v>
+        <v>3568</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>3625</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -16018,7 +15953,7 @@
         <v>3282</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>3594</v>
+        <v>3553</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>3797</v>
@@ -16030,16 +15965,13 @@
         <v>3283</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>3606</v>
+        <v>3554</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>3609</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>3623</v>
+        <v>3566</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>3626</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -16047,7 +15979,7 @@
         <v>3282</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>3594</v>
+        <v>3424</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>3797</v>
@@ -16059,16 +15991,13 @@
         <v>3283</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>3606</v>
+        <v>3425</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>3627</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>3625</v>
+        <v>3426</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>3628</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -16076,7 +16005,7 @@
         <v>3282</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>3594</v>
+        <v>3553</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>3797</v>
@@ -16088,16 +16017,13 @@
         <v>3283</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>3606</v>
+        <v>3554</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>3629</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>3626</v>
+        <v>3564</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>3630</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -16105,28 +16031,25 @@
         <v>3282</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>3594</v>
+        <v>3383</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>3600</v>
+        <v>3390</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>3631</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>3628</v>
+        <v>3393</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>3632</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -16134,28 +16057,25 @@
         <v>3282</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>3594</v>
+        <v>3553</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>3606</v>
+        <v>3561</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>3607</v>
-      </c>
-      <c r="J153" s="4" t="s">
-        <v>3630</v>
+        <v>3562</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>3633</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -16163,28 +16083,25 @@
         <v>3282</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>3594</v>
+        <v>3383</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>3595</v>
+        <v>3390</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>3634</v>
-      </c>
-      <c r="J154" s="4" t="s">
-        <v>3632</v>
+        <v>3391</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>3635</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -16192,28 +16109,25 @@
         <v>3282</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>3594</v>
+        <v>3553</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>3595</v>
+        <v>3425</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>3610</v>
-      </c>
-      <c r="J155" s="4" t="s">
-        <v>3633</v>
+        <v>3559</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>3636</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -16221,28 +16135,25 @@
         <v>3282</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>3594</v>
+        <v>3383</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>3606</v>
+        <v>3390</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>3637</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>3635</v>
+        <v>3771</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>1062</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -16250,28 +16161,25 @@
         <v>3282</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>3594</v>
+        <v>3553</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>3638</v>
+        <v>3554</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>3639</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>1058</v>
+        <v>3557</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>3640</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -16279,7 +16187,7 @@
         <v>3282</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>3594</v>
+        <v>3383</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>3797</v>
@@ -16291,16 +16199,13 @@
         <v>3283</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>3606</v>
+        <v>3390</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>3611</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>1065</v>
+        <v>3399</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>3641</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -16308,7 +16213,7 @@
         <v>3282</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>3281</v>
+        <v>3383</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>3797</v>
@@ -16320,13 +16225,13 @@
         <v>3283</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>3281</v>
+        <v>3390</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>3642</v>
+        <v>3397</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>3643</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -16334,7 +16239,7 @@
         <v>3282</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>3281</v>
+        <v>3383</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>3797</v>
@@ -16346,13 +16251,13 @@
         <v>3283</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>3281</v>
+        <v>3390</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>3644</v>
+        <v>3395</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>3645</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -16360,25 +16265,25 @@
         <v>3282</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>3281</v>
+        <v>3553</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>3283</v>
+        <v>3389</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>3281</v>
+        <v>3554</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>3646</v>
+        <v>3555</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>3647</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -16386,7 +16291,7 @@
         <v>3282</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>3281</v>
+        <v>3383</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>3797</v>
@@ -16398,13 +16303,13 @@
         <v>3283</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>3281</v>
+        <v>3405</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>3648</v>
+        <v>3412</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>3649</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -16412,7 +16317,7 @@
         <v>3282</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>3281</v>
+        <v>3692</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>3797</v>
@@ -16424,13 +16329,13 @@
         <v>3283</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>3281</v>
+        <v>3706</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>3650</v>
+        <v>3714</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>3651</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
@@ -16438,7 +16343,7 @@
         <v>3282</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>3281</v>
+        <v>3692</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>3797</v>
@@ -16450,13 +16355,13 @@
         <v>3283</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>3281</v>
+        <v>3693</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>3652</v>
+        <v>3706</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>3653</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
@@ -16464,7 +16369,7 @@
         <v>3282</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>3281</v>
+        <v>3483</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>3797</v>
@@ -16476,13 +16381,13 @@
         <v>3283</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>3281</v>
+        <v>3484</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>3654</v>
+        <v>3492</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>3655</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
@@ -16490,7 +16395,7 @@
         <v>3282</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>3281</v>
+        <v>3692</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>3797</v>
@@ -16502,13 +16407,13 @@
         <v>3283</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>3281</v>
+        <v>3693</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>3656</v>
+        <v>3704</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>3657</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
@@ -16516,7 +16421,7 @@
         <v>3282</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>3281</v>
+        <v>3383</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>3797</v>
@@ -16528,13 +16433,13 @@
         <v>3283</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>3281</v>
+        <v>3384</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>3658</v>
+        <v>3410</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>3659</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -16542,10 +16447,10 @@
         <v>3282</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>3281</v>
+        <v>3428</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>3283</v>
@@ -16554,13 +16459,19 @@
         <v>3283</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>3281</v>
+        <v>3432</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>3660</v>
+        <v>3458</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>3798</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>3661</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
@@ -16568,10 +16479,10 @@
         <v>3282</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>3283</v>
@@ -16580,16 +16491,19 @@
         <v>3283</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>3595</v>
+        <v>3432</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>3662</v>
-      </c>
-      <c r="J169" s="4" t="s">
-        <v>3318</v>
+        <v>3456</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>3454</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>3798</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>3663</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
@@ -16597,10 +16511,10 @@
         <v>3282</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>3283</v>
@@ -16609,16 +16523,19 @@
         <v>3283</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>3606</v>
+        <v>3432</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>3629</v>
-      </c>
-      <c r="J170" s="4" t="s">
-        <v>3664</v>
+        <v>3453</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>3454</v>
+      </c>
+      <c r="I170" s="7" t="s">
+        <v>3798</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>3665</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -16626,10 +16543,10 @@
         <v>3282</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>3283</v>
@@ -16638,16 +16555,19 @@
         <v>3283</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>3595</v>
+        <v>3432</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>3610</v>
-      </c>
-      <c r="J171" s="4" t="s">
-        <v>3666</v>
+        <v>3451</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>3324</v>
+      </c>
+      <c r="I171" s="7" t="s">
+        <v>3798</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>3667</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
@@ -16655,10 +16575,10 @@
         <v>3282</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>3283</v>
@@ -16667,16 +16587,19 @@
         <v>3283</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>3595</v>
+        <v>3432</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>3668</v>
-      </c>
-      <c r="J172" s="4" t="s">
-        <v>3669</v>
+        <v>3449</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>3798</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>3670</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
@@ -16684,10 +16607,10 @@
         <v>3282</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>3283</v>
@@ -16696,16 +16619,19 @@
         <v>3283</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>3600</v>
+        <v>3432</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>3618</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>3671</v>
+        <v>3447</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>3798</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>3671</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
@@ -16713,10 +16639,10 @@
         <v>3282</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>3283</v>
@@ -16725,16 +16651,19 @@
         <v>3283</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>3606</v>
+        <v>3432</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>3672</v>
-      </c>
-      <c r="J174" s="4" t="s">
-        <v>3673</v>
+        <v>3445</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>3798</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>3673</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
@@ -16742,10 +16671,10 @@
         <v>3282</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>3283</v>
@@ -16754,16 +16683,22 @@
         <v>3283</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>3638</v>
+        <v>3432</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>3614</v>
+        <v>3435</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>3674</v>
+        <v>3135</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>3674</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
@@ -16771,10 +16706,10 @@
         <v>3282</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>3283</v>
@@ -16783,16 +16718,22 @@
         <v>3283</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>3606</v>
+        <v>3432</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>3607</v>
+        <v>3433</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>3675</v>
+        <v>3136</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>3675</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -16800,10 +16741,10 @@
         <v>3282</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>3283</v>
@@ -16812,16 +16753,19 @@
         <v>3283</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>3595</v>
+        <v>3432</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>3676</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>1066</v>
+        <v>3443</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>3798</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>1066</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
@@ -16829,10 +16773,10 @@
         <v>3282</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>3283</v>
@@ -16841,16 +16785,22 @@
         <v>3283</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>3600</v>
+        <v>3432</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>3618</v>
+        <v>3436</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>3677</v>
+        <v>3134</v>
       </c>
       <c r="K178" s="4" t="s">
-        <v>3677</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -16858,7 +16808,7 @@
         <v>3282</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>3594</v>
+        <v>3428</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>3282</v>
@@ -16870,22 +16820,19 @@
         <v>3283</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>3600</v>
+        <v>3432</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>3678</v>
+        <v>3441</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>3128</v>
+        <v>3343</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>3798</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>3128</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
@@ -16893,7 +16840,7 @@
         <v>3282</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>3594</v>
+        <v>3483</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>3797</v>
@@ -16905,77 +16852,74 @@
         <v>3283</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>3679</v>
+        <v>3484</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>3679</v>
+        <v>3490</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>3680</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>3681</v>
+        <v>3282</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>3681</v>
+        <v>3383</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>3681</v>
+        <v>3797</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>3681</v>
+        <v>3283</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>3681</v>
+        <v>3283</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>3682</v>
+        <v>3405</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>3683</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I181" s="4" t="s">
-        <v>3798</v>
+        <v>3408</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>3684</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>3681</v>
+        <v>3282</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>3681</v>
+        <v>3428</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>3681</v>
+        <v>3282</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>3681</v>
+        <v>3283</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>3681</v>
+        <v>3283</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>3438</v>
+        <v>3429</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>3685</v>
+        <v>3430</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>3343</v>
+        <v>4</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>3798</v>
       </c>
+      <c r="J182" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="K182" s="4" t="s">
-        <v>3686</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -16983,7 +16927,7 @@
         <v>3282</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>3687</v>
+        <v>3509</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>3797</v>
@@ -16995,13 +16939,13 @@
         <v>3283</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>3687</v>
+        <v>3509</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>3688</v>
+        <v>3528</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>3689</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -17009,7 +16953,7 @@
         <v>3282</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>3687</v>
+        <v>3594</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>3797</v>
@@ -17021,13 +16965,16 @@
         <v>3283</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>3687</v>
+        <v>3638</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>3690</v>
+        <v>3639</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>1058</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>3691</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -17050,13 +16997,10 @@
         <v>3693</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>3694</v>
-      </c>
-      <c r="J185" s="4" t="s">
-        <v>1554</v>
+        <v>3702</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>1554</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -17064,7 +17008,7 @@
         <v>3282</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>3692</v>
+        <v>3594</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>3797</v>
@@ -17076,13 +17020,16 @@
         <v>3283</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>3695</v>
+        <v>3417</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>3695</v>
+        <v>3791</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>1556</v>
       </c>
       <c r="K186" s="4" t="s">
-        <v>3696</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -17090,10 +17037,10 @@
         <v>3282</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>3692</v>
+        <v>3594</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>3797</v>
+        <v>3282</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>3283</v>
@@ -17102,13 +17049,22 @@
         <v>3283</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>3693</v>
+        <v>3417</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>3697</v>
+        <v>3793</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>3794</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>3698</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -17116,7 +17072,7 @@
         <v>3282</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>3692</v>
+        <v>3594</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>3797</v>
@@ -17128,13 +17084,16 @@
         <v>3283</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>3693</v>
+        <v>3606</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>3699</v>
+        <v>3607</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>1063</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>3700</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -17142,7 +17101,7 @@
         <v>3282</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>3692</v>
+        <v>3594</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>3797</v>
@@ -17154,13 +17113,16 @@
         <v>3283</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>3693</v>
+        <v>3606</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>3692</v>
+        <v>3607</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>3630</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>3701</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -17168,7 +17130,7 @@
         <v>3282</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>3692</v>
+        <v>3594</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>3797</v>
@@ -17180,13 +17142,16 @@
         <v>3283</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>3693</v>
+        <v>3606</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>3702</v>
+        <v>3607</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>3675</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>3703</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -17194,7 +17159,7 @@
         <v>3282</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>3692</v>
+        <v>3594</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>3797</v>
@@ -17206,13 +17171,16 @@
         <v>3283</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>3693</v>
+        <v>3606</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>3704</v>
+        <v>3607</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>3779</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>3705</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -17220,25 +17188,25 @@
         <v>3282</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>3692</v>
+        <v>3579</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>3693</v>
+        <v>3580</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>3706</v>
+        <v>3585</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>3707</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -17246,7 +17214,7 @@
         <v>3282</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>3692</v>
+        <v>3509</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>3797</v>
@@ -17258,91 +17226,112 @@
         <v>3283</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>3693</v>
+        <v>3509</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>3708</v>
+        <v>3526</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>3709</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>3282</v>
+        <v>3681</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>3692</v>
+        <v>3681</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>3797</v>
+        <v>3681</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>3283</v>
+        <v>3681</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>3283</v>
+        <v>3681</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>3693</v>
+        <v>3682</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>3710</v>
+        <v>3795</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>3711</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>3282</v>
+        <v>3681</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>3692</v>
+        <v>3681</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>3797</v>
+        <v>3681</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>3283</v>
+        <v>3681</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>3283</v>
+        <v>3681</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>3693</v>
+        <v>3438</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>3712</v>
+        <v>3685</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>3713</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>3282</v>
+        <v>3681</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>3692</v>
+        <v>3681</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>3797</v>
+        <v>3681</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>3283</v>
+        <v>3681</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>3283</v>
+        <v>3681</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>3706</v>
+        <v>3682</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>3714</v>
+        <v>3683</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>3715</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -17350,25 +17339,25 @@
         <v>3282</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>3692</v>
+        <v>3417</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>3712</v>
+        <v>3417</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>3712</v>
+        <v>3470</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>3716</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -17376,7 +17365,7 @@
         <v>3282</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>3483</v>
+        <v>3509</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>3797</v>
@@ -17388,13 +17377,13 @@
         <v>3283</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>3417</v>
+        <v>3523</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>3417</v>
+        <v>3524</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>3717</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -17402,28 +17391,28 @@
         <v>3314</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>3313</v>
+        <v>3377</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>3313</v>
+        <v>3377</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>3313</v>
+        <v>3377</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>3313</v>
+        <v>3377</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>3718</v>
+        <v>3378</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>3718</v>
+        <v>1</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>3268</v>
+        <v>119</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>3719</v>
+        <v>119</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
@@ -17431,7 +17420,7 @@
         <v>3282</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>3281</v>
+        <v>3383</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>3797</v>
@@ -17443,13 +17432,13 @@
         <v>3283</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>3281</v>
+        <v>3405</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>3720</v>
+        <v>3406</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>3721</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -17457,7 +17446,7 @@
         <v>3282</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>3281</v>
+        <v>3687</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>3797</v>
@@ -17469,13 +17458,13 @@
         <v>3283</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>3281</v>
+        <v>3687</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>3722</v>
+        <v>3690</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>3723</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -17483,7 +17472,7 @@
         <v>3282</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>3281</v>
+        <v>3687</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>3797</v>
@@ -17495,39 +17484,45 @@
         <v>3283</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>3281</v>
+        <v>3687</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>3724</v>
+        <v>3688</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>3725</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>3282</v>
+        <v>3314</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>3281</v>
+        <v>3313</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>3797</v>
+        <v>3313</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>3281</v>
+        <v>3322</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>3726</v>
+        <v>3323</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>3324</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>3798</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>3727</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
@@ -17535,7 +17530,7 @@
         <v>3282</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>3797</v>
@@ -17547,13 +17542,16 @@
         <v>3283</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>3728</v>
+        <v>3787</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>3782</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>3729</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
@@ -17561,7 +17559,7 @@
         <v>3282</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>3797</v>
@@ -17573,13 +17571,16 @@
         <v>3283</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>3730</v>
+        <v>3610</v>
+      </c>
+      <c r="J205" s="4" t="s">
+        <v>3608</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>3731</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
@@ -17587,7 +17588,7 @@
         <v>3282</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>3797</v>
@@ -17599,13 +17600,16 @@
         <v>3283</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>3732</v>
+        <v>3610</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>3633</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>3733</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
@@ -17613,7 +17617,7 @@
         <v>3282</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>3797</v>
@@ -17625,13 +17629,16 @@
         <v>3283</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>3734</v>
+        <v>3610</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>3666</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>3735</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
@@ -17639,7 +17646,7 @@
         <v>3282</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>3797</v>
@@ -17651,13 +17658,16 @@
         <v>3283</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>3736</v>
+        <v>3604</v>
+      </c>
+      <c r="J208" s="4" t="s">
+        <v>3603</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>3737</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
@@ -17665,7 +17675,7 @@
         <v>3282</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>3797</v>
@@ -17677,13 +17687,16 @@
         <v>3283</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>3738</v>
+        <v>3598</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>3599</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>3739</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -17691,7 +17704,7 @@
         <v>3282</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>3797</v>
@@ -17703,13 +17716,16 @@
         <v>3283</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>3740</v>
+        <v>3662</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>3318</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>3741</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -17717,7 +17733,7 @@
         <v>3282</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>3797</v>
@@ -17729,13 +17745,16 @@
         <v>3283</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>3742</v>
+        <v>3786</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>3780</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>3743</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -17743,7 +17762,7 @@
         <v>3282</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>3797</v>
@@ -17755,13 +17774,16 @@
         <v>3283</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>3744</v>
+        <v>3596</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>3597</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>3745</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -17769,7 +17791,7 @@
         <v>3282</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>3797</v>
@@ -17781,13 +17803,16 @@
         <v>3283</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>3746</v>
+        <v>3596</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>1062</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>3747</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
@@ -17795,7 +17820,7 @@
         <v>3282</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>3797</v>
@@ -17807,13 +17832,16 @@
         <v>3283</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>3748</v>
+        <v>3622</v>
+      </c>
+      <c r="J214" s="4" t="s">
+        <v>3619</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>3749</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -17821,7 +17849,7 @@
         <v>3282</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>3797</v>
@@ -17833,13 +17861,16 @@
         <v>3283</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>3281</v>
+        <v>3595</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>3750</v>
+        <v>3634</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>3632</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>3751</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -17847,25 +17878,25 @@
         <v>3282</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>3281</v>
+        <v>3579</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>3281</v>
+        <v>3580</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>3752</v>
+        <v>3583</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>3753</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -17873,7 +17904,7 @@
         <v>3282</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>3797</v>
@@ -17885,13 +17916,16 @@
         <v>3283</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>3281</v>
+        <v>3606</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>3754</v>
+        <v>3611</v>
+      </c>
+      <c r="J217" s="4" t="s">
+        <v>1064</v>
       </c>
       <c r="K217" s="4" t="s">
-        <v>3755</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
@@ -17899,7 +17933,7 @@
         <v>3282</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>3797</v>
@@ -17911,13 +17945,16 @@
         <v>3283</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>3281</v>
+        <v>3606</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>3756</v>
+        <v>3611</v>
+      </c>
+      <c r="J218" s="4" t="s">
+        <v>1065</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>3757</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
@@ -17925,7 +17962,7 @@
         <v>3282</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>3797</v>
@@ -17937,13 +17974,16 @@
         <v>3283</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>3281</v>
+        <v>3606</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>3758</v>
+        <v>3672</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>3673</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>3759</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
@@ -17951,25 +17991,25 @@
         <v>3282</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>3281</v>
+        <v>3417</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>3281</v>
+        <v>3467</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>3760</v>
+        <v>3468</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>3761</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
@@ -17977,7 +18017,7 @@
         <v>3282</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>3281</v>
+        <v>3692</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>3797</v>
@@ -17989,13 +18029,13 @@
         <v>3283</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>3281</v>
+        <v>3693</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>3762</v>
+        <v>3692</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>3763</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
@@ -18003,7 +18043,7 @@
         <v>3282</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>3692</v>
+        <v>3383</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>3797</v>
@@ -18015,13 +18055,13 @@
         <v>3283</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>3712</v>
+        <v>3417</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>3699</v>
+        <v>3422</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>3764</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -18029,7 +18069,7 @@
         <v>3282</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>3281</v>
+        <v>3509</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>3797</v>
@@ -18041,13 +18081,13 @@
         <v>3283</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>3281</v>
+        <v>3509</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>3765</v>
+        <v>3521</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>3766</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -18055,7 +18095,7 @@
         <v>3282</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>3281</v>
+        <v>3594</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>3797</v>
@@ -18067,13 +18107,16 @@
         <v>3283</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>3281</v>
+        <v>3600</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>3767</v>
+        <v>3631</v>
+      </c>
+      <c r="J224" s="4" t="s">
+        <v>3628</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>3768</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -18081,7 +18124,7 @@
         <v>3282</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>3281</v>
+        <v>3383</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>3797</v>
@@ -18093,13 +18136,16 @@
         <v>3283</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>3281</v>
+        <v>3384</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>3769</v>
+        <v>3385</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>3770</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
@@ -18113,19 +18159,19 @@
         <v>3797</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>3389</v>
+        <v>3283</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>3389</v>
+        <v>3283</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>3390</v>
+        <v>3384</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>3771</v>
+        <v>3403</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>3772</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -18133,28 +18179,25 @@
         <v>3282</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>3417</v>
+        <v>3692</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>3460</v>
+        <v>3283</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>3417</v>
+        <v>3283</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>3773</v>
+        <v>3712</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>3773</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>118</v>
+        <v>3699</v>
       </c>
       <c r="K227" s="4" t="s">
-        <v>3774</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
@@ -18162,7 +18205,7 @@
         <v>3282</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>3509</v>
+        <v>3692</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>3797</v>
@@ -18174,13 +18217,13 @@
         <v>3283</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>3523</v>
+        <v>3712</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>3775</v>
+        <v>3699</v>
       </c>
       <c r="K228" s="4" t="s">
-        <v>3776</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
@@ -18188,7 +18231,7 @@
         <v>3282</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>3594</v>
+        <v>3509</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>3797</v>
@@ -18200,16 +18243,13 @@
         <v>3283</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>3600</v>
+        <v>3509</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>3601</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>1069</v>
+        <v>3519</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>3777</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
@@ -18217,7 +18257,7 @@
         <v>3282</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>3594</v>
+        <v>3483</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>3797</v>
@@ -18229,16 +18269,13 @@
         <v>3283</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>3606</v>
+        <v>3484</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>3778</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>3636</v>
+        <v>3488</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>3779</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
@@ -18261,13 +18298,13 @@
         <v>3595</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>3596</v>
+        <v>3614</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>1062</v>
+        <v>3612</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>3780</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
@@ -18287,45 +18324,42 @@
         <v>3283</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>3606</v>
+        <v>3638</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>3781</v>
+        <v>3614</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>3640</v>
+        <v>3674</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>3782</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>3282</v>
+        <v>3544</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>3594</v>
+        <v>3544</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>3797</v>
+        <v>3545</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>3283</v>
+        <v>3545</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>3283</v>
+        <v>3545</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>3606</v>
+        <v>3546</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>3783</v>
-      </c>
-      <c r="J233" s="4" t="s">
-        <v>3777</v>
+        <v>3549</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>1065</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
@@ -18333,7 +18367,7 @@
         <v>3282</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>3594</v>
+        <v>3692</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>3797</v>
@@ -18345,16 +18379,13 @@
         <v>3283</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>3606</v>
+        <v>3712</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>3784</v>
-      </c>
-      <c r="J234" s="4" t="s">
-        <v>3316</v>
+        <v>3799</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>3785</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -18362,7 +18393,7 @@
         <v>3282</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>3594</v>
+        <v>3692</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>3797</v>
@@ -18374,16 +18405,13 @@
         <v>3283</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>3606</v>
+        <v>3712</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>3607</v>
-      </c>
-      <c r="J235" s="4" t="s">
-        <v>3779</v>
+        <v>3799</v>
       </c>
       <c r="K235" s="4" t="s">
-        <v>3664</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
@@ -18391,7 +18419,7 @@
         <v>3282</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>3594</v>
+        <v>3281</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>3797</v>
@@ -18403,16 +18431,13 @@
         <v>3283</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>3595</v>
+        <v>3284</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>3786</v>
-      </c>
-      <c r="J236" s="4" t="s">
-        <v>3780</v>
+        <v>3285</v>
       </c>
       <c r="K236" s="4" t="s">
-        <v>3666</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
@@ -18420,7 +18445,7 @@
         <v>3282</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>3594</v>
+        <v>3383</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>3797</v>
@@ -18432,16 +18457,13 @@
         <v>3283</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>3595</v>
+        <v>3384</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>3787</v>
-      </c>
-      <c r="J237" s="4" t="s">
-        <v>3782</v>
+        <v>3401</v>
       </c>
       <c r="K237" s="4" t="s">
-        <v>3669</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
@@ -18449,28 +18471,25 @@
         <v>3282</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>3594</v>
+        <v>3579</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>3797</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>3283</v>
+        <v>3460</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>3606</v>
+        <v>3580</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>3788</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>3641</v>
+        <v>3581</v>
       </c>
       <c r="K238" s="4" t="s">
-        <v>3789</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
@@ -18490,16 +18509,16 @@
         <v>3283</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>3606</v>
+        <v>3595</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>3609</v>
+        <v>3668</v>
       </c>
       <c r="J239" s="4" t="s">
-        <v>3790</v>
+        <v>3669</v>
       </c>
       <c r="K239" s="4" t="s">
-        <v>3790</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -18519,16 +18538,16 @@
         <v>3283</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>3417</v>
+        <v>3595</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>3791</v>
+        <v>3613</v>
       </c>
       <c r="J240" s="4" t="s">
-        <v>1556</v>
+        <v>1154</v>
       </c>
       <c r="K240" s="4" t="s">
-        <v>3792</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
@@ -18539,7 +18558,7 @@
         <v>3594</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>3282</v>
+        <v>3797</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>3283</v>
@@ -18548,57 +18567,42 @@
         <v>3283</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>3417</v>
+        <v>3595</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>3793</v>
-      </c>
-      <c r="H241" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I241" s="4" t="s">
-        <v>3798</v>
+        <v>3605</v>
       </c>
       <c r="J241" s="4" t="s">
-        <v>3794</v>
+        <v>1061</v>
       </c>
       <c r="K241" s="4" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>3681</v>
+        <v>3282</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>3681</v>
+        <v>3692</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>3681</v>
+        <v>3797</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>3681</v>
+        <v>3283</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>3681</v>
+        <v>3283</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>3682</v>
+        <v>3693</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>3795</v>
-      </c>
-      <c r="H242" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I242" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="J242" s="4" t="s">
-        <v>126</v>
+        <v>3697</v>
       </c>
       <c r="K242" s="4" t="s">
-        <v>3796</v>
+        <v>3698</v>
       </c>
     </row>
   </sheetData>
@@ -18660,8 +18664,8 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19190,6 +19194,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84908296-37BF-D346-B3B9-642E5F7D75E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1F97CA-5E51-B84B-BA27-DC36D746EAE7}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:D3011"/>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A995A60B-58CB-4B40-A389-D4B1C1E4AFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD35AAC-BA68-2943-9940-7E7FBB3A0380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="500" windowWidth="34200" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="3540" yWindow="860" windowWidth="30660" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14256" uniqueCount="3800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14264" uniqueCount="3802">
   <si>
     <t>projeto</t>
   </si>
@@ -11446,6 +11446,12 @@
   </si>
   <si>
     <t>Aplicativo de transporte</t>
+  </si>
+  <si>
+    <t>Decoração</t>
+  </si>
+  <si>
+    <t>7040200100073</t>
   </si>
 </sst>
 </file>
@@ -11832,11 +11838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
-  <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:K242"/>
+  <sheetPr codeName="Planilha1" filterMode="1"/>
+  <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K243" sqref="K243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11889,7 +11895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3282</v>
       </c>
@@ -11915,7 +11921,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3282</v>
       </c>
@@ -11941,7 +11947,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3314</v>
       </c>
@@ -11973,7 +11979,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3314</v>
       </c>
@@ -12005,7 +12011,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3314</v>
       </c>
@@ -12037,7 +12043,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>3314</v>
       </c>
@@ -12066,7 +12072,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3314</v>
       </c>
@@ -12098,7 +12104,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>3314</v>
       </c>
@@ -12130,7 +12136,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>3314</v>
       </c>
@@ -12162,7 +12168,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>3314</v>
       </c>
@@ -12191,7 +12197,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>3314</v>
       </c>
@@ -12217,7 +12223,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12243,7 +12249,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>3314</v>
       </c>
@@ -12278,7 +12284,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12304,7 +12310,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12333,7 +12339,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12362,7 +12368,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12391,7 +12397,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12420,7 +12426,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12446,7 +12452,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12472,7 +12478,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12498,7 +12504,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12524,7 +12530,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12550,7 +12556,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12576,7 +12582,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12602,7 +12608,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12628,7 +12634,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12654,7 +12660,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12680,7 +12686,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12706,7 +12712,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12732,7 +12738,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12758,7 +12764,7 @@
         <v>3661</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12784,7 +12790,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12810,7 +12816,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12836,7 +12842,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12862,7 +12868,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12888,7 +12894,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12914,7 +12920,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12940,7 +12946,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12966,7 +12972,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>3282</v>
       </c>
@@ -12992,7 +12998,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13018,7 +13024,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13044,7 +13050,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13070,7 +13076,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13096,7 +13102,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13122,7 +13128,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13148,7 +13154,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13174,7 +13180,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13200,7 +13206,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13226,7 +13232,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13252,7 +13258,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13278,7 +13284,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13304,7 +13310,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13330,7 +13336,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13356,7 +13362,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13382,7 +13388,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13408,7 +13414,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13434,7 +13440,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13460,7 +13466,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13486,7 +13492,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13512,7 +13518,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13538,7 +13544,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13564,7 +13570,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13590,7 +13596,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13616,7 +13622,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13642,7 +13648,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13668,7 +13674,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13694,7 +13700,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13720,7 +13726,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13746,7 +13752,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13772,7 +13778,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13798,7 +13804,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>3282</v>
       </c>
@@ -13824,7 +13830,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>3314</v>
       </c>
@@ -13856,7 +13862,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>3314</v>
       </c>
@@ -13888,7 +13894,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>3314</v>
       </c>
@@ -13920,7 +13926,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>3314</v>
       </c>
@@ -13952,7 +13958,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>3314</v>
       </c>
@@ -13984,7 +13990,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14016,7 +14022,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14048,7 +14054,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14080,7 +14086,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14112,7 +14118,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14144,7 +14150,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14176,7 +14182,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14202,7 +14208,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14231,7 +14237,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14260,7 +14266,7 @@
         <v>3608</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14289,7 +14295,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14315,7 +14321,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14341,7 +14347,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14367,7 +14373,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14393,7 +14399,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14419,7 +14425,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14448,7 +14454,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14474,7 +14480,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14503,7 +14509,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14532,7 +14538,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14558,7 +14564,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14587,7 +14593,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14616,7 +14622,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14642,7 +14648,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14668,7 +14674,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14694,7 +14700,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14720,7 +14726,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14746,7 +14752,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14772,7 +14778,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14798,7 +14804,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14824,7 +14830,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14853,7 +14859,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14879,7 +14885,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14908,7 +14914,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14940,7 +14946,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14969,7 +14975,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>3282</v>
       </c>
@@ -14995,7 +15001,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15024,7 +15030,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15050,7 +15056,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>3544</v>
       </c>
@@ -15079,7 +15085,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15108,7 +15114,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15134,7 +15140,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15160,7 +15166,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15189,7 +15195,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15218,7 +15224,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15247,7 +15253,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15276,7 +15282,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15305,7 +15311,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15334,7 +15340,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15363,7 +15369,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15392,7 +15398,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15421,7 +15427,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15450,7 +15456,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15476,7 +15482,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15502,7 +15508,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15528,7 +15534,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15554,7 +15560,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>3314</v>
       </c>
@@ -15586,7 +15592,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>3314</v>
       </c>
@@ -15618,7 +15624,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>3314</v>
       </c>
@@ -15650,7 +15656,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15676,7 +15682,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15737,7 +15743,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15766,7 +15772,7 @@
         <v>3621</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15792,7 +15798,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15818,7 +15824,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15844,7 +15850,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>3314</v>
       </c>
@@ -15896,7 +15902,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>3544</v>
       </c>
@@ -15922,7 +15928,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15948,7 +15954,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15974,7 +15980,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16000,7 +16006,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16026,7 +16032,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16052,7 +16058,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16078,7 +16084,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16104,7 +16110,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16130,7 +16136,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16156,7 +16162,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16182,7 +16188,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16208,7 +16214,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16234,7 +16240,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16260,7 +16266,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16286,7 +16292,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16312,7 +16318,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16338,7 +16344,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16364,7 +16370,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16390,7 +16396,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16416,7 +16422,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16442,7 +16448,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16474,7 +16480,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16506,7 +16512,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16538,7 +16544,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16570,7 +16576,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16602,7 +16608,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16634,7 +16640,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16666,7 +16672,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16701,7 +16707,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16736,7 +16742,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16768,7 +16774,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16803,7 +16809,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16835,7 +16841,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16861,7 +16867,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16887,7 +16893,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16922,7 +16928,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16948,7 +16954,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>3282</v>
       </c>
@@ -16977,7 +16983,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17003,7 +17009,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17032,7 +17038,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17067,7 +17073,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17096,7 +17102,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17125,7 +17131,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17154,7 +17160,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17209,7 +17215,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17235,7 +17241,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>3681</v>
       </c>
@@ -17270,7 +17276,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>3681</v>
       </c>
@@ -17302,7 +17308,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>3681</v>
       </c>
@@ -17334,7 +17340,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17360,7 +17366,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17386,7 +17392,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>3314</v>
       </c>
@@ -17415,7 +17421,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17441,7 +17447,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17467,7 +17473,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17493,7 +17499,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>3314</v>
       </c>
@@ -17525,7 +17531,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17554,7 +17560,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17583,7 +17589,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17612,7 +17618,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17641,7 +17647,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17670,7 +17676,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17699,7 +17705,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17728,7 +17734,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17757,7 +17763,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17786,7 +17792,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17815,7 +17821,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17844,7 +17850,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17899,7 +17905,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17928,7 +17934,7 @@
         <v>3612</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17957,7 +17963,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17986,7 +17992,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18012,7 +18018,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18038,7 +18044,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18064,7 +18070,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18090,7 +18096,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18119,7 +18125,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18148,7 +18154,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18174,7 +18180,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18200,7 +18206,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18226,7 +18232,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18252,7 +18258,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18278,7 +18284,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18307,7 +18313,7 @@
         <v>3615</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18336,7 +18342,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>3544</v>
       </c>
@@ -18362,7 +18368,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18388,7 +18394,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18414,7 +18420,7 @@
         <v>3716</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18440,7 +18446,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18492,7 +18498,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18521,7 +18527,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18550,7 +18556,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18579,7 +18585,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18605,8 +18611,40 @@
         <v>3698</v>
       </c>
     </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>3800</v>
+      </c>
+      <c r="K243" s="4" t="s">
+        <v>3801</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K242" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}"/>
+  <autoFilter ref="A1:K242" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Despesas de Escritório"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD35AAC-BA68-2943-9940-7E7FBB3A0380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79197608-E132-C845-91D3-18465E883F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="860" windowWidth="30660" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">book!$A$1:$I$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$K$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$K$243</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">conciliations!$A$1:$D$5187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha1!$A$1:$D$3002</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14264" uniqueCount="3802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14274" uniqueCount="3804">
   <si>
     <t>projeto</t>
   </si>
@@ -11451,7 +11451,13 @@
     <t>Decoração</t>
   </si>
   <si>
-    <t>7040200100073</t>
+    <t>704020010007</t>
+  </si>
+  <si>
+    <t>Setupfee - Conexões Games</t>
+  </si>
+  <si>
+    <t>502010010014</t>
   </si>
 </sst>
 </file>
@@ -11839,10 +11845,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
   <sheetPr codeName="Planilha1" filterMode="1"/>
-  <dimension ref="A1:K243"/>
+  <dimension ref="A1:K244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K243" sqref="K243"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K245" sqref="K245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13830,7 +13836,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>3314</v>
       </c>
@@ -13862,7 +13868,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>3314</v>
       </c>
@@ -13894,7 +13900,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>3314</v>
       </c>
@@ -13926,7 +13932,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>3314</v>
       </c>
@@ -13958,7 +13964,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>3314</v>
       </c>
@@ -13990,7 +13996,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14022,7 +14028,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14054,7 +14060,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14086,7 +14092,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14118,7 +14124,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>3314</v>
       </c>
@@ -14150,7 +14156,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>3314</v>
       </c>
@@ -15717,7 +15723,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>3282</v>
       </c>
@@ -15876,7 +15882,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17189,7 +17195,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>3282</v>
       </c>
@@ -17879,7 +17885,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18472,7 +18478,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18611,7 +18617,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>3282</v>
       </c>
@@ -18637,11 +18643,53 @@
         <v>3801</v>
       </c>
     </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>3802</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="K244" s="4" t="s">
+        <v>3803</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K242" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
-    <filterColumn colId="5">
+  <autoFilter ref="A1:K243" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
+    <filterColumn colId="6">
       <filters>
-        <filter val="Despesas de Escritório"/>
+        <filter val="Setupfee - Ambev"/>
+        <filter val="Setupfee - Beats"/>
+        <filter val="Setupfee - Coca Cola"/>
+        <filter val="Setupfee - Fitdance"/>
+        <filter val="Setupfee - Guaraná Antartica"/>
+        <filter val="Setupfee - Los Grandes"/>
+        <filter val="Setupfee - Mynt"/>
+        <filter val="Setupfee - Nestle"/>
+        <filter val="Setupfee - Penta Hotels"/>
+        <filter val="Setupfee - Reserva X"/>
+        <filter val="Setupfee - Sato"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79197608-E132-C845-91D3-18465E883F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB75D88-A6B2-F747-9B0F-5FC78EB9AE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="860" windowWidth="30660" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="5000" yWindow="920" windowWidth="30660" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">book!$A$1:$I$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$K$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categories!$A$1:$L$244</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">conciliations!$A$1:$D$5187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha1!$A$1:$D$3002</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14274" uniqueCount="3804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12179" uniqueCount="3282">
   <si>
     <t>projeto</t>
   </si>
@@ -9891,1573 +9891,7 @@
     <t>produto</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Custo</t>
-  </si>
-  <si>
-    <t>Custos Operacionais</t>
-  </si>
-  <si>
-    <t>Api</t>
-  </si>
-  <si>
-    <t>Api - Twitter</t>
-  </si>
-  <si>
-    <t>708010020001</t>
-  </si>
-  <si>
-    <t>Software - Pinata</t>
-  </si>
-  <si>
-    <t>708010010033</t>
-  </si>
-  <si>
-    <t>Software - Pipedrive</t>
-  </si>
-  <si>
-    <t>708010010034</t>
-  </si>
-  <si>
-    <t>Software - Pitch.Com</t>
-  </si>
-  <si>
-    <t>708010010035</t>
-  </si>
-  <si>
-    <t>Software - Postman</t>
-  </si>
-  <si>
-    <t>708010010042</t>
-  </si>
-  <si>
-    <t>Software - Slack</t>
-  </si>
-  <si>
-    <t>708010010036</t>
-  </si>
-  <si>
-    <t>Software - Tweetshift</t>
-  </si>
-  <si>
-    <t>708010010038</t>
-  </si>
-  <si>
-    <t>Software - Webflow</t>
-  </si>
-  <si>
-    <t>708010010039</t>
-  </si>
-  <si>
-    <t>Software - Zeplin</t>
-  </si>
-  <si>
-    <t>708010010040</t>
-  </si>
-  <si>
-    <t>Software - Docusign</t>
-  </si>
-  <si>
-    <t>708010010048</t>
-  </si>
-  <si>
-    <t>Software - 1password</t>
-  </si>
-  <si>
-    <t>708010010047</t>
-  </si>
-  <si>
-    <t>Software - Clickup</t>
-  </si>
-  <si>
-    <t>708010010009</t>
-  </si>
-  <si>
-    <t>Software - Moralis</t>
-  </si>
-  <si>
-    <t>708010010045</t>
-  </si>
-  <si>
-    <t>Software - Retool</t>
-  </si>
-  <si>
-    <t>708010010049</t>
-  </si>
-  <si>
-    <t>Receita Operacional</t>
-  </si>
-  <si>
-    <t>Receita</t>
-  </si>
-  <si>
-    <t>Venda Secundária</t>
-  </si>
-  <si>
-    <t>0x44188803</t>
-  </si>
-  <si>
-    <t>Venda Primária</t>
-  </si>
-  <si>
-    <t>0x3e18e33f</t>
-  </si>
-  <si>
-    <t>Licenciação Plataforma</t>
-  </si>
-  <si>
-    <t>Utilização Plataforma - Whale Together</t>
-  </si>
-  <si>
-    <t>502020010001</t>
-  </si>
-  <si>
-    <t>Consultoria</t>
-  </si>
-  <si>
-    <t>Consultoria - Guaraná Antartica</t>
-  </si>
-  <si>
-    <t>Guaraná Antartica</t>
-  </si>
-  <si>
-    <t>502010040001</t>
-  </si>
-  <si>
-    <t>Manutenção</t>
-  </si>
-  <si>
-    <t>Manutenção - Dux</t>
-  </si>
-  <si>
-    <t>Dux</t>
-  </si>
-  <si>
-    <t>502020020003</t>
-  </si>
-  <si>
-    <t>Manutenção - Fitdance</t>
-  </si>
-  <si>
-    <t>Fitdance</t>
-  </si>
-  <si>
-    <t>502020020002</t>
-  </si>
-  <si>
-    <t>Manutenção - Vex</t>
-  </si>
-  <si>
-    <t>Vex</t>
-  </si>
-  <si>
-    <t>502020020001</t>
-  </si>
-  <si>
-    <t>Receita Setup Fee</t>
-  </si>
-  <si>
-    <t>Setupfee - Ambev</t>
-  </si>
-  <si>
-    <t>Beats</t>
-  </si>
-  <si>
-    <t>502010010001</t>
-  </si>
-  <si>
-    <t>Setupfee - Beats</t>
-  </si>
-  <si>
-    <t>502010010012</t>
-  </si>
-  <si>
-    <t>Setupfee - Coca Cola</t>
-  </si>
-  <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>502010010003</t>
-  </si>
-  <si>
-    <t>Setupfee - Fitdance</t>
-  </si>
-  <si>
-    <t>502010010005</t>
-  </si>
-  <si>
-    <t>Setupfee - Guaraná Antartica</t>
-  </si>
-  <si>
-    <t>502010010006</t>
-  </si>
-  <si>
-    <t>Setupfee - Los Grandes</t>
-  </si>
-  <si>
-    <t>Los Grandes</t>
-  </si>
-  <si>
-    <t>502010010011</t>
-  </si>
-  <si>
-    <t>Setupfee - Mynt</t>
-  </si>
-  <si>
-    <t>502010010007</t>
-  </si>
-  <si>
-    <t>Setupfee - Nestle</t>
-  </si>
-  <si>
-    <t>Nestle</t>
-  </si>
-  <si>
-    <t>502010010013</t>
-  </si>
-  <si>
-    <t>Setupfee - Penta Hotels</t>
-  </si>
-  <si>
-    <t>502010010008</t>
-  </si>
-  <si>
-    <t>Setupfee - Reserva X</t>
-  </si>
-  <si>
-    <t>Reserva X</t>
-  </si>
-  <si>
-    <t>502010010009</t>
-  </si>
-  <si>
-    <t>Setupfee - Sato</t>
-  </si>
-  <si>
-    <t>Sato</t>
-  </si>
-  <si>
-    <t>502010010010</t>
-  </si>
-  <si>
-    <t>Venda Primária - 55unity</t>
-  </si>
-  <si>
-    <t>502010020003</t>
-  </si>
-  <si>
-    <t>Venda Primária - Reservax</t>
-  </si>
-  <si>
-    <t>502010020004</t>
-  </si>
-  <si>
-    <t>Venda Primária - Seamore</t>
-  </si>
-  <si>
-    <t>502010020005</t>
-  </si>
-  <si>
-    <t>Venda Secundária - 55unity</t>
-  </si>
-  <si>
-    <t>502010030002</t>
-  </si>
-  <si>
-    <t>Venda Secundária - Reservax</t>
-  </si>
-  <si>
-    <t>502010030003</t>
-  </si>
-  <si>
-    <t>Venda Secundária - Seamore</t>
-  </si>
-  <si>
-    <t>502010030004</t>
-  </si>
-  <si>
-    <t>Receita Financeira</t>
-  </si>
-  <si>
-    <t>Variação Monetária</t>
-  </si>
-  <si>
-    <t>Rentabilidade Conta Corrente</t>
-  </si>
-  <si>
-    <t>Investimentos</t>
-  </si>
-  <si>
-    <t>50101005</t>
-  </si>
-  <si>
-    <t>50101004</t>
-  </si>
-  <si>
-    <t>Pessoal</t>
-  </si>
-  <si>
-    <t>Despesas com Pessoal</t>
-  </si>
-  <si>
-    <t>Bônus</t>
-  </si>
-  <si>
-    <t>50101003</t>
-  </si>
-  <si>
-    <t>Prestação de Serviços</t>
-  </si>
-  <si>
-    <t>706010010005</t>
-  </si>
-  <si>
-    <t>Impostos</t>
-  </si>
-  <si>
-    <t>Imposto Pessoal</t>
-  </si>
-  <si>
-    <t>Imposto - Inss</t>
-  </si>
-  <si>
-    <t>707010010014</t>
-  </si>
-  <si>
-    <t>Imposto - Irrf</t>
-  </si>
-  <si>
-    <t>707010010016</t>
-  </si>
-  <si>
-    <t>Imposto - Contribuição</t>
-  </si>
-  <si>
-    <t>707010010002</t>
-  </si>
-  <si>
-    <t>Imposto - Contribuição Patronal</t>
-  </si>
-  <si>
-    <t>707010010003</t>
-  </si>
-  <si>
-    <t>Imposto - Contribuição Social</t>
-  </si>
-  <si>
-    <t>707010010004</t>
-  </si>
-  <si>
-    <t>Antecipação de Dividendo</t>
-  </si>
-  <si>
-    <t>706010010001</t>
-  </si>
-  <si>
-    <t>Bolsa Auxílio Estágio</t>
-  </si>
-  <si>
-    <t>706010010002</t>
-  </si>
-  <si>
-    <t>Serviços Pontuais</t>
-  </si>
-  <si>
-    <t>Convênio Estágio</t>
-  </si>
-  <si>
-    <t>706010020005</t>
-  </si>
-  <si>
-    <t>Fiverr</t>
-  </si>
-  <si>
-    <t>706010020001</t>
-  </si>
-  <si>
-    <t>Free-Lancer</t>
-  </si>
-  <si>
-    <t>706010010004</t>
-  </si>
-  <si>
-    <t>Ilustração</t>
-  </si>
-  <si>
-    <t>706010020002</t>
-  </si>
-  <si>
-    <t>Pró-Labore</t>
-  </si>
-  <si>
-    <t>706010010007</t>
-  </si>
-  <si>
-    <t>70601002</t>
-  </si>
-  <si>
-    <t>Outros</t>
-  </si>
-  <si>
-    <t>Vale Alimentação</t>
-  </si>
-  <si>
-    <t>706010030002</t>
-  </si>
-  <si>
-    <t>Web Design</t>
-  </si>
-  <si>
-    <t>706010020004</t>
-  </si>
-  <si>
-    <t>Comemorações</t>
-  </si>
-  <si>
-    <t>706010030003</t>
-  </si>
-  <si>
-    <t>Parcelamento tributário</t>
-  </si>
-  <si>
-    <t>Outros impostos</t>
-  </si>
-  <si>
-    <t>Imposto - Parcelamento Tributário</t>
-  </si>
-  <si>
-    <t>707010010018</t>
-  </si>
-  <si>
-    <t>Parceiros/Fornecedores</t>
-  </si>
-  <si>
-    <t>Finder Fee</t>
-  </si>
-  <si>
-    <t>Finder Fee - Penta Hotels</t>
-  </si>
-  <si>
-    <t>705010010001</t>
-  </si>
-  <si>
-    <t>Fornecedores</t>
-  </si>
-  <si>
-    <t>Fornecedor - Artista Mynt</t>
-  </si>
-  <si>
-    <t>705010020004</t>
-  </si>
-  <si>
-    <t>Fornecedor - Artista Seamore</t>
-  </si>
-  <si>
-    <t>Fornecedor - Artista 55unity</t>
-  </si>
-  <si>
-    <t>705010020002</t>
-  </si>
-  <si>
-    <t>Parceiros</t>
-  </si>
-  <si>
-    <t>Parceiro - Little Devil</t>
-  </si>
-  <si>
-    <t>705020010001</t>
-  </si>
-  <si>
-    <t>Fornecedor - Alex Ramos</t>
-  </si>
-  <si>
-    <t>705010020001</t>
-  </si>
-  <si>
-    <t>Fornecedor - Artista Beats</t>
-  </si>
-  <si>
-    <t>705010020003</t>
-  </si>
-  <si>
-    <t>Fornecedor - Definitive</t>
-  </si>
-  <si>
-    <t>705010020005</t>
-  </si>
-  <si>
-    <t>Fornecedor - Denis Paganini</t>
-  </si>
-  <si>
-    <t>705010020006</t>
-  </si>
-  <si>
-    <t>Fornecedor - Jéssica Monteiro</t>
-  </si>
-  <si>
-    <t>705010020007</t>
-  </si>
-  <si>
-    <t>Fornecedor - Olga Bon</t>
-  </si>
-  <si>
-    <t>705010020009</t>
-  </si>
-  <si>
-    <t>Fornecedor - Venly</t>
-  </si>
-  <si>
-    <t>Lumx Protocol</t>
-  </si>
-  <si>
-    <t>705010020010</t>
-  </si>
-  <si>
-    <t>Fornecedor - Vtex</t>
-  </si>
-  <si>
-    <t>705010020011</t>
-  </si>
-  <si>
-    <t>Fornecedor - Werley Maer</t>
-  </si>
-  <si>
-    <t>705010020012</t>
-  </si>
-  <si>
-    <t>Custos Administrativos</t>
-  </si>
-  <si>
-    <t>Reembolso</t>
-  </si>
-  <si>
-    <t>704030040007</t>
-  </si>
-  <si>
-    <t>Provisionamento - Custos Extras</t>
-  </si>
-  <si>
-    <t>70904</t>
-  </si>
-  <si>
-    <t>Melhor Envio</t>
-  </si>
-  <si>
-    <t>706010030004</t>
-  </si>
-  <si>
-    <t>Compensação Carbono</t>
-  </si>
-  <si>
-    <t>Compensação por Emissão de Carbono</t>
-  </si>
-  <si>
-    <t>704030010001</t>
-  </si>
-  <si>
-    <t>Corrigir</t>
-  </si>
-  <si>
-    <t>704030040004</t>
-  </si>
-  <si>
-    <t>Seguros</t>
-  </si>
-  <si>
-    <t>Seguros - Societário</t>
-  </si>
-  <si>
-    <t>704030070001</t>
-  </si>
-  <si>
-    <t>Serasa</t>
-  </si>
-  <si>
-    <t>704030040006</t>
-  </si>
-  <si>
-    <t>Material de Uso e Consumo</t>
-  </si>
-  <si>
-    <t>Máquinas e Equipamentos</t>
-  </si>
-  <si>
-    <t>704020020003</t>
-  </si>
-  <si>
-    <t>704020020004</t>
-  </si>
-  <si>
-    <t>Mobília</t>
-  </si>
-  <si>
-    <t>704020020005</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Despesa de Marketing</t>
-  </si>
-  <si>
-    <t>70403004</t>
-  </si>
-  <si>
-    <t>Provisionamento - Marketing</t>
-  </si>
-  <si>
-    <t>70903</t>
-  </si>
-  <si>
-    <t>Assessoria de Imprensa</t>
-  </si>
-  <si>
-    <t>703020010001</t>
-  </si>
-  <si>
-    <t>Fontes</t>
-  </si>
-  <si>
-    <t>703020010004</t>
-  </si>
-  <si>
-    <t>Gleam Io</t>
-  </si>
-  <si>
-    <t>703020010005</t>
-  </si>
-  <si>
-    <t>Latitud</t>
-  </si>
-  <si>
-    <t>703020010007</t>
-  </si>
-  <si>
-    <t>Tráfego Pago</t>
-  </si>
-  <si>
-    <t>Mail Marketing</t>
-  </si>
-  <si>
-    <t>703020010015</t>
-  </si>
-  <si>
-    <t>Meta Ads</t>
-  </si>
-  <si>
-    <t>703020020001</t>
-  </si>
-  <si>
-    <t>Mlabs</t>
-  </si>
-  <si>
-    <t>703020010009</t>
-  </si>
-  <si>
-    <t>Roupas</t>
-  </si>
-  <si>
-    <t>703020010011</t>
-  </si>
-  <si>
-    <t>Twitter Ads</t>
-  </si>
-  <si>
-    <t>703020020002</t>
-  </si>
-  <si>
-    <t>Web Summit</t>
-  </si>
-  <si>
-    <t>703020010014</t>
-  </si>
-  <si>
-    <t>Jurídico</t>
-  </si>
-  <si>
-    <t>Provisionamento - Juridico</t>
-  </si>
-  <si>
-    <t>Provisionamento - Jurídico</t>
-  </si>
-  <si>
-    <t>70905</t>
-  </si>
-  <si>
-    <t>Seed - Brz</t>
-  </si>
-  <si>
-    <t>703040020002</t>
-  </si>
-  <si>
-    <t>Seed - Despachante</t>
-  </si>
-  <si>
-    <t>703040020001</t>
-  </si>
-  <si>
-    <t>Seed - Lima &amp; Feigelson</t>
-  </si>
-  <si>
-    <t>703040020003</t>
-  </si>
-  <si>
-    <t>Assessoria Jurídica</t>
-  </si>
-  <si>
-    <t>703030020001</t>
-  </si>
-  <si>
-    <t>Cartório</t>
-  </si>
-  <si>
-    <t>703030020002</t>
-  </si>
-  <si>
-    <t>Corporate/Societário</t>
-  </si>
-  <si>
-    <t>Corporate - Lima &amp; Feigelson</t>
-  </si>
-  <si>
-    <t>703030010001</t>
-  </si>
-  <si>
-    <t>Despesas Contratuais</t>
-  </si>
-  <si>
-    <t>703030020003</t>
-  </si>
-  <si>
-    <t>Faria Cendão e Maia</t>
-  </si>
-  <si>
-    <t>703030020004</t>
-  </si>
-  <si>
-    <t>Lgpd</t>
-  </si>
-  <si>
-    <t>Lgpd - Serviço</t>
-  </si>
-  <si>
-    <t>703030030001</t>
-  </si>
-  <si>
-    <t>Lgpd - Taxas</t>
-  </si>
-  <si>
-    <t>703030030002</t>
-  </si>
-  <si>
-    <t>Propriedade Intelectual</t>
-  </si>
-  <si>
-    <t>Propriedade Intelectual - Serviços</t>
-  </si>
-  <si>
-    <t>703030040001</t>
-  </si>
-  <si>
-    <t>Propriedade Intelectual - Taxas</t>
-  </si>
-  <si>
-    <t>703030040002</t>
-  </si>
-  <si>
-    <t>Societário - Alteração Contrato Social</t>
-  </si>
-  <si>
-    <t>703030010002</t>
-  </si>
-  <si>
-    <t>Societário - Outros</t>
-  </si>
-  <si>
-    <t>703030010003</t>
-  </si>
-  <si>
-    <t>Investimento</t>
-  </si>
-  <si>
-    <t>Subscrição de Investimento</t>
-  </si>
-  <si>
-    <t>Aporte</t>
-  </si>
-  <si>
-    <t>Mútuo Conversível</t>
-  </si>
-  <si>
-    <t>401010010004</t>
-  </si>
-  <si>
-    <t>Aporte Pre-Seed</t>
-  </si>
-  <si>
-    <t>401010010002</t>
-  </si>
-  <si>
-    <t>Integralização de Capital</t>
-  </si>
-  <si>
-    <t>401010010003</t>
-  </si>
-  <si>
-    <t>Impostos e Taxas</t>
-  </si>
-  <si>
-    <t>Imposto Receita</t>
-  </si>
-  <si>
-    <t>Imposto - Cofins</t>
-  </si>
-  <si>
-    <t>707010010008</t>
-  </si>
-  <si>
-    <t>Imposto - Csll</t>
-  </si>
-  <si>
-    <t>707010010009</t>
-  </si>
-  <si>
-    <t>Imposto - Darf</t>
-  </si>
-  <si>
-    <t>707010010007</t>
-  </si>
-  <si>
-    <t>Imposto Faturamento</t>
-  </si>
-  <si>
-    <t>Imposto - Irpj</t>
-  </si>
-  <si>
-    <t>707010010010</t>
-  </si>
-  <si>
-    <t>Imposto - Iss</t>
-  </si>
-  <si>
-    <t>707010010011</t>
-  </si>
-  <si>
-    <t>Imposto - Pis</t>
-  </si>
-  <si>
-    <t>707010010012</t>
-  </si>
-  <si>
-    <t>Imposto - Retenções</t>
-  </si>
-  <si>
-    <t>707010010021</t>
-  </si>
-  <si>
-    <t>Taxas Bancárias</t>
-  </si>
-  <si>
-    <t>Taxa - Bancária</t>
-  </si>
-  <si>
-    <t>707010020001</t>
-  </si>
-  <si>
-    <t>Taxas Compras</t>
-  </si>
-  <si>
-    <t>Taxa - Iof</t>
-  </si>
-  <si>
-    <t>707010020002</t>
-  </si>
-  <si>
-    <t>Taxas Diversas</t>
-  </si>
-  <si>
-    <t>Taxa - Outros</t>
-  </si>
-  <si>
-    <t>707010020003</t>
-  </si>
-  <si>
-    <t>Escritório</t>
-  </si>
-  <si>
-    <t>Despesas de Escritório</t>
-  </si>
-  <si>
-    <t>Aluguel</t>
-  </si>
-  <si>
-    <t>704020010001</t>
-  </si>
-  <si>
-    <t>Condomínio</t>
-  </si>
-  <si>
-    <t>704020010002</t>
-  </si>
-  <si>
-    <t>Energia Elétrica</t>
-  </si>
-  <si>
-    <t>704020010003</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>704020010005</t>
-  </si>
-  <si>
-    <t>Limpeza e Manutenção</t>
-  </si>
-  <si>
-    <t>704020010006</t>
-  </si>
-  <si>
-    <t>Obras</t>
-  </si>
-  <si>
-    <t>Reforma</t>
-  </si>
-  <si>
-    <t>704020030001</t>
-  </si>
-  <si>
-    <t>Custos na Blockchain</t>
-  </si>
-  <si>
-    <t>Contratos</t>
-  </si>
-  <si>
-    <t>Config. endereço IPFS NFTs pre reveal</t>
-  </si>
-  <si>
-    <t>0xfe2c7fee</t>
-  </si>
-  <si>
-    <t>Config. máximo de compras na public sale</t>
-  </si>
-  <si>
-    <t>0xfbdb8494</t>
-  </si>
-  <si>
-    <t>Blockchain</t>
-  </si>
-  <si>
-    <t>Serviços pontuais</t>
-  </si>
-  <si>
-    <t>0xf7a16963</t>
-  </si>
-  <si>
-    <t>0xf6de979d</t>
-  </si>
-  <si>
-    <t>Config. máximo de endereços</t>
-  </si>
-  <si>
-    <t>Alterar dono do contrato</t>
-  </si>
-  <si>
-    <t>NFTs</t>
-  </si>
-  <si>
-    <t>Envio de NFTs</t>
-  </si>
-  <si>
-    <t>0xe23d2ffa</t>
-  </si>
-  <si>
-    <t>Mint</t>
-  </si>
-  <si>
-    <t>Config. máximo de NTFs no contrato</t>
-  </si>
-  <si>
-    <t>Compra de NFTs em lote</t>
-  </si>
-  <si>
-    <t>0xb88d4fde</t>
-  </si>
-  <si>
-    <t>Alterar nome do contrato</t>
-  </si>
-  <si>
-    <t>Aprovar transação</t>
-  </si>
-  <si>
-    <t>0xa9059cbb</t>
-  </si>
-  <si>
-    <t>Saque</t>
-  </si>
-  <si>
-    <t>0xa22cb465</t>
-  </si>
-  <si>
-    <t>Transação crypto</t>
-  </si>
-  <si>
-    <t>0x9b642de1</t>
-  </si>
-  <si>
-    <t>Liberar endereço para TR de NFT</t>
-  </si>
-  <si>
-    <t>0x96d66de0</t>
-  </si>
-  <si>
-    <t>Config. endereço IPFS NFTs after reveal</t>
-  </si>
-  <si>
-    <t>0x94bf804d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mint de NFT </t>
-  </si>
-  <si>
-    <t>0x9229cd50</t>
-  </si>
-  <si>
-    <t>0x914e126a</t>
-  </si>
-  <si>
-    <t>Mint claim 2</t>
-  </si>
-  <si>
-    <t>0x8b9e4f93</t>
-  </si>
-  <si>
-    <t>Resgate de NFTs</t>
-  </si>
-  <si>
-    <t>0x803f01ca</t>
-  </si>
-  <si>
-    <t>Bridge ERC-20</t>
-  </si>
-  <si>
-    <t>0x79fc46c0</t>
-  </si>
-  <si>
-    <t>0x6f8b44b0</t>
-  </si>
-  <si>
-    <t>Config. endereço contrato</t>
-  </si>
-  <si>
-    <t>0x6b6af26d</t>
-  </si>
-  <si>
-    <t>0x5a5e5d58</t>
-  </si>
-  <si>
-    <t>Mint claim 3</t>
-  </si>
-  <si>
-    <t>Safe</t>
-  </si>
-  <si>
-    <t>Executar transação</t>
-  </si>
-  <si>
-    <t>0x4f1e9d3c</t>
-  </si>
-  <si>
-    <t>0x2d6dc943</t>
-  </si>
-  <si>
-    <t>Software - Loom</t>
-  </si>
-  <si>
-    <t>708010010023</t>
-  </si>
-  <si>
-    <t>Software - Magic Labs</t>
-  </si>
-  <si>
-    <t>708010010024</t>
-  </si>
-  <si>
-    <t>Software - Make.Com</t>
-  </si>
-  <si>
-    <t>708010010025</t>
-  </si>
-  <si>
-    <t>Software - Maze</t>
-  </si>
-  <si>
-    <t>708010010044</t>
-  </si>
-  <si>
-    <t>Software - Metabase</t>
-  </si>
-  <si>
-    <t>708010010026</t>
-  </si>
-  <si>
-    <t>Software - Mongo Db</t>
-  </si>
-  <si>
-    <t>708010010027</t>
-  </si>
-  <si>
-    <t>Software - Notion</t>
-  </si>
-  <si>
-    <t>708010010028</t>
-  </si>
-  <si>
-    <t>Software - Npm Inc</t>
-  </si>
-  <si>
-    <t>708010010029</t>
-  </si>
-  <si>
-    <t>Software - Office</t>
-  </si>
-  <si>
-    <t>708010010030</t>
-  </si>
-  <si>
-    <t>Software - Pacote Office</t>
-  </si>
-  <si>
-    <t>708010010032</t>
-  </si>
-  <si>
-    <t>Config. janela de compra Owner Originais</t>
-  </si>
-  <si>
-    <t>0x291168ab</t>
-  </si>
-  <si>
-    <t>0x38524a10</t>
-  </si>
-  <si>
-    <t>0x27d523ef</t>
-  </si>
-  <si>
-    <t>0x37da577c</t>
-  </si>
-  <si>
-    <t>0x27a81180</t>
-  </si>
-  <si>
-    <t>Alterar royalties secundários</t>
-  </si>
-  <si>
-    <t>0x3755fa80</t>
-  </si>
-  <si>
-    <t>0x23b872dd</t>
-  </si>
-  <si>
-    <t>0x142</t>
-  </si>
-  <si>
-    <t>Compra de NFTs</t>
-  </si>
-  <si>
-    <t>0x095ea7b39</t>
-  </si>
-  <si>
-    <t>0x095ea7b3</t>
-  </si>
-  <si>
-    <t>0x050225ea</t>
-  </si>
-  <si>
-    <t>Pausa no contrato</t>
-  </si>
-  <si>
-    <t>0x</t>
-  </si>
-  <si>
-    <t>Loja 55Unity</t>
-  </si>
-  <si>
-    <t>Provisionamento - Blockchain</t>
-  </si>
-  <si>
-    <t>70901</t>
-  </si>
-  <si>
-    <t>Custódia</t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
-    <t>Custódia - Conexões Games</t>
-  </si>
-  <si>
-    <t>201010010001</t>
-  </si>
-  <si>
-    <t>Custódia - Little Devil</t>
-  </si>
-  <si>
-    <t>201010020001</t>
-  </si>
-  <si>
-    <t>Contabilidade</t>
-  </si>
-  <si>
-    <t>Contabilidade - Extras</t>
-  </si>
-  <si>
-    <t>703040010002</t>
-  </si>
-  <si>
-    <t>Contabilidade - Serviço</t>
-  </si>
-  <si>
-    <t>703040010001</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>Despesa Comercial</t>
-  </si>
-  <si>
-    <t>Outras</t>
-  </si>
-  <si>
-    <t>Provisionamento - Comercial</t>
-  </si>
-  <si>
-    <t>70902</t>
-  </si>
-  <si>
-    <t>Alimentação</t>
-  </si>
-  <si>
-    <t>703010010002</t>
-  </si>
-  <si>
-    <t>Avião</t>
-  </si>
-  <si>
-    <t>703010010003</t>
-  </si>
-  <si>
-    <t>70301</t>
-  </si>
-  <si>
-    <t>Estacionamento</t>
-  </si>
-  <si>
-    <t>703010010005</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>703010010006</t>
-  </si>
-  <si>
-    <t>Hospedagem</t>
-  </si>
-  <si>
-    <t>703010010007</t>
-  </si>
-  <si>
-    <t>Ônibus</t>
-  </si>
-  <si>
-    <t>703010010014</t>
-  </si>
-  <si>
-    <t>Pedágio</t>
-  </si>
-  <si>
-    <t>703010010010</t>
-  </si>
-  <si>
-    <t>Transporte</t>
-  </si>
-  <si>
-    <t>703010010013</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>71004002</t>
-  </si>
-  <si>
-    <t>71004003</t>
-  </si>
-  <si>
-    <t>703020010016</t>
-  </si>
-  <si>
-    <t>Receita Desconhecida</t>
-  </si>
-  <si>
-    <t>503010010001</t>
-  </si>
-  <si>
-    <t>Software - 650 Industries (Expo)</t>
-  </si>
-  <si>
-    <t>708010010001</t>
-  </si>
-  <si>
-    <t>Software - Adobe</t>
-  </si>
-  <si>
-    <t>708010010002</t>
-  </si>
-  <si>
-    <t>Software - Alchemy</t>
-  </si>
-  <si>
-    <t>708010010003</t>
-  </si>
-  <si>
-    <t>Software - Amazon Web Service</t>
-  </si>
-  <si>
-    <t>708010010004</t>
-  </si>
-  <si>
-    <t>Software - Apple Store</t>
-  </si>
-  <si>
-    <t>708010010005</t>
-  </si>
-  <si>
-    <t>Software - Bot Discord</t>
-  </si>
-  <si>
-    <t>708010010006</t>
-  </si>
-  <si>
-    <t>Software - Calendly</t>
-  </si>
-  <si>
-    <t>708010010007</t>
-  </si>
-  <si>
-    <t>Software - Clicksign</t>
-  </si>
-  <si>
-    <t>708010010008</t>
-  </si>
-  <si>
-    <t>Software - Docsend</t>
-  </si>
-  <si>
-    <t>708010010010</t>
-  </si>
-  <si>
-    <t>Software - Envato</t>
-  </si>
-  <si>
-    <t>708010010011</t>
-  </si>
-  <si>
-    <t>Software - Erp</t>
-  </si>
-  <si>
-    <t>708010010012</t>
-  </si>
-  <si>
-    <t>Software - Figma</t>
-  </si>
-  <si>
-    <t>708010010013</t>
-  </si>
-  <si>
-    <t>Software - Font Awesome Pro</t>
-  </si>
-  <si>
-    <t>708010010014</t>
-  </si>
-  <si>
-    <t>Software - Freepik</t>
-  </si>
-  <si>
-    <t>708010010015</t>
-  </si>
-  <si>
-    <t>Software - Gitbook</t>
-  </si>
-  <si>
-    <t>708010010016</t>
-  </si>
-  <si>
-    <t>Software - Midjourney</t>
-  </si>
-  <si>
-    <t>708010010046</t>
-  </si>
-  <si>
-    <t>Software - Go Daddy</t>
-  </si>
-  <si>
-    <t>708010010017</t>
-  </si>
-  <si>
-    <t>Software - Google Gsuite</t>
-  </si>
-  <si>
-    <t>708010010018</t>
-  </si>
-  <si>
-    <t>Software - Google Pay</t>
-  </si>
-  <si>
-    <t>708010010019</t>
-  </si>
-  <si>
-    <t>Software - Icy Tools</t>
-  </si>
-  <si>
-    <t>708010010020</t>
-  </si>
-  <si>
-    <t>Software - Intercom</t>
-  </si>
-  <si>
-    <t>708010010021</t>
-  </si>
-  <si>
-    <t>Software - Jira</t>
-  </si>
-  <si>
-    <t>708010010041</t>
-  </si>
-  <si>
-    <t>71004001</t>
-  </si>
-  <si>
-    <t>Software - Kamino</t>
-  </si>
-  <si>
-    <t>708010010043</t>
-  </si>
-  <si>
-    <t>Software - Kinvo</t>
-  </si>
-  <si>
-    <t>708010010022</t>
-  </si>
-  <si>
-    <t>Software - Koinly</t>
-  </si>
-  <si>
-    <t>708010010031</t>
-  </si>
-  <si>
-    <t>Imposto - Csrf</t>
-  </si>
-  <si>
-    <t>707010010006</t>
-  </si>
-  <si>
-    <t>Transferências</t>
-  </si>
-  <si>
-    <t>704030080001</t>
-  </si>
-  <si>
-    <t>Societário - Taxas</t>
-  </si>
-  <si>
-    <t>703030010004</t>
-  </si>
-  <si>
-    <t>0x4c261247</t>
-  </si>
-  <si>
-    <t>Mint NFT public sale</t>
-  </si>
-  <si>
-    <t>0x42842e0e</t>
-  </si>
-  <si>
-    <t>0x405ebd4d</t>
-  </si>
-  <si>
-    <t>Mint claim 1</t>
-  </si>
-  <si>
-    <t>0x400839ad</t>
-  </si>
-  <si>
-    <t>Mudar link NFTs</t>
-  </si>
-  <si>
-    <t>Mint Pré Lançamento</t>
-  </si>
-  <si>
-    <t>0x3ccfd60b</t>
-  </si>
-  <si>
-    <t>Config. gerais</t>
-  </si>
-  <si>
-    <t>Config. Novo preço mint</t>
-  </si>
-  <si>
-    <t>Mint de NFT pre sale whitelist</t>
-  </si>
-  <si>
-    <t>0x1c43fede</t>
-  </si>
-  <si>
-    <t>0x1823</t>
-  </si>
-  <si>
-    <t>Erros</t>
-  </si>
-  <si>
-    <t>704030030001</t>
-  </si>
-  <si>
-    <t>Erro Mint Scam Reserva X</t>
-  </si>
-  <si>
-    <t>0x17231</t>
-  </si>
-  <si>
-    <t>Custódia - Mynt</t>
-  </si>
-  <si>
-    <t>201010010003</t>
-  </si>
-  <si>
-    <t>Despesa</t>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t>Aplicativo de transporte</t>
-  </si>
-  <si>
-    <t>Decoração</t>
-  </si>
-  <si>
-    <t>704020010007</t>
-  </si>
-  <si>
-    <t>Setupfee - Conexões Games</t>
-  </si>
-  <si>
-    <t>502010010014</t>
+    <t>recorrência</t>
   </si>
 </sst>
 </file>
@@ -11844,11 +10278,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
-  <sheetPr codeName="Planilha1" filterMode="1"/>
-  <dimension ref="A1:K244"/>
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K245" sqref="K245"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11861,12 +10295,13 @@
     <col min="7" max="7" width="36" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="16.33203125" style="5"/>
+    <col min="10" max="10" width="14.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>3279</v>
       </c>
@@ -11895,6804 +10330,150 @@
         <v>3280</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3484</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3507</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3420</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>3421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>3315</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>3375</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3315</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>3373</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>3360</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>3374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>3315</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>3371</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>3372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>3315</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>3315</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>3316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>3317</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>3369</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>3370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>3317</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>3367</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>3360</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>3368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>3317</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>3365</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>3366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3317</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>3317</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>3318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>3378</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>3378</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>3382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>3384</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>3418</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>3320</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>3321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>3496</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>3505</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>3506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>3773</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>3773</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>3618</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>3615</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>3619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>3618</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>3671</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>3671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>3618</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>3677</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>3677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>3576</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>3577</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>3578</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>3573</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>3574</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>3570</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>3571</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>3301</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>3299</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>3297</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>3298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>3295</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>3296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>3311</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>3293</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>3294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>3291</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>3289</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>3290</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>3287</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>3288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>3660</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>3661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>3658</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>3659</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>3656</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>3657</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>3654</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>3655</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>3309</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>3652</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>3653</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>3750</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>3751</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>3650</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>3651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>3648</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>3649</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>3646</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>3647</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>3644</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>3645</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>3642</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>3643</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>3769</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>3767</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>3768</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>3765</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>3766</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>3762</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>3763</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>3760</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>3761</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>3758</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>3756</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>3757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>3754</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>3755</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>3752</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>3753</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>3748</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>3749</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>3746</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>3747</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>3744</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>3745</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>3742</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>3743</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>3740</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>3741</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>3738</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>3739</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>3303</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>3304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>3736</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>3737</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>3307</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>3308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>3734</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>3735</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>3732</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>3733</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>3730</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>3731</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>3728</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>3729</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>3726</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>3727</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>3724</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>3725</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>3722</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>3723</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>3720</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>3721</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>3305</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>3523</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>3775</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>3776</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>3523</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>3542</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>3543</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>3523</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>3540</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>3541</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>3362</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>3364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>3359</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>3360</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>3361</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>3357</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>3358</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>3354</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>3355</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>3356</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>3352</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>3349</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>3350</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>3347</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>3324</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>3348</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>3345</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>3331</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>3346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>3342</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>3344</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>3340</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>3338</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>3341</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>3337</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>3338</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>3339</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>3405</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>3416</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>3601</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>3602</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>3603</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>3601</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>3608</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>3601</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>3777</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>3475</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>3476</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>3472</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>3473</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>3474</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>3517</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>3515</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>3516</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>3513</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>3514</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>3616</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>3617</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>3484</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>3503</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>3504</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>3629</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>3626</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>3629</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>3664</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>3665</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>3579</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>3591</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>3592</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>3461</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>3462</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>3718</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>3718</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>3268</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>3719</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>3486</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>3486</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>3487</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>3510</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>3511</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>3512</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>3463</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>3463</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>3695</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>3695</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>3696</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>3679</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>3679</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>3680</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>3535</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>3538</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>3539</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>3535</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>3536</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>3537</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>3384</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>3414</v>
-      </c>
-      <c r="K108" s="4" t="s">
-        <v>3415</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>3384</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>3387</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>1555</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>3388</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>3712</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>3710</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>3676</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>3438</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>3439</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>3440</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>3484</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>3127</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>3717</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>3693</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>3694</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>1554</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>3712</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>3708</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>3709</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>3544</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>3544</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>3545</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>3545</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>3545</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>3546</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>3547</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K117" s="4" t="s">
-        <v>3548</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>3783</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>3777</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>3477</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>3481</v>
-      </c>
-      <c r="K119" s="4" t="s">
-        <v>3482</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>3484</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>3501</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>3784</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>3316</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>3785</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>3778</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>3636</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>3779</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>3788</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>3641</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>3624</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>3621</v>
-      </c>
-      <c r="K124" s="4" t="s">
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>3637</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>3635</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>3627</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>3625</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>3628</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>3781</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>3640</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>3782</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>3609</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>3609</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>3623</v>
-      </c>
-      <c r="K129" s="4" t="s">
-        <v>3626</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>3609</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>3790</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>3496</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>3499</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>3465</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>3466</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>3477</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>3477</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>3477</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>3478</v>
-      </c>
-      <c r="K134" s="4" t="s">
-        <v>3479</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>3326</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>3333</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K135" s="4" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>3326</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>3330</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>3331</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K136" s="4" t="s">
-        <v>3332</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>3326</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>3327</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K137" s="4" t="s">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>3496</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>3497</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>3498</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>3678</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>3128</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>3579</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>3580</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>3589</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>3620</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>3617</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>3621</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>3530</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>3533</v>
-      </c>
-      <c r="K142" s="4" t="s">
-        <v>3534</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>3530</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>3531</v>
-      </c>
-      <c r="K143" s="4" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>3484</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>3494</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>3379</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>3380</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>3381</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>3579</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>3580</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>3587</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>3588</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>3544</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>3544</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>3545</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>3545</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>3545</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>3546</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>3551</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>3552</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>3425</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>3568</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>3569</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>3554</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>3566</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>3424</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>3425</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>3426</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>3427</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>3554</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>3564</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>3390</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>3393</v>
-      </c>
-      <c r="K152" s="4" t="s">
-        <v>3394</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>3561</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>3562</v>
-      </c>
-      <c r="K153" s="4" t="s">
-        <v>3563</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>3390</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>3391</v>
-      </c>
-      <c r="K154" s="4" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>3425</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>3559</v>
-      </c>
-      <c r="K155" s="4" t="s">
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>3390</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>3771</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>3554</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>3557</v>
-      </c>
-      <c r="K157" s="4" t="s">
-        <v>3558</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>3390</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>3399</v>
-      </c>
-      <c r="K158" s="4" t="s">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>3390</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>3397</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>3398</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>3390</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>3395</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>3554</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>3555</v>
-      </c>
-      <c r="K161" s="4" t="s">
-        <v>3556</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>3412</v>
-      </c>
-      <c r="K162" s="4" t="s">
-        <v>3413</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>3706</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>3714</v>
-      </c>
-      <c r="K163" s="4" t="s">
-        <v>3715</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>3693</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>3706</v>
-      </c>
-      <c r="K164" s="4" t="s">
-        <v>3707</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>3484</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>3492</v>
-      </c>
-      <c r="K165" s="4" t="s">
-        <v>3493</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>3693</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>3704</v>
-      </c>
-      <c r="K166" s="4" t="s">
-        <v>3705</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>3384</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>3410</v>
-      </c>
-      <c r="K167" s="4" t="s">
-        <v>3411</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>3458</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I168" s="7" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K168" s="4" t="s">
-        <v>3459</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>3456</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>3454</v>
-      </c>
-      <c r="I169" s="7" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K169" s="4" t="s">
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>3453</v>
-      </c>
-      <c r="H170" s="4" t="s">
-        <v>3454</v>
-      </c>
-      <c r="I170" s="7" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K170" s="4" t="s">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>3451</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>3324</v>
-      </c>
-      <c r="I171" s="7" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K171" s="4" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>3449</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I172" s="7" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K172" s="4" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>3447</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I173" s="7" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K173" s="4" t="s">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>3445</v>
-      </c>
-      <c r="H174" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I174" s="7" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K174" s="4" t="s">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>3435</v>
-      </c>
-      <c r="H175" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I175" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>3135</v>
-      </c>
-      <c r="K175" s="4" t="s">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>3433</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>3136</v>
-      </c>
-      <c r="K176" s="4" t="s">
-        <v>3434</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>3443</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>3338</v>
-      </c>
-      <c r="I177" s="7" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K177" s="4" t="s">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>3436</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>3134</v>
-      </c>
-      <c r="K178" s="4" t="s">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>3441</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I179" s="7" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K179" s="4" t="s">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>3484</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>3490</v>
-      </c>
-      <c r="K180" s="4" t="s">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>3408</v>
-      </c>
-      <c r="K181" s="4" t="s">
-        <v>3409</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>3429</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>3430</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I182" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="J182" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K182" s="4" t="s">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>3528</v>
-      </c>
-      <c r="K183" s="4" t="s">
-        <v>3529</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>3638</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>3639</v>
-      </c>
-      <c r="J184" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K184" s="4" t="s">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>3693</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>3702</v>
-      </c>
-      <c r="K185" s="4" t="s">
-        <v>3703</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>3791</v>
-      </c>
-      <c r="J186" s="4" t="s">
-        <v>1556</v>
-      </c>
-      <c r="K186" s="4" t="s">
-        <v>3792</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>3793</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I187" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="J187" s="4" t="s">
-        <v>3794</v>
-      </c>
-      <c r="K187" s="4" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>3607</v>
-      </c>
-      <c r="J188" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="K188" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>3607</v>
-      </c>
-      <c r="J189" s="4" t="s">
-        <v>3630</v>
-      </c>
-      <c r="K189" s="4" t="s">
-        <v>3633</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>3607</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>3675</v>
-      </c>
-      <c r="K190" s="4" t="s">
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G191" s="4" t="s">
-        <v>3607</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>3779</v>
-      </c>
-      <c r="K191" s="4" t="s">
-        <v>3664</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>3579</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>3580</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>3585</v>
-      </c>
-      <c r="K192" s="4" t="s">
-        <v>3586</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>3526</v>
-      </c>
-      <c r="K193" s="4" t="s">
-        <v>3527</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>3682</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>3795</v>
-      </c>
-      <c r="H194" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K194" s="4" t="s">
-        <v>3796</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>3438</v>
-      </c>
-      <c r="G195" s="4" t="s">
-        <v>3685</v>
-      </c>
-      <c r="H195" s="4" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I195" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K195" s="4" t="s">
-        <v>3686</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>3681</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>3682</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>3683</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I196" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K196" s="4" t="s">
-        <v>3684</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>3470</v>
-      </c>
-      <c r="K197" s="4" t="s">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>3523</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>3524</v>
-      </c>
-      <c r="K198" s="4" t="s">
-        <v>3525</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>3378</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K199" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>3406</v>
-      </c>
-      <c r="K200" s="4" t="s">
-        <v>3407</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>3687</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F201" s="4" t="s">
-        <v>3687</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>3690</v>
-      </c>
-      <c r="K201" s="4" t="s">
-        <v>3691</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>3687</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>3687</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>3688</v>
-      </c>
-      <c r="K202" s="4" t="s">
-        <v>3689</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>3322</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>3323</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>3324</v>
-      </c>
-      <c r="I203" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K203" s="4" t="s">
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>3787</v>
-      </c>
-      <c r="J204" s="4" t="s">
-        <v>3782</v>
-      </c>
-      <c r="K204" s="4" t="s">
-        <v>3669</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F205" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G205" s="4" t="s">
-        <v>3610</v>
-      </c>
-      <c r="J205" s="4" t="s">
-        <v>3608</v>
-      </c>
-      <c r="K205" s="4" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G206" s="4" t="s">
-        <v>3610</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>3633</v>
-      </c>
-      <c r="K206" s="4" t="s">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>3610</v>
-      </c>
-      <c r="J207" s="4" t="s">
-        <v>3666</v>
-      </c>
-      <c r="K207" s="4" t="s">
-        <v>3667</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G208" s="4" t="s">
-        <v>3604</v>
-      </c>
-      <c r="J208" s="4" t="s">
-        <v>3603</v>
-      </c>
-      <c r="K208" s="4" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F209" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>3598</v>
-      </c>
-      <c r="J209" s="4" t="s">
-        <v>3599</v>
-      </c>
-      <c r="K209" s="4" t="s">
-        <v>3599</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G210" s="4" t="s">
-        <v>3662</v>
-      </c>
-      <c r="J210" s="4" t="s">
-        <v>3318</v>
-      </c>
-      <c r="K210" s="4" t="s">
-        <v>3663</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>3786</v>
-      </c>
-      <c r="J211" s="4" t="s">
-        <v>3780</v>
-      </c>
-      <c r="K211" s="4" t="s">
-        <v>3666</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G212" s="4" t="s">
-        <v>3596</v>
-      </c>
-      <c r="J212" s="4" t="s">
-        <v>3597</v>
-      </c>
-      <c r="K212" s="4" t="s">
-        <v>3597</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G213" s="4" t="s">
-        <v>3596</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K213" s="4" t="s">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G214" s="4" t="s">
-        <v>3622</v>
-      </c>
-      <c r="J214" s="4" t="s">
-        <v>3619</v>
-      </c>
-      <c r="K214" s="4" t="s">
-        <v>3623</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G215" s="4" t="s">
-        <v>3634</v>
-      </c>
-      <c r="J215" s="4" t="s">
-        <v>3632</v>
-      </c>
-      <c r="K215" s="4" t="s">
-        <v>3635</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>3579</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>3580</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>3583</v>
-      </c>
-      <c r="K216" s="4" t="s">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G217" s="4" t="s">
-        <v>3611</v>
-      </c>
-      <c r="J217" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="K217" s="4" t="s">
-        <v>3612</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>3611</v>
-      </c>
-      <c r="J218" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="K218" s="4" t="s">
-        <v>3641</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F219" s="4" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G219" s="4" t="s">
-        <v>3672</v>
-      </c>
-      <c r="J219" s="4" t="s">
-        <v>3673</v>
-      </c>
-      <c r="K219" s="4" t="s">
-        <v>3673</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>3467</v>
-      </c>
-      <c r="G220" s="4" t="s">
-        <v>3468</v>
-      </c>
-      <c r="K220" s="4" t="s">
-        <v>3469</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>3693</v>
-      </c>
-      <c r="G221" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="K221" s="4" t="s">
-        <v>3701</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F222" s="4" t="s">
-        <v>3417</v>
-      </c>
-      <c r="G222" s="4" t="s">
-        <v>3422</v>
-      </c>
-      <c r="K222" s="4" t="s">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="G223" s="4" t="s">
-        <v>3521</v>
-      </c>
-      <c r="K223" s="4" t="s">
-        <v>3522</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G224" s="4" t="s">
-        <v>3631</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>3628</v>
-      </c>
-      <c r="K224" s="4" t="s">
-        <v>3632</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>3384</v>
-      </c>
-      <c r="G225" s="4" t="s">
-        <v>3385</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="K225" s="4" t="s">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>3384</v>
-      </c>
-      <c r="G226" s="4" t="s">
-        <v>3403</v>
-      </c>
-      <c r="K226" s="4" t="s">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>3712</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>3699</v>
-      </c>
-      <c r="K227" s="4" t="s">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F228" s="4" t="s">
-        <v>3712</v>
-      </c>
-      <c r="G228" s="4" t="s">
-        <v>3699</v>
-      </c>
-      <c r="K228" s="4" t="s">
-        <v>3764</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>3509</v>
-      </c>
-      <c r="G229" s="4" t="s">
-        <v>3519</v>
-      </c>
-      <c r="K229" s="4" t="s">
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>3484</v>
-      </c>
-      <c r="G230" s="4" t="s">
-        <v>3488</v>
-      </c>
-      <c r="K230" s="4" t="s">
-        <v>3489</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G231" s="4" t="s">
-        <v>3614</v>
-      </c>
-      <c r="J231" s="4" t="s">
-        <v>3612</v>
-      </c>
-      <c r="K231" s="4" t="s">
-        <v>3615</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>3638</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>3614</v>
-      </c>
-      <c r="J232" s="4" t="s">
-        <v>3674</v>
-      </c>
-      <c r="K232" s="4" t="s">
-        <v>3674</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
-        <v>3544</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>3544</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>3545</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>3545</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>3545</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>3546</v>
-      </c>
-      <c r="G233" s="4" t="s">
-        <v>3549</v>
-      </c>
-      <c r="K233" s="4" t="s">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>3712</v>
-      </c>
-      <c r="G234" s="4" t="s">
-        <v>3799</v>
-      </c>
-      <c r="K234" s="4" t="s">
-        <v>3713</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>3712</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>3799</v>
-      </c>
-      <c r="K235" s="4" t="s">
-        <v>3716</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>3284</v>
-      </c>
-      <c r="G236" s="4" t="s">
-        <v>3285</v>
-      </c>
-      <c r="K236" s="4" t="s">
-        <v>3286</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>3384</v>
-      </c>
-      <c r="G237" s="4" t="s">
-        <v>3401</v>
-      </c>
-      <c r="K237" s="4" t="s">
-        <v>3402</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>3579</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>3580</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>3581</v>
-      </c>
-      <c r="K238" s="4" t="s">
-        <v>3582</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>3668</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>3669</v>
-      </c>
-      <c r="K239" s="4" t="s">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G240" s="4" t="s">
-        <v>3613</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K240" s="4" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>3594</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>3595</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>3605</v>
-      </c>
-      <c r="J241" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="K241" s="4" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>3692</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>3693</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>3697</v>
-      </c>
-      <c r="K242" s="4" t="s">
-        <v>3698</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>3579</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>3580</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>3800</v>
-      </c>
-      <c r="K243" s="4" t="s">
-        <v>3801</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="G244" s="4" t="s">
-        <v>3802</v>
-      </c>
-      <c r="H244" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I244" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="K244" s="4" t="s">
-        <v>3803</v>
-      </c>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="7"/>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="7"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J58" s="7"/>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J64" s="7"/>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J70" s="7"/>
+    </row>
+    <row r="110" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F110" s="7"/>
+    </row>
+    <row r="112" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="168" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+    </row>
+    <row r="169" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+    </row>
+    <row r="170" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+    </row>
+    <row r="171" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+    </row>
+    <row r="173" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+    </row>
+    <row r="174" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+    </row>
+    <row r="177" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+    </row>
+    <row r="179" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K243" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Setupfee - Ambev"/>
-        <filter val="Setupfee - Beats"/>
-        <filter val="Setupfee - Coca Cola"/>
-        <filter val="Setupfee - Fitdance"/>
-        <filter val="Setupfee - Guaraná Antartica"/>
-        <filter val="Setupfee - Los Grandes"/>
-        <filter val="Setupfee - Mynt"/>
-        <filter val="Setupfee - Nestle"/>
-        <filter val="Setupfee - Penta Hotels"/>
-        <filter val="Setupfee - Reserva X"/>
-        <filter val="Setupfee - Sato"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L244" xr:uid="{066BE734-768B-914B-8AED-05D80DC2A12B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB75D88-A6B2-F747-9B0F-5FC78EB9AE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6789F40-A945-7946-A3B5-5F4300DF4513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="920" windowWidth="30660" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="2920" yWindow="860" windowWidth="19180" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12179" uniqueCount="3282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12197" uniqueCount="3290">
   <si>
     <t>projeto</t>
   </si>
@@ -9892,6 +9892,30 @@
   </si>
   <si>
     <t>recorrência</t>
+  </si>
+  <si>
+    <t>Software - Spilinedesign</t>
+  </si>
+  <si>
+    <t>Software - Morflax</t>
+  </si>
+  <si>
+    <t>Despesa</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Custos Operacionais</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>708010010050</t>
+  </si>
+  <si>
+    <t>708010010051</t>
   </si>
 </sst>
 </file>
@@ -10281,8 +10305,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10337,6 +10361,64 @@
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3287</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>3287</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3288</v>
       </c>
     </row>
     <row r="37" spans="10:10" x14ac:dyDescent="0.2">

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6789F40-A945-7946-A3B5-5F4300DF4513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807CA592-C1C9-6644-9432-09EAFE1AC10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="860" windowWidth="19180" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="3540" yWindow="860" windowWidth="19180" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -10305,8 +10305,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807CA592-C1C9-6644-9432-09EAFE1AC10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022A9647-57B0-B143-80FB-23665C2EBEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="860" windowWidth="19180" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="1840" yWindow="-18760" windowWidth="17700" windowHeight="15360" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12197" uniqueCount="3290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12215" uniqueCount="3298">
   <si>
     <t>projeto</t>
   </si>
@@ -9916,6 +9916,30 @@
   </si>
   <si>
     <t>708010010051</t>
+  </si>
+  <si>
+    <t>Corporate/Societário</t>
+  </si>
+  <si>
+    <t>Jurídico</t>
+  </si>
+  <si>
+    <t>Societário - Taxa AGE</t>
+  </si>
+  <si>
+    <t>Societário - Taxa ARCA</t>
+  </si>
+  <si>
+    <t>703030010005</t>
+  </si>
+  <si>
+    <t>703030010006</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Semestral</t>
   </si>
 </sst>
 </file>
@@ -10305,13 +10329,13 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23.83203125" style="4" bestFit="1" customWidth="1"/>
@@ -10419,6 +10443,64 @@
       </c>
       <c r="L3" t="s">
         <v>3288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>3296</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3293</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>3297</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="37" spans="10:10" x14ac:dyDescent="0.2">

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Desktop/Lumx---Principal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807CA592-C1C9-6644-9432-09EAFE1AC10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6118E90B-76DA-CD42-A85F-57018D292844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="860" windowWidth="19180" windowHeight="19080" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="8000" yWindow="500" windowWidth="19620" windowHeight="10680" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12197" uniqueCount="3290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12188" uniqueCount="3289">
   <si>
     <t>projeto</t>
   </si>
@@ -9894,28 +9894,25 @@
     <t>recorrência</t>
   </si>
   <si>
-    <t>Software - Spilinedesign</t>
-  </si>
-  <si>
-    <t>Software - Morflax</t>
-  </si>
-  <si>
     <t>Despesa</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
     <t>Custos Operacionais</t>
   </si>
   <si>
-    <t>Mensal</t>
-  </si>
-  <si>
-    <t>708010010050</t>
-  </si>
-  <si>
-    <t>708010010051</t>
+    <t>0x60a06040</t>
+  </si>
+  <si>
+    <t>Contratos</t>
+  </si>
+  <si>
+    <t>Creação de Contrato</t>
+  </si>
+  <si>
+    <t>Custos na Blockchain</t>
+  </si>
+  <si>
+    <t>Custo</t>
   </si>
 </sst>
 </file>
@@ -10305,23 +10302,23 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
@@ -10365,61 +10362,35 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>3284</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3285</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>3287</v>
+        <v>3286</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="L2" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3284</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3285</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3284</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3286</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3286</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3285</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3287</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3288</v>
-      </c>
+      <c r="L3"/>
     </row>
     <row r="37" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J37" s="7"/>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb/Lumx---Principal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6118E90B-76DA-CD42-A85F-57018D292844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F218FB2C-2FF0-4443-8DF2-4AB8271B616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="500" windowWidth="19620" windowHeight="10680" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{6E7CC2B9-504E-8840-97C2-73A8349B000E}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12188" uniqueCount="3289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12196" uniqueCount="3293">
   <si>
     <t>projeto</t>
   </si>
@@ -9913,6 +9913,18 @@
   </si>
   <si>
     <t>Custo</t>
+  </si>
+  <si>
+    <t>706010010008</t>
+  </si>
+  <si>
+    <t>Cursos</t>
+  </si>
+  <si>
+    <t>Pessoal</t>
+  </si>
+  <si>
+    <t>Outros</t>
   </si>
 </sst>
 </file>
@@ -9974,7 +9986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9985,6 +9997,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10302,8 +10315,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10318,7 +10331,7 @@
     <col min="9" max="9" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
@@ -10356,7 +10369,7 @@
       <c r="K1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10385,12 +10398,35 @@
       <c r="K2" s="4" t="s">
         <v>3284</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>3284</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L3"/>
+      <c r="A3" s="4" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3292</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>3289</v>
+      </c>
     </row>
     <row r="37" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J37" s="7"/>
